--- a/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
+++ b/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Documents\DBA(Digital barrier analysis)\Translation\Provided by client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2747,7 +2747,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2775,6 +2775,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,7 +2841,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
@@ -2885,13 +2891,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2903,19 +2924,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3300,37 +3309,37 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>579</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="28" t="s">
         <v>100</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="28" t="s">
         <v>370</v>
       </c>
       <c r="O3" s="14" t="s">
@@ -3338,92 +3347,92 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="17"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="17" t="s">
         <v>583</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="13" t="s">
         <v>104</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="14" t="s">
         <v>375</v>
       </c>
@@ -3432,29 +3441,29 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="25" t="s">
         <v>585</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="25" t="s">
         <v>106</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="25"/>
+      <c r="N8" s="25" t="s">
         <v>377</v>
       </c>
       <c r="O8" s="14" t="s">
@@ -3462,50 +3471,50 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="14" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="17" t="s">
         <v>587</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="13" t="s">
         <v>108</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="14" t="s">
         <v>379</v>
       </c>
@@ -3514,29 +3523,29 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="26" t="s">
         <v>237</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="25" t="s">
         <v>589</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="25" t="s">
         <v>110</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23" t="s">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25" t="s">
         <v>381</v>
       </c>
       <c r="O11" s="14" t="s">
@@ -3544,73 +3553,73 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="26" t="s">
         <v>240</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="25" t="s">
         <v>592</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="23" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="25" t="s">
         <v>113</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23" t="s">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25" t="s">
         <v>384</v>
       </c>
       <c r="O14" s="14" t="s">
@@ -3618,94 +3627,94 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17" t="s">
         <v>597</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="13" t="s">
         <v>116</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="23"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="14" t="s">
         <v>387</v>
       </c>
@@ -3714,28 +3723,28 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="17" t="s">
         <v>599</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="13" t="s">
         <v>118</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="23"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="18" t="s">
         <v>548</v>
       </c>
@@ -3744,28 +3753,28 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="17" t="s">
         <v>600</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I20" s="26"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="13" t="s">
         <v>119</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="23"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="18" t="s">
         <v>549</v>
       </c>
@@ -3774,28 +3783,28 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="17" t="s">
         <v>601</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I21" s="26"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="23"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="14" t="s">
         <v>389</v>
       </c>
@@ -3804,28 +3813,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="17" t="s">
         <v>602</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I22" s="26"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="13" t="s">
         <v>122</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="M22" s="23"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="18" t="s">
         <v>550</v>
       </c>
@@ -3834,28 +3843,28 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="17" t="s">
         <v>604</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I23" s="26"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="13" t="s">
         <v>123</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="14" t="s">
         <v>392</v>
       </c>
@@ -3864,29 +3873,29 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="26" t="s">
         <v>503</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="25" t="s">
         <v>605</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="23" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="25" t="s">
         <v>504</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23" t="s">
+      <c r="M24" s="25"/>
+      <c r="N24" s="25" t="s">
         <v>394</v>
       </c>
       <c r="O24" s="14" t="s">
@@ -3894,59 +3903,59 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="23"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="23"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="25" t="s">
         <v>255</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="25" t="s">
         <v>607</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="25" t="s">
         <v>258</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="27" t="s">
         <v>551</v>
       </c>
       <c r="O26" s="14" t="s">
@@ -3954,51 +3963,51 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="27"/>
       <c r="O27" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="25" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
         <v>608</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23" t="s">
+      <c r="I28" s="25"/>
+      <c r="J28" s="25" t="s">
         <v>257</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23" t="s">
+      <c r="M28" s="25"/>
+      <c r="N28" s="25" t="s">
         <v>505</v>
       </c>
       <c r="O28" s="14" t="s">
@@ -4006,51 +4015,51 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="25" t="s">
         <v>253</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
         <v>609</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
+      <c r="I30" s="25"/>
+      <c r="J30" s="25" t="s">
         <v>256</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23" t="s">
+      <c r="M30" s="25"/>
+      <c r="N30" s="25" t="s">
         <v>396</v>
       </c>
       <c r="O30" s="14" t="s">
@@ -4058,51 +4067,51 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="25" t="s">
         <v>259</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>610</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23" t="s">
+      <c r="M32" s="25"/>
+      <c r="N32" s="25" t="s">
         <v>397</v>
       </c>
       <c r="O32" s="14" t="s">
@@ -4110,53 +4119,53 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="25" t="s">
         <v>260</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="25" t="s">
         <v>611</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23" t="s">
+      <c r="M34" s="25"/>
+      <c r="N34" s="25" t="s">
         <v>398</v>
       </c>
       <c r="O34" s="14" t="s">
@@ -4164,40 +4173,40 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="23" t="s">
         <v>262</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="25" t="s">
         <v>612</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -4206,7 +4215,7 @@
       <c r="G36" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="25" t="s">
         <v>128</v>
       </c>
       <c r="J36" s="13" t="s">
@@ -4215,7 +4224,7 @@
       <c r="K36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="25" t="s">
         <v>399</v>
       </c>
       <c r="N36" s="14" t="s">
@@ -4226,28 +4235,28 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="17" t="s">
         <v>614</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="13" t="s">
         <v>131</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="23"/>
+      <c r="M37" s="25"/>
       <c r="N37" s="14" t="s">
         <v>401</v>
       </c>
@@ -4256,28 +4265,28 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="17" t="s">
         <v>616</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M38" s="23"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="14" t="s">
         <v>403</v>
       </c>
@@ -4286,28 +4295,28 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="17" t="s">
         <v>617</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="23"/>
+      <c r="M39" s="25"/>
       <c r="N39" s="14" t="s">
         <v>405</v>
       </c>
@@ -4316,29 +4325,29 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26" t="s">
         <v>268</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="25" t="s">
         <v>619</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23" t="s">
+      <c r="I40" s="25"/>
+      <c r="J40" s="25" t="s">
         <v>137</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23" t="s">
+      <c r="M40" s="25"/>
+      <c r="N40" s="25" t="s">
         <v>507</v>
       </c>
       <c r="O40" s="14" t="s">
@@ -4346,50 +4355,50 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
       <c r="O41" s="4" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="17" t="s">
         <v>622</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="25"/>
       <c r="J42" s="13" t="s">
         <v>138</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="23"/>
+      <c r="M42" s="25"/>
       <c r="N42" s="14" t="s">
         <v>407</v>
       </c>
@@ -4398,28 +4407,28 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="17" t="s">
         <v>623</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="13" t="s">
         <v>509</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M43" s="23"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="14" t="s">
         <v>408</v>
       </c>
@@ -4428,16 +4437,16 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="23" t="s">
         <v>277</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="25" t="s">
         <v>625</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -4446,7 +4455,7 @@
       <c r="G44" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="I44" s="25" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="13" t="s">
@@ -4455,7 +4464,7 @@
       <c r="K44" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="M44" s="25" t="s">
         <v>515</v>
       </c>
       <c r="N44" s="14" t="s">
@@ -4466,28 +4475,28 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="17" t="s">
         <v>628</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="13" t="s">
         <v>142</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M45" s="23"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="14" t="s">
         <v>410</v>
       </c>
@@ -4496,28 +4505,28 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="32" t="s">
+      <c r="A46" s="25"/>
+      <c r="B46" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="17" t="s">
         <v>629</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I46" s="23"/>
+      <c r="I46" s="25"/>
       <c r="J46" s="13" t="s">
         <v>143</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M46" s="23"/>
+      <c r="M46" s="25"/>
       <c r="N46" s="14" t="s">
         <v>412</v>
       </c>
@@ -4526,28 +4535,28 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="32" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="17" t="s">
         <v>630</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I47" s="23"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="13" t="s">
         <v>144</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="23"/>
+      <c r="M47" s="25"/>
       <c r="N47" s="14" t="s">
         <v>416</v>
       </c>
@@ -4558,28 +4567,28 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="32" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="17" t="s">
         <v>631</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I48" s="23"/>
+      <c r="I48" s="25"/>
       <c r="J48" s="13" t="s">
         <v>145</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M48" s="23"/>
+      <c r="M48" s="25"/>
       <c r="N48" s="14" t="s">
         <v>417</v>
       </c>
@@ -4590,28 +4599,28 @@
       <c r="Q48" s="14"/>
     </row>
     <row r="49" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="32" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="17" t="s">
         <v>632</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="I49" s="23"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="13" t="s">
         <v>147</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M49" s="23"/>
+      <c r="M49" s="25"/>
       <c r="N49" s="14" t="s">
         <v>419</v>
       </c>
@@ -4622,29 +4631,29 @@
       <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26" t="s">
         <v>285</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23" t="s">
+      <c r="E50" s="25"/>
+      <c r="F50" s="25" t="s">
         <v>634</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23" t="s">
+      <c r="I50" s="25"/>
+      <c r="J50" s="25" t="s">
         <v>149</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23" t="s">
+      <c r="M50" s="25"/>
+      <c r="N50" s="25" t="s">
         <v>413</v>
       </c>
       <c r="O50" s="14" t="s">
@@ -4654,60 +4663,60 @@
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
       <c r="K51" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
       <c r="O51" s="14" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
       <c r="K52" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
       <c r="O52" s="14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="24" t="s">
         <v>555</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="25" t="s">
         <v>637</v>
       </c>
       <c r="F53" s="17" t="s">
@@ -4716,7 +4725,7 @@
       <c r="G53" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="25" t="s">
         <v>150</v>
       </c>
       <c r="J53" s="13" t="s">
@@ -4725,7 +4734,7 @@
       <c r="K53" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="M53" s="23" t="s">
+      <c r="M53" s="25" t="s">
         <v>421</v>
       </c>
       <c r="N53" s="18" t="s">
@@ -4736,29 +4745,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26" t="s">
         <v>292</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23" t="s">
+      <c r="E54" s="25"/>
+      <c r="F54" s="25" t="s">
         <v>640</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23" t="s">
+      <c r="I54" s="25"/>
+      <c r="J54" s="25" t="s">
         <v>153</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23" t="s">
+      <c r="M54" s="25"/>
+      <c r="N54" s="25" t="s">
         <v>423</v>
       </c>
       <c r="O54" s="14" t="s">
@@ -4766,51 +4775,51 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
       <c r="O55" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26" t="s">
         <v>294</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
+      <c r="E56" s="25"/>
+      <c r="F56" s="25" t="s">
         <v>643</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23" t="s">
+      <c r="I56" s="25"/>
+      <c r="J56" s="25" t="s">
         <v>155</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23" t="s">
+      <c r="M56" s="25"/>
+      <c r="N56" s="25" t="s">
         <v>425</v>
       </c>
       <c r="O56" s="18" t="s">
@@ -4818,51 +4827,51 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
       <c r="O57" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26" t="s">
         <v>295</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="25"/>
+      <c r="F58" s="25" t="s">
         <v>645</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23" t="s">
+      <c r="I58" s="25"/>
+      <c r="J58" s="25" t="s">
         <v>157</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23" t="s">
+      <c r="M58" s="25"/>
+      <c r="N58" s="25" t="s">
         <v>426</v>
       </c>
       <c r="O58" s="14" t="s">
@@ -4870,50 +4879,50 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
       <c r="K59" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
       <c r="O59" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="23"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="17" t="s">
         <v>647</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="I60" s="23"/>
+      <c r="I60" s="25"/>
       <c r="J60" s="13" t="s">
         <v>159</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M60" s="23"/>
+      <c r="M60" s="25"/>
       <c r="N60" s="14" t="s">
         <v>428</v>
       </c>
@@ -4922,29 +4931,29 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23" t="s">
+      <c r="E61" s="25"/>
+      <c r="F61" s="25" t="s">
         <v>649</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23" t="s">
+      <c r="I61" s="25"/>
+      <c r="J61" s="25" t="s">
         <v>161</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23" t="s">
+      <c r="M61" s="25"/>
+      <c r="N61" s="25" t="s">
         <v>430</v>
       </c>
       <c r="O61" s="14" t="s">
@@ -4952,36 +4961,36 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
       <c r="K62" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
       <c r="O62" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="32" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="23" t="s">
         <v>517</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="17" t="s">
         <v>651</v>
       </c>
@@ -4994,7 +5003,7 @@
       <c r="K63" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="M63" s="23"/>
+      <c r="M63" s="25"/>
       <c r="N63" s="18" t="s">
         <v>565</v>
       </c>
@@ -5003,37 +5012,37 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="26" t="s">
         <v>301</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="25" t="s">
         <v>653</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="25" t="s">
         <v>164</v>
       </c>
       <c r="K64" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M64" s="24" t="s">
+      <c r="M64" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="N64" s="23" t="s">
+      <c r="N64" s="25" t="s">
         <v>433</v>
       </c>
       <c r="O64" s="14" t="s">
@@ -5041,51 +5050,51 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="23"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="25"/>
       <c r="O65" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="29" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="26" t="s">
         <v>303</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23" t="s">
+      <c r="E66" s="25"/>
+      <c r="F66" s="25" t="s">
         <v>655</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23" t="s">
+      <c r="I66" s="25"/>
+      <c r="J66" s="25" t="s">
         <v>165</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M66" s="24"/>
-      <c r="N66" s="23" t="s">
+      <c r="M66" s="27"/>
+      <c r="N66" s="25" t="s">
         <v>434</v>
       </c>
       <c r="O66" s="14" t="s">
@@ -5093,50 +5102,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M67" s="24"/>
-      <c r="N67" s="23"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="25"/>
       <c r="O67" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="32" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="17" t="s">
         <v>656</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="23"/>
+      <c r="I68" s="25"/>
       <c r="J68" s="13" t="s">
         <v>166</v>
       </c>
       <c r="K68" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="M68" s="24"/>
+      <c r="M68" s="27"/>
       <c r="N68" s="14" t="s">
         <v>435</v>
       </c>
@@ -5145,37 +5154,37 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="26" t="s">
         <v>306</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="25" t="s">
         <v>658</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="I69" s="23" t="s">
+      <c r="I69" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="J69" s="23" t="s">
+      <c r="J69" s="25" t="s">
         <v>169</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="M69" s="23" t="s">
+      <c r="M69" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="N69" s="23" t="s">
+      <c r="N69" s="25" t="s">
         <v>437</v>
       </c>
       <c r="O69" s="14" t="s">
@@ -5183,59 +5192,59 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
       <c r="K70" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
       <c r="O70" s="14" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="26" t="s">
         <v>309</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="25" t="s">
         <v>662</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="23" t="s">
+      <c r="I71" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J71" s="23" t="s">
+      <c r="J71" s="25" t="s">
         <v>173</v>
       </c>
       <c r="K71" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M71" s="23" t="s">
+      <c r="M71" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="N71" s="23" t="s">
+      <c r="N71" s="25" t="s">
         <v>442</v>
       </c>
       <c r="O71" s="14" t="s">
@@ -5243,59 +5252,59 @@
       </c>
     </row>
     <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
       <c r="K72" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
       <c r="O72" s="14" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="26" t="s">
         <v>311</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="25" t="s">
         <v>665</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="I73" s="23" t="s">
+      <c r="I73" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="J73" s="23" t="s">
+      <c r="J73" s="25" t="s">
         <v>176</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="23" t="s">
+      <c r="M73" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="N73" s="23" t="s">
+      <c r="N73" s="25" t="s">
         <v>446</v>
       </c>
       <c r="O73" s="14" t="s">
@@ -5303,50 +5312,50 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="29"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
       <c r="O74" s="18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="32" t="s">
+      <c r="A75" s="25"/>
+      <c r="B75" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="23"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="17" t="s">
         <v>668</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="23"/>
+      <c r="I75" s="25"/>
       <c r="J75" s="13" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="M75" s="23"/>
+      <c r="M75" s="25"/>
       <c r="N75" s="14" t="s">
         <v>447</v>
       </c>
@@ -5355,29 +5364,29 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="29" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23" t="s">
+      <c r="E76" s="25"/>
+      <c r="F76" s="25" t="s">
         <v>669</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23" t="s">
+      <c r="I76" s="25"/>
+      <c r="J76" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23" t="s">
+      <c r="M76" s="25"/>
+      <c r="N76" s="25" t="s">
         <v>448</v>
       </c>
       <c r="O76" s="14" t="s">
@@ -5385,72 +5394,72 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="29"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
       <c r="O77" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
       <c r="K78" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
       <c r="O78" s="18" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="32" t="s">
+      <c r="A79" s="25"/>
+      <c r="B79" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="25"/>
       <c r="F79" s="17" t="s">
         <v>673</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="I79" s="23"/>
+      <c r="I79" s="25"/>
       <c r="J79" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="M79" s="23"/>
+      <c r="M79" s="25"/>
       <c r="N79" s="18" t="s">
         <v>566</v>
       </c>
@@ -5459,28 +5468,28 @@
       </c>
     </row>
     <row r="80" spans="1:15" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="32" t="s">
+      <c r="A80" s="25"/>
+      <c r="B80" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="23"/>
+      <c r="E80" s="25"/>
       <c r="F80" s="17" t="s">
         <v>675</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="I80" s="23"/>
+      <c r="I80" s="25"/>
       <c r="J80" s="14" t="s">
         <v>522</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="M80" s="23"/>
+      <c r="M80" s="25"/>
       <c r="N80" s="14" t="s">
         <v>519</v>
       </c>
@@ -5489,16 +5498,16 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="23" t="s">
         <v>323</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="25" t="s">
         <v>677</v>
       </c>
       <c r="F81" s="17" t="s">
@@ -5507,7 +5516,7 @@
       <c r="G81" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I81" s="23" t="s">
+      <c r="I81" s="25" t="s">
         <v>185</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -5516,7 +5525,7 @@
       <c r="K81" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="M81" s="23" t="s">
+      <c r="M81" s="25" t="s">
         <v>451</v>
       </c>
       <c r="N81" s="14" t="s">
@@ -5527,28 +5536,28 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="32" t="s">
+      <c r="A82" s="25"/>
+      <c r="B82" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E82" s="23"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="17" t="s">
         <v>679</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I82" s="23"/>
+      <c r="I82" s="25"/>
       <c r="J82" s="13" t="s">
         <v>188</v>
       </c>
       <c r="K82" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M82" s="23"/>
+      <c r="M82" s="25"/>
       <c r="N82" s="14" t="s">
         <v>453</v>
       </c>
@@ -5557,28 +5566,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="32" t="s">
+      <c r="A83" s="25"/>
+      <c r="B83" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E83" s="23"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="17" t="s">
         <v>680</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="I83" s="23"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="13" t="s">
         <v>189</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M83" s="23"/>
+      <c r="M83" s="25"/>
       <c r="N83" s="14" t="s">
         <v>454</v>
       </c>
@@ -5587,28 +5596,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="32" t="s">
+      <c r="A84" s="25"/>
+      <c r="B84" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E84" s="23"/>
+      <c r="E84" s="25"/>
       <c r="F84" s="17" t="s">
         <v>682</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="I84" s="23"/>
+      <c r="I84" s="25"/>
       <c r="J84" s="13" t="s">
         <v>191</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M84" s="23"/>
+      <c r="M84" s="25"/>
       <c r="N84" s="14" t="s">
         <v>456</v>
       </c>
@@ -5617,37 +5626,37 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="26" t="s">
         <v>331</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="25" t="s">
         <v>685</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="J85" s="25" t="s">
         <v>194</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="M85" s="23" t="s">
+      <c r="M85" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="N85" s="23" t="s">
+      <c r="N85" s="25" t="s">
         <v>459</v>
       </c>
       <c r="O85" s="14" t="s">
@@ -5655,38 +5664,38 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="29"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
       <c r="K86" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
       <c r="O86" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="23" t="s">
         <v>335</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="25" t="s">
         <v>688</v>
       </c>
       <c r="F87" s="17" t="s">
@@ -5695,7 +5704,7 @@
       <c r="G87" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="I87" s="25" t="s">
         <v>197</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -5704,7 +5713,7 @@
       <c r="K87" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M87" s="23" t="s">
+      <c r="M87" s="25" t="s">
         <v>462</v>
       </c>
       <c r="N87" s="14" t="s">
@@ -5715,28 +5724,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="32" t="s">
+      <c r="A88" s="25"/>
+      <c r="B88" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="17" t="s">
         <v>690</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="I88" s="23"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="13" t="s">
         <v>199</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="M88" s="23"/>
+      <c r="M88" s="25"/>
       <c r="N88" s="14" t="s">
         <v>464</v>
       </c>
@@ -5745,10 +5754,10 @@
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="23" t="s">
         <v>339</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -5783,16 +5792,16 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="23" t="s">
         <v>341</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="25" t="s">
         <v>694</v>
       </c>
       <c r="F90" s="17" t="s">
@@ -5801,7 +5810,7 @@
       <c r="G90" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I90" s="25" t="s">
         <v>203</v>
       </c>
       <c r="J90" s="13" t="s">
@@ -5810,7 +5819,7 @@
       <c r="K90" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="23" t="s">
+      <c r="M90" s="25" t="s">
         <v>468</v>
       </c>
       <c r="N90" s="14" t="s">
@@ -5821,28 +5830,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="32" t="s">
+      <c r="A91" s="25"/>
+      <c r="B91" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="25"/>
       <c r="F91" s="17" t="s">
         <v>697</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="I91" s="23"/>
+      <c r="I91" s="25"/>
       <c r="J91" s="13" t="s">
         <v>205</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="M91" s="23"/>
+      <c r="M91" s="25"/>
       <c r="N91" s="14" t="s">
         <v>470</v>
       </c>
@@ -5851,28 +5860,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="32" t="s">
+      <c r="A92" s="25"/>
+      <c r="B92" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="25"/>
       <c r="F92" s="17" t="s">
         <v>699</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I92" s="23"/>
+      <c r="I92" s="25"/>
       <c r="J92" s="13" t="s">
         <v>207</v>
       </c>
       <c r="K92" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="M92" s="23"/>
+      <c r="M92" s="25"/>
       <c r="N92" s="14" t="s">
         <v>472</v>
       </c>
@@ -5881,16 +5890,16 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="23" t="s">
         <v>347</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="25" t="s">
         <v>700</v>
       </c>
       <c r="F93" s="17" t="s">
@@ -5899,7 +5908,7 @@
       <c r="G93" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="I93" s="23" t="s">
+      <c r="I93" s="25" t="s">
         <v>209</v>
       </c>
       <c r="J93" s="13" t="s">
@@ -5908,7 +5917,7 @@
       <c r="K93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="M93" s="23" t="s">
+      <c r="M93" s="25" t="s">
         <v>474</v>
       </c>
       <c r="N93" s="14" t="s">
@@ -5919,28 +5928,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="32" t="s">
+      <c r="A94" s="25"/>
+      <c r="B94" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="25"/>
       <c r="F94" s="17" t="s">
         <v>703</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="I94" s="23"/>
+      <c r="I94" s="25"/>
       <c r="J94" s="13" t="s">
         <v>212</v>
       </c>
       <c r="K94" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="M94" s="23"/>
+      <c r="M94" s="25"/>
       <c r="N94" s="14" t="s">
         <v>476</v>
       </c>
@@ -5949,28 +5958,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="32" t="s">
+      <c r="A95" s="25"/>
+      <c r="B95" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="25"/>
       <c r="F95" s="17" t="s">
         <v>705</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="I95" s="23"/>
+      <c r="I95" s="25"/>
       <c r="J95" s="14" t="s">
         <v>529</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="M95" s="23"/>
+      <c r="M95" s="25"/>
       <c r="N95" s="14" t="s">
         <v>476</v>
       </c>
@@ -5979,28 +5988,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="32" t="s">
+      <c r="A96" s="25"/>
+      <c r="B96" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="17" t="s">
         <v>707</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I96" s="23"/>
+      <c r="I96" s="25"/>
       <c r="J96" s="13" t="s">
         <v>214</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M96" s="23"/>
+      <c r="M96" s="25"/>
       <c r="N96" s="14" t="s">
         <v>479</v>
       </c>
@@ -6009,16 +6018,16 @@
       </c>
     </row>
     <row r="97" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="23" t="s">
         <v>353</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="25" t="s">
         <v>708</v>
       </c>
       <c r="F97" s="17" t="s">
@@ -6027,7 +6036,7 @@
       <c r="G97" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="I97" s="23" t="s">
+      <c r="I97" s="25" t="s">
         <v>215</v>
       </c>
       <c r="J97" s="13" t="s">
@@ -6036,7 +6045,7 @@
       <c r="K97" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="M97" s="23" t="s">
+      <c r="M97" s="25" t="s">
         <v>481</v>
       </c>
       <c r="N97" s="14" t="s">
@@ -6047,28 +6056,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="32" t="s">
+      <c r="A98" s="25"/>
+      <c r="B98" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="17" t="s">
         <v>711</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="I98" s="23"/>
+      <c r="I98" s="25"/>
       <c r="J98" s="13" t="s">
         <v>218</v>
       </c>
       <c r="K98" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="M98" s="23"/>
+      <c r="M98" s="25"/>
       <c r="N98" s="14" t="s">
         <v>484</v>
       </c>
@@ -6077,28 +6086,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="32" t="s">
+      <c r="A99" s="25"/>
+      <c r="B99" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="E99" s="23"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="17" t="s">
         <v>713</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="I99" s="23"/>
+      <c r="I99" s="25"/>
       <c r="J99" s="13" t="s">
         <v>220</v>
       </c>
       <c r="K99" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="M99" s="23"/>
+      <c r="M99" s="25"/>
       <c r="N99" s="14" t="s">
         <v>486</v>
       </c>
@@ -6107,28 +6116,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="32" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E100" s="23"/>
+      <c r="E100" s="25"/>
       <c r="F100" s="17" t="s">
         <v>715</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="I100" s="23"/>
+      <c r="I100" s="25"/>
       <c r="J100" s="13" t="s">
         <v>222</v>
       </c>
       <c r="K100" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="M100" s="23"/>
+      <c r="M100" s="25"/>
       <c r="N100" s="14" t="s">
         <v>487</v>
       </c>
@@ -6137,28 +6146,28 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="32" t="s">
+      <c r="A101" s="25"/>
+      <c r="B101" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E101" s="23"/>
+      <c r="E101" s="25"/>
       <c r="F101" s="17" t="s">
         <v>717</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="I101" s="23"/>
+      <c r="I101" s="25"/>
       <c r="J101" s="13" t="s">
         <v>224</v>
       </c>
       <c r="K101" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="M101" s="23"/>
+      <c r="M101" s="25"/>
       <c r="N101" s="14" t="s">
         <v>489</v>
       </c>
@@ -6167,28 +6176,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="32" t="s">
+      <c r="A102" s="25"/>
+      <c r="B102" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="25"/>
       <c r="F102" s="17" t="s">
         <v>719</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="I102" s="23"/>
+      <c r="I102" s="25"/>
       <c r="J102" s="13" t="s">
         <v>233</v>
       </c>
       <c r="K102" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="M102" s="23"/>
+      <c r="M102" s="25"/>
       <c r="N102" s="14" t="s">
         <v>491</v>
       </c>
@@ -6197,28 +6206,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="32" t="s">
+      <c r="A103" s="25"/>
+      <c r="B103" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="25"/>
       <c r="F103" s="17" t="s">
         <v>721</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="I103" s="23"/>
+      <c r="I103" s="25"/>
       <c r="J103" s="14" t="s">
         <v>530</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="M103" s="23"/>
+      <c r="M103" s="25"/>
       <c r="N103" s="14" t="s">
         <v>492</v>
       </c>
@@ -6227,28 +6236,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="32" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="25"/>
       <c r="F104" s="17" t="s">
         <v>723</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="I104" s="23"/>
+      <c r="I104" s="25"/>
       <c r="J104" s="14" t="s">
         <v>536</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="M104" s="23"/>
+      <c r="M104" s="25"/>
       <c r="N104" s="14" t="s">
         <v>494</v>
       </c>
@@ -6257,16 +6266,16 @@
       </c>
     </row>
     <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="23" t="s">
         <v>363</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="25" t="s">
         <v>725</v>
       </c>
       <c r="F105" s="17" t="s">
@@ -6275,7 +6284,7 @@
       <c r="G105" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="I105" s="23" t="s">
+      <c r="I105" s="25" t="s">
         <v>226</v>
       </c>
       <c r="J105" s="13" t="s">
@@ -6284,7 +6293,7 @@
       <c r="K105" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="M105" s="23" t="s">
+      <c r="M105" s="25" t="s">
         <v>496</v>
       </c>
       <c r="N105" s="14" t="s">
@@ -6295,28 +6304,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="32" t="s">
+      <c r="A106" s="25"/>
+      <c r="B106" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="25"/>
       <c r="F106" s="17" t="s">
         <v>728</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I106" s="23"/>
+      <c r="I106" s="25"/>
       <c r="J106" s="13" t="s">
         <v>229</v>
       </c>
       <c r="K106" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M106" s="23"/>
+      <c r="M106" s="25"/>
       <c r="N106" s="14" t="s">
         <v>499</v>
       </c>
@@ -6325,28 +6334,28 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="32" t="s">
+      <c r="A107" s="25"/>
+      <c r="B107" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="25"/>
       <c r="F107" s="17" t="s">
         <v>729</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="I107" s="23"/>
+      <c r="I107" s="25"/>
       <c r="J107" s="13" t="s">
         <v>230</v>
       </c>
       <c r="K107" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="M107" s="23"/>
+      <c r="M107" s="25"/>
       <c r="N107" s="14" t="s">
         <v>500</v>
       </c>
@@ -6355,28 +6364,28 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="32" t="s">
+      <c r="A108" s="25"/>
+      <c r="B108" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="25"/>
       <c r="F108" s="17" t="s">
         <v>731</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I108" s="23"/>
+      <c r="I108" s="25"/>
       <c r="J108" s="13" t="s">
         <v>232</v>
       </c>
       <c r="K108" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M108" s="23"/>
+      <c r="M108" s="25"/>
       <c r="N108" s="14" t="s">
         <v>501</v>
       </c>
@@ -6394,6 +6403,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="I26:I35"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="I3:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M35"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="M3:M25"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="M53:M63"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M36:M43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="M44:M52"/>
+    <mergeCell ref="I44:I52"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="I53:I62"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M64:M68"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N76:N78"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="I73:I80"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="I81:I84"/>
     <mergeCell ref="M105:M108"/>
     <mergeCell ref="M87:M88"/>
     <mergeCell ref="M90:M92"/>
@@ -6418,136 +6557,6 @@
     <mergeCell ref="E93:E96"/>
     <mergeCell ref="E97:E104"/>
     <mergeCell ref="E105:E108"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M64:M68"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="N76:N78"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="I73:I80"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="I81:I84"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="M53:M63"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="M36:M43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="M44:M52"/>
-    <mergeCell ref="I44:I52"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="I53:I62"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M35"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="M3:M25"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="I3:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E90:E92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6991,13 +7000,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7029,7 +7038,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -7047,7 +7056,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="str">
         <f>Sheet2!F6</f>
         <v>Critical Danger</v>
@@ -7063,7 +7072,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="str">
         <f>Sheet2!F5</f>
         <v>Dangerous</v>
@@ -7079,7 +7088,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="str">
         <f>Sheet2!F4</f>
         <v>Slight Danger</v>
@@ -7091,7 +7100,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="str">
         <f>Sheet2!F3</f>
         <v>Safe</v>
@@ -7209,8 +7218,8 @@
   </sheetPr>
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7282,402 +7291,403 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>255</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="25" t="s">
         <v>607</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="25" t="s">
         <v>258</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="27" t="s">
         <v>551</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="23"/>
+    <row r="5" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="25" t="s">
         <v>254</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="25" t="s">
         <v>608</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>257</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25" t="s">
         <v>505</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
       <c r="O7" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="25" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="25" t="s">
         <v>609</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
         <v>256</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="25"/>
+      <c r="N8" s="25" t="s">
         <v>396</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="25" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="25" t="s">
         <v>610</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>397</v>
       </c>
       <c r="O10" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="25" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="25" t="s">
         <v>611</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
         <v>398</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="23"/>
+    <row r="13" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:15" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="28" t="s">
         <v>579</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="28" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="28" t="s">
         <v>370</v>
       </c>
       <c r="O14" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="31"/>
+    <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="34"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="32" t="s">
+    <row r="18" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="21" t="s">
         <v>583</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="21" t="s">
         <v>104</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="23"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="21" t="s">
         <v>375</v>
       </c>
@@ -7685,81 +7695,81 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="25" t="s">
         <v>585</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="23" t="s">
+      <c r="I19" s="31"/>
+      <c r="J19" s="25" t="s">
         <v>106</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23" t="s">
+      <c r="M19" s="25"/>
+      <c r="N19" s="25" t="s">
         <v>377</v>
       </c>
       <c r="O19" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="21" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="32" t="s">
+    <row r="21" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="21" t="s">
         <v>587</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="I21" s="26"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="21" t="s">
         <v>108</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="23"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="21" t="s">
         <v>379</v>
       </c>
@@ -7767,199 +7777,199 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="26" t="s">
         <v>237</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="23" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="25" t="s">
         <v>589</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="23" t="s">
+      <c r="I22" s="31"/>
+      <c r="J22" s="25" t="s">
         <v>110</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23" t="s">
+      <c r="M22" s="25"/>
+      <c r="N22" s="25" t="s">
         <v>381</v>
       </c>
       <c r="O22" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="23"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="21" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="29"/>
+    <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="26" t="s">
         <v>240</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="25" t="s">
         <v>592</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="23" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="25" t="s">
         <v>113</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23" t="s">
+      <c r="M25" s="25"/>
+      <c r="N25" s="25" t="s">
         <v>384</v>
       </c>
       <c r="O25" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="29"/>
+    <row r="26" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="29"/>
+    <row r="27" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="29"/>
+    <row r="28" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="21" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="32" t="s">
+    <row r="29" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="21" t="s">
         <v>597</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="21" t="s">
         <v>116</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="23"/>
+      <c r="M29" s="25"/>
       <c r="N29" s="21" t="s">
         <v>387</v>
       </c>
@@ -7967,29 +7977,29 @@
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="32" t="s">
+    <row r="30" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="21" t="s">
         <v>599</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="21" t="s">
         <v>118</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="23"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="22" t="s">
         <v>548</v>
       </c>
@@ -7997,29 +8007,29 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="32" t="s">
+    <row r="31" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E31" s="26"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="21" t="s">
         <v>600</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I31" s="26"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="21" t="s">
         <v>119</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="23"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="22" t="s">
         <v>549</v>
       </c>
@@ -8027,29 +8037,29 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="32" t="s">
+    <row r="32" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="21" t="s">
         <v>601</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I32" s="26"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="21" t="s">
         <v>120</v>
       </c>
       <c r="K32" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="M32" s="23"/>
+      <c r="M32" s="25"/>
       <c r="N32" s="21" t="s">
         <v>389</v>
       </c>
@@ -8058,28 +8068,28 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="21" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="32" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="26"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="21" t="s">
         <v>602</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I33" s="26"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="21" t="s">
         <v>122</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="M33" s="23"/>
+      <c r="M33" s="25"/>
       <c r="N33" s="22" t="s">
         <v>550</v>
       </c>
@@ -8087,29 +8097,29 @@
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E34" s="26"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="21" t="s">
         <v>604</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I34" s="26"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="21" t="s">
         <v>123</v>
       </c>
       <c r="K34" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="23"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="21" t="s">
         <v>392</v>
       </c>
@@ -8117,69 +8127,69 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="29" t="s">
+    <row r="35" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="26" t="s">
         <v>503</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="23" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="25" t="s">
         <v>605</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="23" t="s">
+      <c r="I35" s="31"/>
+      <c r="J35" s="25" t="s">
         <v>504</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23" t="s">
+      <c r="M35" s="25"/>
+      <c r="N35" s="25" t="s">
         <v>394</v>
       </c>
       <c r="O35" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="29"/>
+    <row r="36" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
       <c r="O36" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="23" t="s">
         <v>262</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="26" t="s">
         <v>612</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -8188,7 +8198,7 @@
       <c r="G37" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="25" t="s">
         <v>128</v>
       </c>
       <c r="J37" s="21" t="s">
@@ -8197,7 +8207,7 @@
       <c r="K37" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="25" t="s">
         <v>399</v>
       </c>
       <c r="N37" s="21" t="s">
@@ -8207,29 +8217,29 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="32" t="s">
+    <row r="38" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="21" t="s">
         <v>614</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="21" t="s">
         <v>131</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="23"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="21" t="s">
         <v>401</v>
       </c>
@@ -8237,29 +8247,29 @@
         <v>402</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="32" t="s">
+    <row r="39" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="21" t="s">
         <v>616</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M39" s="23"/>
+      <c r="M39" s="25"/>
       <c r="N39" s="21" t="s">
         <v>403</v>
       </c>
@@ -8267,29 +8277,29 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="32" t="s">
+    <row r="40" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="21" t="s">
         <v>617</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="21" t="s">
         <v>135</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="M40" s="23"/>
+      <c r="M40" s="25"/>
       <c r="N40" s="21" t="s">
         <v>405</v>
       </c>
@@ -8298,80 +8308,80 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26" t="s">
         <v>268</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="25" t="s">
         <v>619</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23" t="s">
+      <c r="I41" s="25"/>
+      <c r="J41" s="25" t="s">
         <v>137</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23" t="s">
+      <c r="M41" s="25"/>
+      <c r="N41" s="25" t="s">
         <v>507</v>
       </c>
       <c r="O41" s="21" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="29"/>
+    <row r="42" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
       <c r="K42" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
       <c r="O42" s="21" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="32" t="s">
+    <row r="43" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="21" t="s">
         <v>622</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="21" t="s">
         <v>138</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="23"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="21" t="s">
         <v>407</v>
       </c>
@@ -8380,28 +8390,28 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="32" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="21" t="s">
         <v>623</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="21" t="s">
         <v>509</v>
       </c>
       <c r="K44" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M44" s="23"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="21" t="s">
         <v>408</v>
       </c>
@@ -8410,16 +8420,16 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="24" t="s">
         <v>555</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="26" t="s">
         <v>637</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -8428,7 +8438,7 @@
       <c r="G45" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="25" t="s">
         <v>150</v>
       </c>
       <c r="J45" s="21" t="s">
@@ -8437,7 +8447,7 @@
       <c r="K45" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="M45" s="25" t="s">
         <v>421</v>
       </c>
       <c r="N45" s="22" t="s">
@@ -8448,29 +8458,29 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26" t="s">
         <v>292</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="25" t="s">
         <v>640</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23" t="s">
+      <c r="I46" s="25"/>
+      <c r="J46" s="25" t="s">
         <v>153</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23" t="s">
+      <c r="M46" s="25"/>
+      <c r="N46" s="25" t="s">
         <v>423</v>
       </c>
       <c r="O46" s="21" t="s">
@@ -8478,51 +8488,51 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
       <c r="O47" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26" t="s">
         <v>294</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="25" t="s">
         <v>643</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23" t="s">
+      <c r="I48" s="25"/>
+      <c r="J48" s="25" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23" t="s">
+      <c r="M48" s="25"/>
+      <c r="N48" s="25" t="s">
         <v>425</v>
       </c>
       <c r="O48" s="22" t="s">
@@ -8530,51 +8540,51 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
       <c r="O49" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26" t="s">
         <v>295</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23" t="s">
+      <c r="E50" s="26"/>
+      <c r="F50" s="25" t="s">
         <v>645</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23" t="s">
+      <c r="I50" s="25"/>
+      <c r="J50" s="25" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23" t="s">
+      <c r="M50" s="25"/>
+      <c r="N50" s="25" t="s">
         <v>426</v>
       </c>
       <c r="O50" s="21" t="s">
@@ -8582,50 +8592,50 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
       <c r="K51" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
       <c r="O51" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="32" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="21" t="s">
         <v>647</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="I52" s="23"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="K52" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="M52" s="23"/>
+      <c r="M52" s="25"/>
       <c r="N52" s="21" t="s">
         <v>428</v>
       </c>
@@ -8634,29 +8644,29 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23" t="s">
+      <c r="E53" s="26"/>
+      <c r="F53" s="25" t="s">
         <v>649</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23" t="s">
+      <c r="I53" s="25"/>
+      <c r="J53" s="25" t="s">
         <v>161</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23" t="s">
+      <c r="M53" s="25"/>
+      <c r="N53" s="25" t="s">
         <v>430</v>
       </c>
       <c r="O53" s="21" t="s">
@@ -8664,36 +8674,36 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
       <c r="O54" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="23"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="21" t="s">
         <v>651</v>
       </c>
@@ -8706,7 +8716,7 @@
       <c r="K55" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="23"/>
+      <c r="M55" s="25"/>
       <c r="N55" s="22" t="s">
         <v>565</v>
       </c>
@@ -8715,7 +8725,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="23" t="s">
         <v>338</v>
       </c>
       <c r="B56" s="21" t="s">
@@ -8724,7 +8734,7 @@
       <c r="C56" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="23" t="s">
         <v>692</v>
       </c>
       <c r="F56" s="21" t="s">
@@ -8753,37 +8763,37 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="26" t="s">
         <v>301</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="25" t="s">
         <v>653</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="I57" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="J57" s="23" t="s">
+      <c r="J57" s="25" t="s">
         <v>164</v>
       </c>
       <c r="K57" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M57" s="24" t="s">
+      <c r="M57" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="N57" s="23" t="s">
+      <c r="N57" s="25" t="s">
         <v>433</v>
       </c>
       <c r="O57" s="21" t="s">
@@ -8791,51 +8801,51 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="23"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="25"/>
       <c r="O58" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="26" t="s">
         <v>303</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23" t="s">
+      <c r="E59" s="25"/>
+      <c r="F59" s="25" t="s">
         <v>655</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23" t="s">
+      <c r="I59" s="25"/>
+      <c r="J59" s="25" t="s">
         <v>165</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23" t="s">
+      <c r="M59" s="27"/>
+      <c r="N59" s="25" t="s">
         <v>434</v>
       </c>
       <c r="O59" s="21" t="s">
@@ -8843,50 +8853,50 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
       <c r="K60" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="23"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="25"/>
       <c r="O60" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="32" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E61" s="23"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="21" t="s">
         <v>656</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I61" s="23"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="21" t="s">
         <v>166</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="M61" s="24"/>
+      <c r="M61" s="27"/>
       <c r="N61" s="21" t="s">
         <v>435</v>
       </c>
@@ -8895,37 +8905,37 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="26" t="s">
         <v>306</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="25" t="s">
         <v>658</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I62" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="J62" s="23" t="s">
+      <c r="J62" s="25" t="s">
         <v>169</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="M62" s="23" t="s">
+      <c r="M62" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="N62" s="23" t="s">
+      <c r="N62" s="25" t="s">
         <v>437</v>
       </c>
       <c r="O62" s="21" t="s">
@@ -8933,59 +8943,59 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
       <c r="K63" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
       <c r="O63" s="21" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="26" t="s">
         <v>309</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="25" t="s">
         <v>662</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="25" t="s">
         <v>173</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M64" s="23" t="s">
+      <c r="M64" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="N64" s="23" t="s">
+      <c r="N64" s="25" t="s">
         <v>442</v>
       </c>
       <c r="O64" s="21" t="s">
@@ -8993,59 +9003,59 @@
       </c>
     </row>
     <row r="65" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
       <c r="O65" s="21" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="26" t="s">
         <v>311</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="25" t="s">
         <v>665</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="I66" s="23" t="s">
+      <c r="I66" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="J66" s="23" t="s">
+      <c r="J66" s="25" t="s">
         <v>176</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="M66" s="23" t="s">
+      <c r="M66" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="N66" s="23" t="s">
+      <c r="N66" s="25" t="s">
         <v>446</v>
       </c>
       <c r="O66" s="21" t="s">
@@ -9053,50 +9063,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
       <c r="O67" s="22" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="32" t="s">
+      <c r="A68" s="25"/>
+      <c r="B68" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="21" t="s">
         <v>668</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="23"/>
+      <c r="I68" s="25"/>
       <c r="J68" s="21" t="s">
         <v>179</v>
       </c>
       <c r="K68" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="M68" s="23"/>
+      <c r="M68" s="25"/>
       <c r="N68" s="21" t="s">
         <v>447</v>
       </c>
@@ -9105,29 +9115,29 @@
       </c>
     </row>
     <row r="69" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="29" t="s">
+      <c r="A69" s="25"/>
+      <c r="B69" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23" t="s">
+      <c r="E69" s="25"/>
+      <c r="F69" s="25" t="s">
         <v>669</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23" t="s">
+      <c r="I69" s="25"/>
+      <c r="J69" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K69" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23" t="s">
+      <c r="M69" s="25"/>
+      <c r="N69" s="25" t="s">
         <v>448</v>
       </c>
       <c r="O69" s="21" t="s">
@@ -9135,72 +9145,72 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
       <c r="K70" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
       <c r="O70" s="21" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
       <c r="O71" s="22" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="32" t="s">
+      <c r="A72" s="25"/>
+      <c r="B72" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E72" s="23"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="21" t="s">
         <v>673</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="I72" s="23"/>
+      <c r="I72" s="25"/>
       <c r="J72" s="21" t="s">
         <v>183</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="M72" s="23"/>
+      <c r="M72" s="25"/>
       <c r="N72" s="22" t="s">
         <v>566</v>
       </c>
@@ -9209,28 +9219,28 @@
       </c>
     </row>
     <row r="73" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="32" t="s">
+      <c r="A73" s="25"/>
+      <c r="B73" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="E73" s="23"/>
+      <c r="E73" s="25"/>
       <c r="F73" s="21" t="s">
         <v>675</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="I73" s="23"/>
+      <c r="I73" s="25"/>
       <c r="J73" s="21" t="s">
         <v>522</v>
       </c>
       <c r="K73" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="M73" s="23"/>
+      <c r="M73" s="25"/>
       <c r="N73" s="21" t="s">
         <v>519</v>
       </c>
@@ -9239,16 +9249,16 @@
       </c>
     </row>
     <row r="74" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="23" t="s">
         <v>323</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="25" t="s">
         <v>677</v>
       </c>
       <c r="F74" s="21" t="s">
@@ -9257,7 +9267,7 @@
       <c r="G74" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I74" s="25" t="s">
         <v>185</v>
       </c>
       <c r="J74" s="21" t="s">
@@ -9266,7 +9276,7 @@
       <c r="K74" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="23" t="s">
+      <c r="M74" s="25" t="s">
         <v>451</v>
       </c>
       <c r="N74" s="21" t="s">
@@ -9277,28 +9287,28 @@
       </c>
     </row>
     <row r="75" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="32" t="s">
+      <c r="A75" s="25"/>
+      <c r="B75" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="23"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="21" t="s">
         <v>679</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="23"/>
+      <c r="I75" s="25"/>
       <c r="J75" s="21" t="s">
         <v>188</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M75" s="23"/>
+      <c r="M75" s="25"/>
       <c r="N75" s="21" t="s">
         <v>453</v>
       </c>
@@ -9307,28 +9317,28 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="32" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="25"/>
       <c r="F76" s="21" t="s">
         <v>680</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="I76" s="23"/>
+      <c r="I76" s="25"/>
       <c r="J76" s="21" t="s">
         <v>189</v>
       </c>
       <c r="K76" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="M76" s="23"/>
+      <c r="M76" s="25"/>
       <c r="N76" s="21" t="s">
         <v>454</v>
       </c>
@@ -9337,28 +9347,28 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="32" t="s">
+      <c r="A77" s="25"/>
+      <c r="B77" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="25"/>
       <c r="F77" s="21" t="s">
         <v>682</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="I77" s="23"/>
+      <c r="I77" s="25"/>
       <c r="J77" s="21" t="s">
         <v>191</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="M77" s="23"/>
+      <c r="M77" s="25"/>
       <c r="N77" s="21" t="s">
         <v>456</v>
       </c>
@@ -9367,37 +9377,37 @@
       </c>
     </row>
     <row r="78" spans="1:15" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="26" t="s">
         <v>331</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="25" t="s">
         <v>685</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I78" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="25" t="s">
         <v>194</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="M78" s="23" t="s">
+      <c r="M78" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="N78" s="23" t="s">
+      <c r="N78" s="25" t="s">
         <v>459</v>
       </c>
       <c r="O78" s="21" t="s">
@@ -9405,38 +9415,38 @@
       </c>
     </row>
     <row r="79" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
       <c r="G79" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
       <c r="K79" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
       <c r="O79" s="21" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="23" t="s">
         <v>335</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="25" t="s">
         <v>688</v>
       </c>
       <c r="F80" s="21" t="s">
@@ -9445,7 +9455,7 @@
       <c r="G80" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="25" t="s">
         <v>197</v>
       </c>
       <c r="J80" s="21" t="s">
@@ -9454,7 +9464,7 @@
       <c r="K80" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M80" s="23" t="s">
+      <c r="M80" s="25" t="s">
         <v>462</v>
       </c>
       <c r="N80" s="21" t="s">
@@ -9465,28 +9475,28 @@
       </c>
     </row>
     <row r="81" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="32" t="s">
+      <c r="A81" s="25"/>
+      <c r="B81" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E81" s="23"/>
+      <c r="E81" s="25"/>
       <c r="F81" s="21" t="s">
         <v>690</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="I81" s="23"/>
+      <c r="I81" s="25"/>
       <c r="J81" s="21" t="s">
         <v>199</v>
       </c>
       <c r="K81" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="M81" s="23"/>
+      <c r="M81" s="25"/>
       <c r="N81" s="21" t="s">
         <v>464</v>
       </c>
@@ -9495,16 +9505,16 @@
       </c>
     </row>
     <row r="82" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="23" t="s">
         <v>341</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="25" t="s">
         <v>694</v>
       </c>
       <c r="F82" s="21" t="s">
@@ -9513,7 +9523,7 @@
       <c r="G82" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="25" t="s">
         <v>203</v>
       </c>
       <c r="J82" s="21" t="s">
@@ -9522,7 +9532,7 @@
       <c r="K82" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="M82" s="23" t="s">
+      <c r="M82" s="25" t="s">
         <v>468</v>
       </c>
       <c r="N82" s="21" t="s">
@@ -9533,28 +9543,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="32" t="s">
+      <c r="A83" s="25"/>
+      <c r="B83" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E83" s="23"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="21" t="s">
         <v>697</v>
       </c>
       <c r="G83" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="I83" s="23"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="21" t="s">
         <v>205</v>
       </c>
       <c r="K83" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="M83" s="23"/>
+      <c r="M83" s="25"/>
       <c r="N83" s="21" t="s">
         <v>470</v>
       </c>
@@ -9563,28 +9573,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="32" t="s">
+      <c r="A84" s="25"/>
+      <c r="B84" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="E84" s="23"/>
+      <c r="E84" s="25"/>
       <c r="F84" s="21" t="s">
         <v>699</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I84" s="23"/>
+      <c r="I84" s="25"/>
       <c r="J84" s="21" t="s">
         <v>207</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M84" s="23"/>
+      <c r="M84" s="25"/>
       <c r="N84" s="21" t="s">
         <v>472</v>
       </c>
@@ -9593,16 +9603,16 @@
       </c>
     </row>
     <row r="85" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="23" t="s">
         <v>347</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="25" t="s">
         <v>700</v>
       </c>
       <c r="F85" s="21" t="s">
@@ -9611,7 +9621,7 @@
       <c r="G85" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="25" t="s">
         <v>209</v>
       </c>
       <c r="J85" s="21" t="s">
@@ -9620,7 +9630,7 @@
       <c r="K85" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M85" s="23" t="s">
+      <c r="M85" s="25" t="s">
         <v>474</v>
       </c>
       <c r="N85" s="21" t="s">
@@ -9631,28 +9641,28 @@
       </c>
     </row>
     <row r="86" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="32" t="s">
+      <c r="A86" s="25"/>
+      <c r="B86" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="E86" s="23"/>
+      <c r="E86" s="25"/>
       <c r="F86" s="21" t="s">
         <v>703</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="I86" s="23"/>
+      <c r="I86" s="25"/>
       <c r="J86" s="21" t="s">
         <v>212</v>
       </c>
       <c r="K86" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="M86" s="23"/>
+      <c r="M86" s="25"/>
       <c r="N86" s="21" t="s">
         <v>476</v>
       </c>
@@ -9661,28 +9671,28 @@
       </c>
     </row>
     <row r="87" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="32" t="s">
+      <c r="A87" s="25"/>
+      <c r="B87" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="25"/>
       <c r="F87" s="21" t="s">
         <v>705</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="I87" s="23"/>
+      <c r="I87" s="25"/>
       <c r="J87" s="21" t="s">
         <v>529</v>
       </c>
       <c r="K87" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="M87" s="23"/>
+      <c r="M87" s="25"/>
       <c r="N87" s="21" t="s">
         <v>476</v>
       </c>
@@ -9691,28 +9701,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="32" t="s">
+      <c r="A88" s="25"/>
+      <c r="B88" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="21" t="s">
         <v>707</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I88" s="23"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="21" t="s">
         <v>214</v>
       </c>
       <c r="K88" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M88" s="23"/>
+      <c r="M88" s="25"/>
       <c r="N88" s="21" t="s">
         <v>479</v>
       </c>
@@ -9721,16 +9731,16 @@
       </c>
     </row>
     <row r="89" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="23" t="s">
         <v>353</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="25" t="s">
         <v>708</v>
       </c>
       <c r="F89" s="21" t="s">
@@ -9739,7 +9749,7 @@
       <c r="G89" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="25" t="s">
         <v>215</v>
       </c>
       <c r="J89" s="21" t="s">
@@ -9748,7 +9758,7 @@
       <c r="K89" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="M89" s="23" t="s">
+      <c r="M89" s="25" t="s">
         <v>481</v>
       </c>
       <c r="N89" s="21" t="s">
@@ -9759,28 +9769,28 @@
       </c>
     </row>
     <row r="90" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="32" t="s">
+      <c r="A90" s="25"/>
+      <c r="B90" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="25"/>
       <c r="F90" s="21" t="s">
         <v>711</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="I90" s="23"/>
+      <c r="I90" s="25"/>
       <c r="J90" s="21" t="s">
         <v>218</v>
       </c>
       <c r="K90" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="M90" s="23"/>
+      <c r="M90" s="25"/>
       <c r="N90" s="21" t="s">
         <v>484</v>
       </c>
@@ -9789,28 +9799,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="32" t="s">
+      <c r="A91" s="25"/>
+      <c r="B91" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="25"/>
       <c r="F91" s="21" t="s">
         <v>713</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="I91" s="23"/>
+      <c r="I91" s="25"/>
       <c r="J91" s="21" t="s">
         <v>220</v>
       </c>
       <c r="K91" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="M91" s="23"/>
+      <c r="M91" s="25"/>
       <c r="N91" s="21" t="s">
         <v>486</v>
       </c>
@@ -9819,28 +9829,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="32" t="s">
+      <c r="A92" s="25"/>
+      <c r="B92" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="25"/>
       <c r="F92" s="21" t="s">
         <v>715</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="I92" s="23"/>
+      <c r="I92" s="25"/>
       <c r="J92" s="21" t="s">
         <v>222</v>
       </c>
       <c r="K92" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="M92" s="23"/>
+      <c r="M92" s="25"/>
       <c r="N92" s="21" t="s">
         <v>487</v>
       </c>
@@ -9849,28 +9859,28 @@
       </c>
     </row>
     <row r="93" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="32" t="s">
+      <c r="A93" s="25"/>
+      <c r="B93" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="25"/>
       <c r="F93" s="21" t="s">
         <v>717</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="I93" s="23"/>
+      <c r="I93" s="25"/>
       <c r="J93" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K93" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="M93" s="23"/>
+      <c r="M93" s="25"/>
       <c r="N93" s="21" t="s">
         <v>489</v>
       </c>
@@ -9879,28 +9889,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="32" t="s">
+      <c r="A94" s="25"/>
+      <c r="B94" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="25"/>
       <c r="F94" s="21" t="s">
         <v>719</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="I94" s="23"/>
+      <c r="I94" s="25"/>
       <c r="J94" s="21" t="s">
         <v>233</v>
       </c>
       <c r="K94" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="M94" s="23"/>
+      <c r="M94" s="25"/>
       <c r="N94" s="21" t="s">
         <v>491</v>
       </c>
@@ -9909,28 +9919,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="32" t="s">
+      <c r="A95" s="25"/>
+      <c r="B95" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="25"/>
       <c r="F95" s="21" t="s">
         <v>721</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="I95" s="23"/>
+      <c r="I95" s="25"/>
       <c r="J95" s="21" t="s">
         <v>530</v>
       </c>
       <c r="K95" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="M95" s="23"/>
+      <c r="M95" s="25"/>
       <c r="N95" s="21" t="s">
         <v>492</v>
       </c>
@@ -9939,28 +9949,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="32" t="s">
+      <c r="A96" s="25"/>
+      <c r="B96" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="21" t="s">
         <v>723</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="I96" s="23"/>
+      <c r="I96" s="25"/>
       <c r="J96" s="21" t="s">
         <v>536</v>
       </c>
       <c r="K96" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="M96" s="23"/>
+      <c r="M96" s="25"/>
       <c r="N96" s="21" t="s">
         <v>494</v>
       </c>
@@ -9969,16 +9979,16 @@
       </c>
     </row>
     <row r="97" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="23" t="s">
         <v>363</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="25" t="s">
         <v>725</v>
       </c>
       <c r="F97" s="21" t="s">
@@ -9987,7 +9997,7 @@
       <c r="G97" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="I97" s="23" t="s">
+      <c r="I97" s="25" t="s">
         <v>226</v>
       </c>
       <c r="J97" s="21" t="s">
@@ -9996,7 +10006,7 @@
       <c r="K97" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="M97" s="23" t="s">
+      <c r="M97" s="25" t="s">
         <v>496</v>
       </c>
       <c r="N97" s="21" t="s">
@@ -10007,28 +10017,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="32" t="s">
+      <c r="A98" s="25"/>
+      <c r="B98" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="21" t="s">
         <v>728</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I98" s="23"/>
+      <c r="I98" s="25"/>
       <c r="J98" s="21" t="s">
         <v>229</v>
       </c>
       <c r="K98" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M98" s="23"/>
+      <c r="M98" s="25"/>
       <c r="N98" s="21" t="s">
         <v>499</v>
       </c>
@@ -10037,28 +10047,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="32" t="s">
+      <c r="A99" s="25"/>
+      <c r="B99" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="E99" s="23"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="21" t="s">
         <v>729</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="I99" s="23"/>
+      <c r="I99" s="25"/>
       <c r="J99" s="21" t="s">
         <v>230</v>
       </c>
       <c r="K99" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="M99" s="23"/>
+      <c r="M99" s="25"/>
       <c r="N99" s="21" t="s">
         <v>500</v>
       </c>
@@ -10067,28 +10077,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="32" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="23"/>
+      <c r="E100" s="25"/>
       <c r="F100" s="21" t="s">
         <v>731</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I100" s="23"/>
+      <c r="I100" s="25"/>
       <c r="J100" s="21" t="s">
         <v>232</v>
       </c>
       <c r="K100" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M100" s="23"/>
+      <c r="M100" s="25"/>
       <c r="N100" s="21" t="s">
         <v>501</v>
       </c>
@@ -10097,16 +10107,16 @@
       </c>
     </row>
     <row r="101" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="23" t="s">
         <v>277</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="25" t="s">
         <v>625</v>
       </c>
       <c r="F101" s="21" t="s">
@@ -10115,7 +10125,7 @@
       <c r="G101" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="25" t="s">
         <v>140</v>
       </c>
       <c r="J101" s="21" t="s">
@@ -10124,7 +10134,7 @@
       <c r="K101" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M101" s="23" t="s">
+      <c r="M101" s="25" t="s">
         <v>515</v>
       </c>
       <c r="N101" s="21" t="s">
@@ -10135,28 +10145,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="32" t="s">
+      <c r="A102" s="25"/>
+      <c r="B102" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="25"/>
       <c r="F102" s="21" t="s">
         <v>628</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I102" s="23"/>
+      <c r="I102" s="25"/>
       <c r="J102" s="21" t="s">
         <v>142</v>
       </c>
       <c r="K102" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M102" s="23"/>
+      <c r="M102" s="25"/>
       <c r="N102" s="21" t="s">
         <v>410</v>
       </c>
@@ -10165,28 +10175,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="32" t="s">
+      <c r="A103" s="25"/>
+      <c r="B103" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="25"/>
       <c r="F103" s="21" t="s">
         <v>629</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I103" s="23"/>
+      <c r="I103" s="25"/>
       <c r="J103" s="21" t="s">
         <v>143</v>
       </c>
       <c r="K103" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M103" s="23"/>
+      <c r="M103" s="25"/>
       <c r="N103" s="21" t="s">
         <v>412</v>
       </c>
@@ -10195,28 +10205,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="32" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="25"/>
       <c r="F104" s="21" t="s">
         <v>630</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I104" s="23"/>
+      <c r="I104" s="25"/>
       <c r="J104" s="21" t="s">
         <v>144</v>
       </c>
       <c r="K104" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M104" s="23"/>
+      <c r="M104" s="25"/>
       <c r="N104" s="21" t="s">
         <v>416</v>
       </c>
@@ -10225,28 +10235,28 @@
       </c>
     </row>
     <row r="105" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="32" t="s">
+      <c r="A105" s="25"/>
+      <c r="B105" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="25"/>
       <c r="F105" s="21" t="s">
         <v>631</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I105" s="23"/>
+      <c r="I105" s="25"/>
       <c r="J105" s="21" t="s">
         <v>145</v>
       </c>
       <c r="K105" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="M105" s="23"/>
+      <c r="M105" s="25"/>
       <c r="N105" s="21" t="s">
         <v>417</v>
       </c>
@@ -10255,28 +10265,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="32" t="s">
+      <c r="A106" s="25"/>
+      <c r="B106" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="25"/>
       <c r="F106" s="21" t="s">
         <v>632</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="I106" s="23"/>
+      <c r="I106" s="25"/>
       <c r="J106" s="21" t="s">
         <v>147</v>
       </c>
       <c r="K106" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M106" s="23"/>
+      <c r="M106" s="25"/>
       <c r="N106" s="21" t="s">
         <v>419</v>
       </c>
@@ -10285,29 +10295,29 @@
       </c>
     </row>
     <row r="107" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="29" t="s">
+      <c r="A107" s="25"/>
+      <c r="B107" s="26" t="s">
         <v>285</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23" t="s">
+      <c r="E107" s="25"/>
+      <c r="F107" s="25" t="s">
         <v>634</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23" t="s">
+      <c r="I107" s="25"/>
+      <c r="J107" s="25" t="s">
         <v>149</v>
       </c>
       <c r="K107" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M107" s="23"/>
-      <c r="N107" s="23" t="s">
+      <c r="M107" s="25"/>
+      <c r="N107" s="25" t="s">
         <v>413</v>
       </c>
       <c r="O107" s="21" t="s">
@@ -10315,177 +10325,55 @@
       </c>
     </row>
     <row r="108" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
       <c r="G108" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
       <c r="K108" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
       <c r="O108" s="21" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="29"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
       <c r="G109" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
       <c r="K109" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="M109" s="23"/>
-      <c r="N109" s="23"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
       <c r="O109" s="21" t="s">
         <v>513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="N107:N109"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="I101:I109"/>
-    <mergeCell ref="M101:M109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="I89:I96"/>
-    <mergeCell ref="M89:M96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M66:M73"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="I45:I54"/>
-    <mergeCell ref="M45:M55"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="M37:M44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M14:M36"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -10510,12 +10398,135 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E13"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M14:M36"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="I45:I54"/>
+    <mergeCell ref="M45:M55"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="M37:M44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="M57:M61"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="M66:M73"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N107:N109"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="I101:I109"/>
+    <mergeCell ref="M101:M109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="M89:M96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="M97:M100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
+++ b/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -89,8 +90,42 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Charlotte Ruben</author>
+  </authors>
+  <commentList>
+    <comment ref="C40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Charlotte Ruben:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Oljespill till miljön</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="761">
   <si>
     <t>Work Type</t>
   </si>
@@ -2381,294 +2416,6 @@
     <t>Työskentely sähkölaitteiden parissa, syttyvän materiaalin käyttö</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Turvallisuus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ympäristö</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Turvallisuus ja ympäristö</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inhimillinen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tekninen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Organisatorinen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Riippuvainen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Riippumaton</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Turvallinen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lievä vaara</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vaarallinen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hyvin vaarallinen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Äärimmäisen vaarallinen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Avoin </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Suljettu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hyvin pieni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pieni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Keskimääräinen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Korkea</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hyvin korkea</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ei hyväksyttävä - tehtävää ei ole mahdollista suorittaa ilman lisätoimia.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lisätoimia on harkittava ennen tehtävän suorittamista. Mahdollisia "globaaleja" toimia pitää tarkastella.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kohtalainen - tehtävä voidaan suorittaa, riskin pienentämiseksi on harkittava mahdollisia paikallisia toimia.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hyväksyttävä - lisätoimia ei tarvita.</t>
-    </r>
-  </si>
-  <si>
     <t>Todennäköisyys</t>
   </si>
   <si>
@@ -2682,6 +2429,78 @@
   </si>
   <si>
     <t>Toimi status</t>
+  </si>
+  <si>
+    <t>Ei hyväksyttävä - tehtävää ei ole mahdollista suorittaa ilman lisätoimia.</t>
+  </si>
+  <si>
+    <t>Lisätoimia on harkittava ennen tehtävän suorittamista. Mahdollisia "globaaleja" toimia pitää tarkastella.</t>
+  </si>
+  <si>
+    <t>Kohtalainen - tehtävä voidaan suorittaa, riskin pienentämiseksi on harkittava mahdollisia paikallisia toimia.</t>
+  </si>
+  <si>
+    <t>Hyväksyttävä - lisätoimia ei tarvita.</t>
+  </si>
+  <si>
+    <t>Turvallinen</t>
+  </si>
+  <si>
+    <t>Lievä vaara</t>
+  </si>
+  <si>
+    <t>Vaarallinen</t>
+  </si>
+  <si>
+    <t>Hyvin vaarallinen</t>
+  </si>
+  <si>
+    <t>Äärimmäisen vaarallinen</t>
+  </si>
+  <si>
+    <t>Inhimillinen</t>
+  </si>
+  <si>
+    <t>Tekninen</t>
+  </si>
+  <si>
+    <t>Organisatorinen</t>
+  </si>
+  <si>
+    <t>Riippuvainen</t>
+  </si>
+  <si>
+    <t>Riippumaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoin </t>
+  </si>
+  <si>
+    <t>Suljettu</t>
+  </si>
+  <si>
+    <t>Turvallisuus</t>
+  </si>
+  <si>
+    <t>Ympäristö</t>
+  </si>
+  <si>
+    <t>Turvallisuus ja ympäristö</t>
+  </si>
+  <si>
+    <t>Hyvin pieni</t>
+  </si>
+  <si>
+    <t>Pieni</t>
+  </si>
+  <si>
+    <t>Keskimääräinen</t>
+  </si>
+  <si>
+    <t>Korkea</t>
+  </si>
+  <si>
+    <t>Hyvin korkea</t>
   </si>
 </sst>
 </file>
@@ -2841,7 +2660,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
@@ -2897,6 +2716,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2924,7 +2755,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3238,7 +3072,7 @@
   </sheetPr>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C52" sqref="A44:XFD52"/>
     </sheetView>
   </sheetViews>
@@ -3309,37 +3143,37 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="32" t="s">
         <v>579</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="32" t="s">
         <v>100</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="32" t="s">
         <v>370</v>
       </c>
       <c r="O3" s="14" t="s">
@@ -3347,92 +3181,92 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="17"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="17" t="s">
         <v>583</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="13" t="s">
         <v>104</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="25"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="14" t="s">
         <v>375</v>
       </c>
@@ -3441,29 +3275,29 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="29" t="s">
         <v>585</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="29" t="s">
         <v>106</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25" t="s">
+      <c r="M8" s="29"/>
+      <c r="N8" s="29" t="s">
         <v>377</v>
       </c>
       <c r="O8" s="14" t="s">
@@ -3471,50 +3305,50 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="14" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="17" t="s">
         <v>587</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="13" t="s">
         <v>108</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="25"/>
+      <c r="M10" s="29"/>
       <c r="N10" s="14" t="s">
         <v>379</v>
       </c>
@@ -3523,29 +3357,29 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="30" t="s">
         <v>237</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="29" t="s">
         <v>589</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="29" t="s">
         <v>110</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25" t="s">
+      <c r="M11" s="29"/>
+      <c r="N11" s="29" t="s">
         <v>381</v>
       </c>
       <c r="O11" s="14" t="s">
@@ -3553,73 +3387,73 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="25"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="30" t="s">
         <v>240</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="29" t="s">
         <v>592</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="29" t="s">
         <v>113</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="29"/>
+      <c r="N14" s="29" t="s">
         <v>384</v>
       </c>
       <c r="O14" s="14" t="s">
@@ -3627,94 +3461,94 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="25"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="25"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="17" t="s">
         <v>597</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="13" t="s">
         <v>116</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="25"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="14" t="s">
         <v>387</v>
       </c>
@@ -3723,28 +3557,28 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="17" t="s">
         <v>599</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="13" t="s">
         <v>118</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="18" t="s">
         <v>548</v>
       </c>
@@ -3753,28 +3587,28 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="17" t="s">
         <v>600</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="13" t="s">
         <v>119</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="25"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="18" t="s">
         <v>549</v>
       </c>
@@ -3783,28 +3617,28 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="17" t="s">
         <v>601</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="25"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="14" t="s">
         <v>389</v>
       </c>
@@ -3813,28 +3647,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="17" t="s">
         <v>602</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="13" t="s">
         <v>122</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="M22" s="25"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="18" t="s">
         <v>550</v>
       </c>
@@ -3843,28 +3677,28 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="17" t="s">
         <v>604</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="13" t="s">
         <v>123</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="25"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="14" t="s">
         <v>392</v>
       </c>
@@ -3873,29 +3707,29 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30" t="s">
         <v>503</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="29" t="s">
         <v>605</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="25" t="s">
+      <c r="I24" s="35"/>
+      <c r="J24" s="29" t="s">
         <v>504</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25" t="s">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29" t="s">
         <v>394</v>
       </c>
       <c r="O24" s="14" t="s">
@@ -3903,59 +3737,59 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="25"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="29" t="s">
         <v>255</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="29" t="s">
         <v>607</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="29" t="s">
         <v>258</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="31" t="s">
         <v>551</v>
       </c>
       <c r="O26" s="14" t="s">
@@ -3963,51 +3797,51 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="27"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="29" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
         <v>608</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="29" t="s">
         <v>257</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25" t="s">
+      <c r="M28" s="29"/>
+      <c r="N28" s="29" t="s">
         <v>505</v>
       </c>
       <c r="O28" s="14" t="s">
@@ -4015,51 +3849,51 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
       <c r="O29" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="29" t="s">
         <v>253</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="29" t="s">
         <v>609</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="29" t="s">
         <v>256</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25" t="s">
+      <c r="M30" s="29"/>
+      <c r="N30" s="29" t="s">
         <v>396</v>
       </c>
       <c r="O30" s="14" t="s">
@@ -4067,51 +3901,51 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
       <c r="O31" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="29" t="s">
         <v>259</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29" t="s">
         <v>610</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25" t="s">
+      <c r="M32" s="29"/>
+      <c r="N32" s="29" t="s">
         <v>397</v>
       </c>
       <c r="O32" s="14" t="s">
@@ -4119,53 +3953,53 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
       <c r="O33" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="29" t="s">
         <v>260</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>611</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I34" s="25"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25" t="s">
+      <c r="M34" s="29"/>
+      <c r="N34" s="29" t="s">
         <v>398</v>
       </c>
       <c r="O34" s="14" t="s">
@@ -4173,31 +4007,31 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I35" s="25"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
       <c r="O35" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="29" t="s">
         <v>261</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -4206,7 +4040,7 @@
       <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="29" t="s">
         <v>612</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -4215,7 +4049,7 @@
       <c r="G36" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="29" t="s">
         <v>128</v>
       </c>
       <c r="J36" s="13" t="s">
@@ -4224,7 +4058,7 @@
       <c r="K36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="M36" s="29" t="s">
         <v>399</v>
       </c>
       <c r="N36" s="14" t="s">
@@ -4235,28 +4069,28 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="17" t="s">
         <v>614</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="13" t="s">
         <v>131</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="25"/>
+      <c r="M37" s="29"/>
       <c r="N37" s="14" t="s">
         <v>401</v>
       </c>
@@ -4265,28 +4099,28 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="17" t="s">
         <v>616</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M38" s="25"/>
+      <c r="M38" s="29"/>
       <c r="N38" s="14" t="s">
         <v>403</v>
       </c>
@@ -4295,28 +4129,28 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="17" t="s">
         <v>617</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="25"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="14" t="s">
         <v>405</v>
       </c>
@@ -4325,29 +4159,29 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
         <v>268</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="29" t="s">
         <v>619</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25" t="s">
+      <c r="I40" s="29"/>
+      <c r="J40" s="29" t="s">
         <v>137</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25" t="s">
+      <c r="M40" s="29"/>
+      <c r="N40" s="29" t="s">
         <v>507</v>
       </c>
       <c r="O40" s="14" t="s">
@@ -4355,50 +4189,50 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
       <c r="O41" s="4" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="17" t="s">
         <v>622</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I42" s="25"/>
+      <c r="I42" s="29"/>
       <c r="J42" s="13" t="s">
         <v>138</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="25"/>
+      <c r="M42" s="29"/>
       <c r="N42" s="14" t="s">
         <v>407</v>
       </c>
@@ -4407,28 +4241,28 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="25"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="17" t="s">
         <v>623</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="13" t="s">
         <v>509</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M43" s="25"/>
+      <c r="M43" s="29"/>
       <c r="N43" s="14" t="s">
         <v>408</v>
       </c>
@@ -4437,7 +4271,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="29" t="s">
         <v>276</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -4446,7 +4280,7 @@
       <c r="C44" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="29" t="s">
         <v>625</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -4455,7 +4289,7 @@
       <c r="G44" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="29" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="13" t="s">
@@ -4464,7 +4298,7 @@
       <c r="K44" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="M44" s="29" t="s">
         <v>515</v>
       </c>
       <c r="N44" s="14" t="s">
@@ -4475,28 +4309,28 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E45" s="25"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="17" t="s">
         <v>628</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I45" s="25"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="13" t="s">
         <v>142</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M45" s="25"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="14" t="s">
         <v>410</v>
       </c>
@@ -4505,28 +4339,28 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="25"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="17" t="s">
         <v>629</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I46" s="25"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="13" t="s">
         <v>143</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M46" s="25"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="14" t="s">
         <v>412</v>
       </c>
@@ -4535,28 +4369,28 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="17" t="s">
         <v>630</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I47" s="25"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="13" t="s">
         <v>144</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="25"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="14" t="s">
         <v>416</v>
       </c>
@@ -4567,28 +4401,28 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="29"/>
       <c r="F48" s="17" t="s">
         <v>631</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I48" s="25"/>
+      <c r="I48" s="29"/>
       <c r="J48" s="13" t="s">
         <v>145</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M48" s="25"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="14" t="s">
         <v>417</v>
       </c>
@@ -4599,28 +4433,28 @@
       <c r="Q48" s="14"/>
     </row>
     <row r="49" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="17" t="s">
         <v>632</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="I49" s="25"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="13" t="s">
         <v>147</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M49" s="25"/>
+      <c r="M49" s="29"/>
       <c r="N49" s="14" t="s">
         <v>419</v>
       </c>
@@ -4631,29 +4465,29 @@
       <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30" t="s">
         <v>285</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25" t="s">
+      <c r="E50" s="29"/>
+      <c r="F50" s="29" t="s">
         <v>634</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25" t="s">
+      <c r="I50" s="29"/>
+      <c r="J50" s="29" t="s">
         <v>149</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25" t="s">
+      <c r="M50" s="29"/>
+      <c r="N50" s="29" t="s">
         <v>413</v>
       </c>
       <c r="O50" s="14" t="s">
@@ -4663,51 +4497,51 @@
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="14" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
       <c r="O52" s="14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="30" t="s">
         <v>288</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -4716,7 +4550,7 @@
       <c r="C53" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="29" t="s">
         <v>637</v>
       </c>
       <c r="F53" s="17" t="s">
@@ -4725,7 +4559,7 @@
       <c r="G53" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="I53" s="29" t="s">
         <v>150</v>
       </c>
       <c r="J53" s="13" t="s">
@@ -4734,7 +4568,7 @@
       <c r="K53" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="M53" s="29" t="s">
         <v>421</v>
       </c>
       <c r="N53" s="18" t="s">
@@ -4745,29 +4579,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30" t="s">
         <v>292</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25" t="s">
+      <c r="E54" s="29"/>
+      <c r="F54" s="29" t="s">
         <v>640</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25" t="s">
+      <c r="I54" s="29"/>
+      <c r="J54" s="29" t="s">
         <v>153</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25" t="s">
+      <c r="M54" s="29"/>
+      <c r="N54" s="29" t="s">
         <v>423</v>
       </c>
       <c r="O54" s="14" t="s">
@@ -4775,51 +4609,51 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30" t="s">
         <v>294</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25" t="s">
+      <c r="E56" s="29"/>
+      <c r="F56" s="29" t="s">
         <v>643</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25" t="s">
+      <c r="I56" s="29"/>
+      <c r="J56" s="29" t="s">
         <v>155</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25" t="s">
+      <c r="M56" s="29"/>
+      <c r="N56" s="29" t="s">
         <v>425</v>
       </c>
       <c r="O56" s="18" t="s">
@@ -4827,51 +4661,51 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
       <c r="K57" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30" t="s">
         <v>295</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25" t="s">
+      <c r="E58" s="29"/>
+      <c r="F58" s="29" t="s">
         <v>645</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25" t="s">
+      <c r="I58" s="29"/>
+      <c r="J58" s="29" t="s">
         <v>157</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25" t="s">
+      <c r="M58" s="29"/>
+      <c r="N58" s="29" t="s">
         <v>426</v>
       </c>
       <c r="O58" s="14" t="s">
@@ -4879,50 +4713,50 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
       <c r="G59" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
       <c r="O59" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="17" t="s">
         <v>647</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="I60" s="25"/>
+      <c r="I60" s="29"/>
       <c r="J60" s="13" t="s">
         <v>159</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M60" s="25"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="14" t="s">
         <v>428</v>
       </c>
@@ -4931,29 +4765,29 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30" t="s">
         <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25" t="s">
+      <c r="E61" s="29"/>
+      <c r="F61" s="29" t="s">
         <v>649</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25" t="s">
+      <c r="I61" s="29"/>
+      <c r="J61" s="29" t="s">
         <v>161</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25" t="s">
+      <c r="M61" s="29"/>
+      <c r="N61" s="29" t="s">
         <v>430</v>
       </c>
       <c r="O61" s="14" t="s">
@@ -4961,36 +4795,36 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
       <c r="G62" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
       <c r="K62" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
       <c r="O62" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
         <v>517</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="25"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="17" t="s">
         <v>651</v>
       </c>
@@ -5003,7 +4837,7 @@
       <c r="K63" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="M63" s="25"/>
+      <c r="M63" s="29"/>
       <c r="N63" s="18" t="s">
         <v>565</v>
       </c>
@@ -5012,37 +4846,37 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="30" t="s">
         <v>301</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="29" t="s">
         <v>653</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I64" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="29" t="s">
         <v>164</v>
       </c>
       <c r="K64" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M64" s="27" t="s">
+      <c r="M64" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="N64" s="25" t="s">
+      <c r="N64" s="29" t="s">
         <v>433</v>
       </c>
       <c r="O64" s="14" t="s">
@@ -5050,51 +4884,51 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
       <c r="G65" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
       <c r="K65" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M65" s="27"/>
-      <c r="N65" s="25"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="29"/>
       <c r="O65" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="26" t="s">
+      <c r="A66" s="31"/>
+      <c r="B66" s="30" t="s">
         <v>303</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25" t="s">
+      <c r="E66" s="29"/>
+      <c r="F66" s="29" t="s">
         <v>655</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25" t="s">
+      <c r="I66" s="29"/>
+      <c r="J66" s="29" t="s">
         <v>165</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M66" s="27"/>
-      <c r="N66" s="25" t="s">
+      <c r="M66" s="31"/>
+      <c r="N66" s="29" t="s">
         <v>434</v>
       </c>
       <c r="O66" s="14" t="s">
@@ -5102,50 +4936,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M67" s="27"/>
-      <c r="N67" s="25"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="29"/>
       <c r="O67" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="17" t="s">
         <v>656</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="25"/>
+      <c r="I68" s="29"/>
       <c r="J68" s="13" t="s">
         <v>166</v>
       </c>
       <c r="K68" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="M68" s="27"/>
+      <c r="M68" s="31"/>
       <c r="N68" s="14" t="s">
         <v>435</v>
       </c>
@@ -5154,37 +4988,37 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="30" t="s">
         <v>306</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="29" t="s">
         <v>658</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="I69" s="25" t="s">
+      <c r="I69" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J69" s="25" t="s">
+      <c r="J69" s="29" t="s">
         <v>169</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="M69" s="25" t="s">
+      <c r="M69" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="N69" s="25" t="s">
+      <c r="N69" s="29" t="s">
         <v>437</v>
       </c>
       <c r="O69" s="14" t="s">
@@ -5192,59 +5026,59 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
       <c r="K70" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="14" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="30" t="s">
         <v>309</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="29" t="s">
         <v>662</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="25" t="s">
+      <c r="I71" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="J71" s="25" t="s">
+      <c r="J71" s="29" t="s">
         <v>173</v>
       </c>
       <c r="K71" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M71" s="25" t="s">
+      <c r="M71" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="N71" s="25" t="s">
+      <c r="N71" s="29" t="s">
         <v>442</v>
       </c>
       <c r="O71" s="14" t="s">
@@ -5252,59 +5086,59 @@
       </c>
     </row>
     <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
       <c r="G72" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
       <c r="K72" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="14" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="30" t="s">
         <v>311</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="29" t="s">
         <v>664</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="29" t="s">
         <v>665</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="I73" s="25" t="s">
+      <c r="I73" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="J73" s="25" t="s">
+      <c r="J73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="25" t="s">
+      <c r="M73" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="N73" s="25" t="s">
+      <c r="N73" s="29" t="s">
         <v>446</v>
       </c>
       <c r="O73" s="14" t="s">
@@ -5312,50 +5146,50 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
       <c r="K74" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
       <c r="O74" s="18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="25"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="17" t="s">
         <v>668</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="25"/>
+      <c r="I75" s="29"/>
       <c r="J75" s="13" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="M75" s="25"/>
+      <c r="M75" s="29"/>
       <c r="N75" s="14" t="s">
         <v>447</v>
       </c>
@@ -5364,29 +5198,29 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26" t="s">
+      <c r="A76" s="29"/>
+      <c r="B76" s="30" t="s">
         <v>314</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25" t="s">
+      <c r="E76" s="29"/>
+      <c r="F76" s="29" t="s">
         <v>669</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25" t="s">
+      <c r="I76" s="29"/>
+      <c r="J76" s="29" t="s">
         <v>180</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25" t="s">
+      <c r="M76" s="29"/>
+      <c r="N76" s="29" t="s">
         <v>448</v>
       </c>
       <c r="O76" s="14" t="s">
@@ -5394,72 +5228,72 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
       <c r="G77" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
       <c r="K77" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
       <c r="G78" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
       <c r="K78" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
       <c r="O78" s="18" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E79" s="25"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="17" t="s">
         <v>673</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="I79" s="25"/>
+      <c r="I79" s="29"/>
       <c r="J79" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="M79" s="25"/>
+      <c r="M79" s="29"/>
       <c r="N79" s="18" t="s">
         <v>566</v>
       </c>
@@ -5468,28 +5302,28 @@
       </c>
     </row>
     <row r="80" spans="1:15" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="25"/>
+      <c r="E80" s="29"/>
       <c r="F80" s="17" t="s">
         <v>675</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="I80" s="25"/>
+      <c r="I80" s="29"/>
       <c r="J80" s="14" t="s">
         <v>522</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="M80" s="25"/>
+      <c r="M80" s="29"/>
       <c r="N80" s="14" t="s">
         <v>519</v>
       </c>
@@ -5498,7 +5332,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="29" t="s">
         <v>322</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -5507,7 +5341,7 @@
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="25" t="s">
+      <c r="E81" s="29" t="s">
         <v>677</v>
       </c>
       <c r="F81" s="17" t="s">
@@ -5516,7 +5350,7 @@
       <c r="G81" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I81" s="25" t="s">
+      <c r="I81" s="29" t="s">
         <v>185</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -5525,7 +5359,7 @@
       <c r="K81" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="M81" s="25" t="s">
+      <c r="M81" s="29" t="s">
         <v>451</v>
       </c>
       <c r="N81" s="14" t="s">
@@ -5536,28 +5370,28 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E82" s="25"/>
+      <c r="E82" s="29"/>
       <c r="F82" s="17" t="s">
         <v>679</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I82" s="25"/>
+      <c r="I82" s="29"/>
       <c r="J82" s="13" t="s">
         <v>188</v>
       </c>
       <c r="K82" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M82" s="25"/>
+      <c r="M82" s="29"/>
       <c r="N82" s="14" t="s">
         <v>453</v>
       </c>
@@ -5566,28 +5400,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E83" s="25"/>
+      <c r="E83" s="29"/>
       <c r="F83" s="17" t="s">
         <v>680</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="I83" s="25"/>
+      <c r="I83" s="29"/>
       <c r="J83" s="13" t="s">
         <v>189</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M83" s="25"/>
+      <c r="M83" s="29"/>
       <c r="N83" s="14" t="s">
         <v>454</v>
       </c>
@@ -5596,28 +5430,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E84" s="25"/>
+      <c r="E84" s="29"/>
       <c r="F84" s="17" t="s">
         <v>682</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="I84" s="25"/>
+      <c r="I84" s="29"/>
       <c r="J84" s="13" t="s">
         <v>191</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M84" s="25"/>
+      <c r="M84" s="29"/>
       <c r="N84" s="14" t="s">
         <v>456</v>
       </c>
@@ -5626,37 +5460,37 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="30" t="s">
         <v>331</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E85" s="25" t="s">
+      <c r="E85" s="29" t="s">
         <v>684</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="29" t="s">
         <v>685</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="I85" s="25" t="s">
+      <c r="I85" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="J85" s="25" t="s">
+      <c r="J85" s="29" t="s">
         <v>194</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="M85" s="25" t="s">
+      <c r="M85" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="N85" s="25" t="s">
+      <c r="N85" s="29" t="s">
         <v>459</v>
       </c>
       <c r="O85" s="14" t="s">
@@ -5664,29 +5498,29 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
       <c r="G86" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
       <c r="K86" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="29" t="s">
         <v>334</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -5695,7 +5529,7 @@
       <c r="C87" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="25" t="s">
+      <c r="E87" s="29" t="s">
         <v>688</v>
       </c>
       <c r="F87" s="17" t="s">
@@ -5704,7 +5538,7 @@
       <c r="G87" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I87" s="25" t="s">
+      <c r="I87" s="29" t="s">
         <v>197</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -5713,7 +5547,7 @@
       <c r="K87" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M87" s="25" t="s">
+      <c r="M87" s="29" t="s">
         <v>462</v>
       </c>
       <c r="N87" s="14" t="s">
@@ -5724,28 +5558,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E88" s="25"/>
+      <c r="E88" s="29"/>
       <c r="F88" s="17" t="s">
         <v>690</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="I88" s="25"/>
+      <c r="I88" s="29"/>
       <c r="J88" s="13" t="s">
         <v>199</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="M88" s="25"/>
+      <c r="M88" s="29"/>
       <c r="N88" s="14" t="s">
         <v>464</v>
       </c>
@@ -5792,7 +5626,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="29" t="s">
         <v>340</v>
       </c>
       <c r="B90" s="23" t="s">
@@ -5801,7 +5635,7 @@
       <c r="C90" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="29" t="s">
         <v>694</v>
       </c>
       <c r="F90" s="17" t="s">
@@ -5810,7 +5644,7 @@
       <c r="G90" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I90" s="25" t="s">
+      <c r="I90" s="29" t="s">
         <v>203</v>
       </c>
       <c r="J90" s="13" t="s">
@@ -5819,7 +5653,7 @@
       <c r="K90" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="25" t="s">
+      <c r="M90" s="29" t="s">
         <v>468</v>
       </c>
       <c r="N90" s="14" t="s">
@@ -5830,28 +5664,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E91" s="25"/>
+      <c r="E91" s="29"/>
       <c r="F91" s="17" t="s">
         <v>697</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="I91" s="25"/>
+      <c r="I91" s="29"/>
       <c r="J91" s="13" t="s">
         <v>205</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="M91" s="25"/>
+      <c r="M91" s="29"/>
       <c r="N91" s="14" t="s">
         <v>470</v>
       </c>
@@ -5860,28 +5694,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="E92" s="25"/>
+      <c r="E92" s="29"/>
       <c r="F92" s="17" t="s">
         <v>699</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I92" s="25"/>
+      <c r="I92" s="29"/>
       <c r="J92" s="13" t="s">
         <v>207</v>
       </c>
       <c r="K92" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="M92" s="25"/>
+      <c r="M92" s="29"/>
       <c r="N92" s="14" t="s">
         <v>472</v>
       </c>
@@ -5890,7 +5724,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="29" t="s">
         <v>346</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -5899,7 +5733,7 @@
       <c r="C93" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E93" s="25" t="s">
+      <c r="E93" s="29" t="s">
         <v>700</v>
       </c>
       <c r="F93" s="17" t="s">
@@ -5908,7 +5742,7 @@
       <c r="G93" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="I93" s="25" t="s">
+      <c r="I93" s="29" t="s">
         <v>209</v>
       </c>
       <c r="J93" s="13" t="s">
@@ -5917,7 +5751,7 @@
       <c r="K93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="M93" s="25" t="s">
+      <c r="M93" s="29" t="s">
         <v>474</v>
       </c>
       <c r="N93" s="14" t="s">
@@ -5928,28 +5762,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E94" s="25"/>
+      <c r="E94" s="29"/>
       <c r="F94" s="17" t="s">
         <v>703</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="I94" s="25"/>
+      <c r="I94" s="29"/>
       <c r="J94" s="13" t="s">
         <v>212</v>
       </c>
       <c r="K94" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="M94" s="25"/>
+      <c r="M94" s="29"/>
       <c r="N94" s="14" t="s">
         <v>476</v>
       </c>
@@ -5958,28 +5792,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="E95" s="25"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="17" t="s">
         <v>705</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="I95" s="25"/>
+      <c r="I95" s="29"/>
       <c r="J95" s="14" t="s">
         <v>529</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="M95" s="25"/>
+      <c r="M95" s="29"/>
       <c r="N95" s="14" t="s">
         <v>476</v>
       </c>
@@ -5988,28 +5822,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E96" s="25"/>
+      <c r="E96" s="29"/>
       <c r="F96" s="17" t="s">
         <v>707</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I96" s="25"/>
+      <c r="I96" s="29"/>
       <c r="J96" s="13" t="s">
         <v>214</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M96" s="25"/>
+      <c r="M96" s="29"/>
       <c r="N96" s="14" t="s">
         <v>479</v>
       </c>
@@ -6018,7 +5852,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="29" t="s">
         <v>352</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -6027,7 +5861,7 @@
       <c r="C97" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="29" t="s">
         <v>708</v>
       </c>
       <c r="F97" s="17" t="s">
@@ -6036,7 +5870,7 @@
       <c r="G97" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="I97" s="25" t="s">
+      <c r="I97" s="29" t="s">
         <v>215</v>
       </c>
       <c r="J97" s="13" t="s">
@@ -6045,7 +5879,7 @@
       <c r="K97" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="M97" s="25" t="s">
+      <c r="M97" s="29" t="s">
         <v>481</v>
       </c>
       <c r="N97" s="14" t="s">
@@ -6056,28 +5890,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E98" s="25"/>
+      <c r="E98" s="29"/>
       <c r="F98" s="17" t="s">
         <v>711</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="I98" s="25"/>
+      <c r="I98" s="29"/>
       <c r="J98" s="13" t="s">
         <v>218</v>
       </c>
       <c r="K98" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="M98" s="25"/>
+      <c r="M98" s="29"/>
       <c r="N98" s="14" t="s">
         <v>484</v>
       </c>
@@ -6086,28 +5920,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="E99" s="25"/>
+      <c r="E99" s="29"/>
       <c r="F99" s="17" t="s">
         <v>713</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="I99" s="25"/>
+      <c r="I99" s="29"/>
       <c r="J99" s="13" t="s">
         <v>220</v>
       </c>
       <c r="K99" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="M99" s="25"/>
+      <c r="M99" s="29"/>
       <c r="N99" s="14" t="s">
         <v>486</v>
       </c>
@@ -6116,28 +5950,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E100" s="25"/>
+      <c r="E100" s="29"/>
       <c r="F100" s="17" t="s">
         <v>715</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="I100" s="25"/>
+      <c r="I100" s="29"/>
       <c r="J100" s="13" t="s">
         <v>222</v>
       </c>
       <c r="K100" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="M100" s="25"/>
+      <c r="M100" s="29"/>
       <c r="N100" s="14" t="s">
         <v>487</v>
       </c>
@@ -6146,28 +5980,28 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E101" s="25"/>
+      <c r="E101" s="29"/>
       <c r="F101" s="17" t="s">
         <v>717</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="I101" s="25"/>
+      <c r="I101" s="29"/>
       <c r="J101" s="13" t="s">
         <v>224</v>
       </c>
       <c r="K101" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="M101" s="25"/>
+      <c r="M101" s="29"/>
       <c r="N101" s="14" t="s">
         <v>489</v>
       </c>
@@ -6176,28 +6010,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="E102" s="25"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="17" t="s">
         <v>719</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="I102" s="25"/>
+      <c r="I102" s="29"/>
       <c r="J102" s="13" t="s">
         <v>233</v>
       </c>
       <c r="K102" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="M102" s="25"/>
+      <c r="M102" s="29"/>
       <c r="N102" s="14" t="s">
         <v>491</v>
       </c>
@@ -6206,28 +6040,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="E103" s="25"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="17" t="s">
         <v>721</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="I103" s="25"/>
+      <c r="I103" s="29"/>
       <c r="J103" s="14" t="s">
         <v>530</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="M103" s="25"/>
+      <c r="M103" s="29"/>
       <c r="N103" s="14" t="s">
         <v>492</v>
       </c>
@@ -6236,28 +6070,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="25"/>
+      <c r="E104" s="29"/>
       <c r="F104" s="17" t="s">
         <v>723</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="I104" s="25"/>
+      <c r="I104" s="29"/>
       <c r="J104" s="14" t="s">
         <v>536</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="M104" s="25"/>
+      <c r="M104" s="29"/>
       <c r="N104" s="14" t="s">
         <v>494</v>
       </c>
@@ -6266,7 +6100,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="29" t="s">
         <v>362</v>
       </c>
       <c r="B105" s="23" t="s">
@@ -6275,7 +6109,7 @@
       <c r="C105" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E105" s="25" t="s">
+      <c r="E105" s="29" t="s">
         <v>725</v>
       </c>
       <c r="F105" s="17" t="s">
@@ -6284,7 +6118,7 @@
       <c r="G105" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="I105" s="25" t="s">
+      <c r="I105" s="29" t="s">
         <v>226</v>
       </c>
       <c r="J105" s="13" t="s">
@@ -6293,7 +6127,7 @@
       <c r="K105" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="M105" s="25" t="s">
+      <c r="M105" s="29" t="s">
         <v>496</v>
       </c>
       <c r="N105" s="14" t="s">
@@ -6304,28 +6138,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E106" s="25"/>
+      <c r="E106" s="29"/>
       <c r="F106" s="17" t="s">
         <v>728</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I106" s="25"/>
+      <c r="I106" s="29"/>
       <c r="J106" s="13" t="s">
         <v>229</v>
       </c>
       <c r="K106" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M106" s="25"/>
+      <c r="M106" s="29"/>
       <c r="N106" s="14" t="s">
         <v>499</v>
       </c>
@@ -6334,28 +6168,28 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="E107" s="25"/>
+      <c r="E107" s="29"/>
       <c r="F107" s="17" t="s">
         <v>729</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="I107" s="25"/>
+      <c r="I107" s="29"/>
       <c r="J107" s="13" t="s">
         <v>230</v>
       </c>
       <c r="K107" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="M107" s="25"/>
+      <c r="M107" s="29"/>
       <c r="N107" s="14" t="s">
         <v>500</v>
       </c>
@@ -6364,28 +6198,28 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E108" s="25"/>
+      <c r="E108" s="29"/>
       <c r="F108" s="17" t="s">
         <v>731</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I108" s="25"/>
+      <c r="I108" s="29"/>
       <c r="J108" s="13" t="s">
         <v>232</v>
       </c>
       <c r="K108" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M108" s="25"/>
+      <c r="M108" s="29"/>
       <c r="N108" s="14" t="s">
         <v>501</v>
       </c>
@@ -6571,13 +6405,15 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6586,7 +6422,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="C1" t="s">
         <v>88</v>
@@ -6598,7 +6434,7 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="H1" t="s">
         <v>90</v>
@@ -6610,7 +6446,7 @@
         <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="M1" t="s">
         <v>94</v>
@@ -6662,7 +6498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -6674,7 +6510,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H3" t="s">
         <v>67</v>
@@ -6686,7 +6522,7 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="M3" t="s">
         <v>83</v>
@@ -6700,7 +6536,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -6712,7 +6548,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H4" t="s">
         <v>68</v>
@@ -6724,7 +6560,7 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="M4" t="s">
         <v>81</v>
@@ -6738,7 +6574,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -6750,7 +6586,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -6762,7 +6598,7 @@
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="M5" t="s">
         <v>25</v>
@@ -6776,7 +6612,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H6" t="s">
         <v>70</v>
@@ -6788,7 +6624,7 @@
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="M6" t="s">
         <v>82</v>
@@ -6802,7 +6638,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -6814,7 +6650,7 @@
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="M7" t="s">
         <v>84</v>
@@ -6828,7 +6664,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -6840,7 +6676,7 @@
         <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="H13" t="s">
         <v>92</v>
@@ -6880,7 +6716,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -6892,7 +6728,7 @@
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -6906,7 +6742,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -6918,7 +6754,7 @@
         <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -6932,7 +6768,7 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
@@ -6946,7 +6782,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -6960,7 +6796,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -6983,7 +6819,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7000,13 +6836,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7038,7 +6874,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -7056,7 +6892,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="str">
         <f>Sheet2!F6</f>
         <v>Critical Danger</v>
@@ -7072,7 +6908,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="str">
         <f>Sheet2!F5</f>
         <v>Dangerous</v>
@@ -7088,7 +6924,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="str">
         <f>Sheet2!F4</f>
         <v>Slight Danger</v>
@@ -7100,7 +6936,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="str">
         <f>Sheet2!F3</f>
         <v>Safe</v>
@@ -7117,25 +6953,25 @@
     <row r="9" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I9" s="9"/>
       <c r="J9" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I10" s="11"/>
       <c r="J10" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I11" s="10"/>
       <c r="J11" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12" s="12"/>
       <c r="J12" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -7218,8 +7054,8 @@
   </sheetPr>
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7292,37 +7128,37 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>255</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="29" t="s">
         <v>607</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="29" t="s">
         <v>258</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="31" t="s">
         <v>551</v>
       </c>
       <c r="O4" s="21" t="s">
@@ -7330,51 +7166,51 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="27"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="29" t="s">
         <v>254</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="29" t="s">
         <v>608</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
         <v>257</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25" t="s">
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
         <v>505</v>
       </c>
       <c r="O6" s="21" t="s">
@@ -7382,51 +7218,51 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="29" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="29" t="s">
         <v>609</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29" t="s">
         <v>256</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25" t="s">
+      <c r="M8" s="29"/>
+      <c r="N8" s="29" t="s">
         <v>396</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -7434,51 +7270,51 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="29" t="s">
         <v>610</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="29"/>
+      <c r="N10" s="29" t="s">
         <v>397</v>
       </c>
       <c r="O10" s="21" t="s">
@@ -7486,53 +7322,53 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="29" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="29" t="s">
         <v>611</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="29"/>
+      <c r="N12" s="29" t="s">
         <v>398</v>
       </c>
       <c r="O12" s="21" t="s">
@@ -7540,61 +7376,61 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="32" t="s">
         <v>579</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="32" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="32" t="s">
         <v>370</v>
       </c>
       <c r="O14" s="21" t="s">
@@ -7602,92 +7438,92 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="21" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="34"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="25"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="21" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="21" t="s">
         <v>583</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="21" t="s">
         <v>104</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="25"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="21" t="s">
         <v>375</v>
       </c>
@@ -7696,29 +7532,29 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="29" t="s">
         <v>585</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="25" t="s">
+      <c r="I19" s="35"/>
+      <c r="J19" s="29" t="s">
         <v>106</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25" t="s">
+      <c r="M19" s="29"/>
+      <c r="N19" s="29" t="s">
         <v>377</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -7726,50 +7562,50 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="25"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="21" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="21" t="s">
         <v>587</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="21" t="s">
         <v>108</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="25"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>379</v>
       </c>
@@ -7778,29 +7614,29 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="30" t="s">
         <v>237</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="29" t="s">
         <v>589</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="25" t="s">
+      <c r="I22" s="35"/>
+      <c r="J22" s="29" t="s">
         <v>110</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25" t="s">
+      <c r="M22" s="29"/>
+      <c r="N22" s="29" t="s">
         <v>381</v>
       </c>
       <c r="O22" s="21" t="s">
@@ -7808,73 +7644,73 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="25"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="25"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="21" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="25"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="30" t="s">
         <v>240</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="25" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="29" t="s">
         <v>592</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="25" t="s">
+      <c r="I25" s="35"/>
+      <c r="J25" s="29" t="s">
         <v>113</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25" t="s">
+      <c r="M25" s="29"/>
+      <c r="N25" s="29" t="s">
         <v>384</v>
       </c>
       <c r="O25" s="21" t="s">
@@ -7882,94 +7718,94 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="25"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="21" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="25"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="21" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="25"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="21" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="21" t="s">
         <v>597</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="21" t="s">
         <v>116</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="25"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="21" t="s">
         <v>387</v>
       </c>
@@ -7978,28 +7814,28 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="21" t="s">
         <v>599</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="21" t="s">
         <v>118</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="25"/>
+      <c r="M30" s="29"/>
       <c r="N30" s="22" t="s">
         <v>548</v>
       </c>
@@ -8008,28 +7844,28 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="21" t="s">
         <v>600</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="21" t="s">
         <v>119</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="25"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="22" t="s">
         <v>549</v>
       </c>
@@ -8038,28 +7874,28 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="21" t="s">
         <v>601</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="21" t="s">
         <v>120</v>
       </c>
       <c r="K32" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="M32" s="25"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="21" t="s">
         <v>389</v>
       </c>
@@ -8068,28 +7904,28 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="21" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="21" t="s">
         <v>602</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="21" t="s">
         <v>122</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="M33" s="25"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="22" t="s">
         <v>550</v>
       </c>
@@ -8098,28 +7934,28 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="21" t="s">
         <v>604</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I34" s="31"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="21" t="s">
         <v>123</v>
       </c>
       <c r="K34" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="25"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21" t="s">
         <v>392</v>
       </c>
@@ -8128,29 +7964,29 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30" t="s">
         <v>503</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="25" t="s">
+      <c r="E35" s="34"/>
+      <c r="F35" s="29" t="s">
         <v>605</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="25" t="s">
+      <c r="I35" s="35"/>
+      <c r="J35" s="29" t="s">
         <v>504</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25" t="s">
+      <c r="M35" s="29"/>
+      <c r="N35" s="29" t="s">
         <v>394</v>
       </c>
       <c r="O35" s="21" t="s">
@@ -8158,29 +7994,29 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="25"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
       <c r="O36" s="21" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="29" t="s">
         <v>261</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -8189,7 +8025,7 @@
       <c r="C37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="30" t="s">
         <v>612</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -8198,7 +8034,7 @@
       <c r="G37" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="29" t="s">
         <v>128</v>
       </c>
       <c r="J37" s="21" t="s">
@@ -8207,7 +8043,7 @@
       <c r="K37" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M37" s="29" t="s">
         <v>399</v>
       </c>
       <c r="N37" s="21" t="s">
@@ -8218,28 +8054,28 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="21" t="s">
         <v>614</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="21" t="s">
         <v>131</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="25"/>
+      <c r="M38" s="29"/>
       <c r="N38" s="21" t="s">
         <v>401</v>
       </c>
@@ -8248,28 +8084,28 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="26"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="21" t="s">
         <v>616</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M39" s="25"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21" t="s">
         <v>403</v>
       </c>
@@ -8278,28 +8114,28 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="26"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="21" t="s">
         <v>617</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="21" t="s">
         <v>135</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="M40" s="25"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21" t="s">
         <v>405</v>
       </c>
@@ -8308,29 +8144,29 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30" t="s">
         <v>268</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="29" t="s">
         <v>619</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25" t="s">
+      <c r="I41" s="29"/>
+      <c r="J41" s="29" t="s">
         <v>137</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25" t="s">
+      <c r="M41" s="29"/>
+      <c r="N41" s="29" t="s">
         <v>507</v>
       </c>
       <c r="O41" s="21" t="s">
@@ -8338,50 +8174,50 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="25"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="29"/>
       <c r="G42" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
       <c r="O42" s="21" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="21" t="s">
         <v>622</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="21" t="s">
         <v>138</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="25"/>
+      <c r="M43" s="29"/>
       <c r="N43" s="21" t="s">
         <v>407</v>
       </c>
@@ -8390,28 +8226,28 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="21" t="s">
         <v>623</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="I44" s="25"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="21" t="s">
         <v>509</v>
       </c>
       <c r="K44" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M44" s="25"/>
+      <c r="M44" s="29"/>
       <c r="N44" s="21" t="s">
         <v>408</v>
       </c>
@@ -8420,7 +8256,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="30" t="s">
         <v>288</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -8429,7 +8265,7 @@
       <c r="C45" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="30" t="s">
         <v>637</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -8438,7 +8274,7 @@
       <c r="G45" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="29" t="s">
         <v>150</v>
       </c>
       <c r="J45" s="21" t="s">
@@ -8447,7 +8283,7 @@
       <c r="K45" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="M45" s="25" t="s">
+      <c r="M45" s="29" t="s">
         <v>421</v>
       </c>
       <c r="N45" s="22" t="s">
@@ -8458,29 +8294,29 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30" t="s">
         <v>292</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="25" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="29" t="s">
         <v>640</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25" t="s">
+      <c r="I46" s="29"/>
+      <c r="J46" s="29" t="s">
         <v>153</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25" t="s">
+      <c r="M46" s="29"/>
+      <c r="N46" s="29" t="s">
         <v>423</v>
       </c>
       <c r="O46" s="21" t="s">
@@ -8488,51 +8324,51 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="25"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
       <c r="O47" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30" t="s">
         <v>294</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="25" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="29" t="s">
         <v>643</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25" t="s">
+      <c r="I48" s="29"/>
+      <c r="J48" s="29" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25" t="s">
+      <c r="M48" s="29"/>
+      <c r="N48" s="29" t="s">
         <v>425</v>
       </c>
       <c r="O48" s="22" t="s">
@@ -8540,51 +8376,51 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="25"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
       <c r="O49" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30" t="s">
         <v>295</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="25" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="29" t="s">
         <v>645</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25" t="s">
+      <c r="I50" s="29"/>
+      <c r="J50" s="29" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25" t="s">
+      <c r="M50" s="29"/>
+      <c r="N50" s="29" t="s">
         <v>426</v>
       </c>
       <c r="O50" s="21" t="s">
@@ -8592,50 +8428,50 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="25"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="26"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="21" t="s">
         <v>647</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="I52" s="25"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="K52" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="M52" s="25"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21" t="s">
         <v>428</v>
       </c>
@@ -8644,29 +8480,29 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30" t="s">
         <v>300</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="25" t="s">
+      <c r="E53" s="30"/>
+      <c r="F53" s="29" t="s">
         <v>649</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25" t="s">
+      <c r="I53" s="29"/>
+      <c r="J53" s="29" t="s">
         <v>161</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25" t="s">
+      <c r="M53" s="29"/>
+      <c r="N53" s="29" t="s">
         <v>430</v>
       </c>
       <c r="O53" s="21" t="s">
@@ -8674,36 +8510,36 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="25"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="29"/>
       <c r="G54" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
       <c r="O54" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="26"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="21" t="s">
         <v>651</v>
       </c>
@@ -8716,7 +8552,7 @@
       <c r="K55" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="25"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="22" t="s">
         <v>565</v>
       </c>
@@ -8763,37 +8599,37 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="30" t="s">
         <v>301</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="29" t="s">
         <v>653</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I57" s="25" t="s">
+      <c r="I57" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="J57" s="29" t="s">
         <v>164</v>
       </c>
       <c r="K57" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M57" s="27" t="s">
+      <c r="M57" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="N57" s="25" t="s">
+      <c r="N57" s="29" t="s">
         <v>433</v>
       </c>
       <c r="O57" s="21" t="s">
@@ -8801,51 +8637,51 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="29"/>
       <c r="G58" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
       <c r="K58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M58" s="27"/>
-      <c r="N58" s="25"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="29"/>
       <c r="O58" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="26" t="s">
+      <c r="A59" s="31"/>
+      <c r="B59" s="30" t="s">
         <v>303</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25" t="s">
+      <c r="E59" s="30"/>
+      <c r="F59" s="29" t="s">
         <v>655</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25" t="s">
+      <c r="I59" s="29"/>
+      <c r="J59" s="29" t="s">
         <v>165</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M59" s="27"/>
-      <c r="N59" s="25" t="s">
+      <c r="M59" s="31"/>
+      <c r="N59" s="29" t="s">
         <v>434</v>
       </c>
       <c r="O59" s="21" t="s">
@@ -8853,50 +8689,50 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="29"/>
       <c r="G60" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
       <c r="K60" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M60" s="27"/>
-      <c r="N60" s="25"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="29"/>
       <c r="O60" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E61" s="25"/>
+      <c r="E61" s="30"/>
       <c r="F61" s="21" t="s">
         <v>656</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I61" s="25"/>
+      <c r="I61" s="29"/>
       <c r="J61" s="21" t="s">
         <v>166</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="M61" s="27"/>
+      <c r="M61" s="31"/>
       <c r="N61" s="21" t="s">
         <v>435</v>
       </c>
@@ -8905,37 +8741,37 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="30" t="s">
         <v>306</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="29" t="s">
         <v>658</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="I62" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J62" s="25" t="s">
+      <c r="J62" s="29" t="s">
         <v>169</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="M62" s="25" t="s">
+      <c r="M62" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="N62" s="25" t="s">
+      <c r="N62" s="29" t="s">
         <v>437</v>
       </c>
       <c r="O62" s="21" t="s">
@@ -8943,59 +8779,59 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="29"/>
       <c r="G63" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
       <c r="K63" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
       <c r="O63" s="21" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="30" t="s">
         <v>309</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="29" t="s">
         <v>662</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I64" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="29" t="s">
         <v>173</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M64" s="25" t="s">
+      <c r="M64" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="N64" s="25" t="s">
+      <c r="N64" s="29" t="s">
         <v>442</v>
       </c>
       <c r="O64" s="21" t="s">
@@ -9003,59 +8839,59 @@
       </c>
     </row>
     <row r="65" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="29"/>
       <c r="G65" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
       <c r="K65" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
       <c r="O65" s="21" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="30" t="s">
         <v>311</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="29" t="s">
         <v>665</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="I66" s="25" t="s">
+      <c r="I66" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="J66" s="25" t="s">
+      <c r="J66" s="29" t="s">
         <v>176</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="M66" s="25" t="s">
+      <c r="M66" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="N66" s="25" t="s">
+      <c r="N66" s="29" t="s">
         <v>446</v>
       </c>
       <c r="O66" s="21" t="s">
@@ -9063,50 +8899,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
       <c r="O67" s="22" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="21" t="s">
         <v>668</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="25"/>
+      <c r="I68" s="29"/>
       <c r="J68" s="21" t="s">
         <v>179</v>
       </c>
       <c r="K68" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="M68" s="25"/>
+      <c r="M68" s="29"/>
       <c r="N68" s="21" t="s">
         <v>447</v>
       </c>
@@ -9115,29 +8951,29 @@
       </c>
     </row>
     <row r="69" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26" t="s">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30" t="s">
         <v>314</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25" t="s">
+      <c r="E69" s="30"/>
+      <c r="F69" s="29" t="s">
         <v>669</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25" t="s">
+      <c r="I69" s="29"/>
+      <c r="J69" s="29" t="s">
         <v>180</v>
       </c>
       <c r="K69" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25" t="s">
+      <c r="M69" s="29"/>
+      <c r="N69" s="29" t="s">
         <v>448</v>
       </c>
       <c r="O69" s="21" t="s">
@@ -9145,72 +8981,72 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
       <c r="K70" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="21" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="29"/>
       <c r="G71" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
       <c r="K71" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="22" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E72" s="25"/>
+      <c r="E72" s="30"/>
       <c r="F72" s="21" t="s">
         <v>673</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="I72" s="25"/>
+      <c r="I72" s="29"/>
       <c r="J72" s="21" t="s">
         <v>183</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="M72" s="25"/>
+      <c r="M72" s="29"/>
       <c r="N72" s="22" t="s">
         <v>566</v>
       </c>
@@ -9219,28 +9055,28 @@
       </c>
     </row>
     <row r="73" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="E73" s="25"/>
+      <c r="E73" s="30"/>
       <c r="F73" s="21" t="s">
         <v>675</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="I73" s="25"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="21" t="s">
         <v>522</v>
       </c>
       <c r="K73" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="M73" s="25"/>
+      <c r="M73" s="29"/>
       <c r="N73" s="21" t="s">
         <v>519</v>
       </c>
@@ -9249,7 +9085,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="29" t="s">
         <v>322</v>
       </c>
       <c r="B74" s="23" t="s">
@@ -9258,7 +9094,7 @@
       <c r="C74" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="30" t="s">
         <v>677</v>
       </c>
       <c r="F74" s="21" t="s">
@@ -9267,7 +9103,7 @@
       <c r="G74" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I74" s="25" t="s">
+      <c r="I74" s="29" t="s">
         <v>185</v>
       </c>
       <c r="J74" s="21" t="s">
@@ -9276,7 +9112,7 @@
       <c r="K74" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="25" t="s">
+      <c r="M74" s="29" t="s">
         <v>451</v>
       </c>
       <c r="N74" s="21" t="s">
@@ -9287,28 +9123,28 @@
       </c>
     </row>
     <row r="75" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="25"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="21" t="s">
         <v>679</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="25"/>
+      <c r="I75" s="29"/>
       <c r="J75" s="21" t="s">
         <v>188</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M75" s="25"/>
+      <c r="M75" s="29"/>
       <c r="N75" s="21" t="s">
         <v>453</v>
       </c>
@@ -9317,28 +9153,28 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E76" s="25"/>
+      <c r="E76" s="30"/>
       <c r="F76" s="21" t="s">
         <v>680</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="I76" s="25"/>
+      <c r="I76" s="29"/>
       <c r="J76" s="21" t="s">
         <v>189</v>
       </c>
       <c r="K76" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="M76" s="25"/>
+      <c r="M76" s="29"/>
       <c r="N76" s="21" t="s">
         <v>454</v>
       </c>
@@ -9347,28 +9183,28 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E77" s="25"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="21" t="s">
         <v>682</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="I77" s="25"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="21" t="s">
         <v>191</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="M77" s="25"/>
+      <c r="M77" s="29"/>
       <c r="N77" s="21" t="s">
         <v>456</v>
       </c>
@@ -9377,37 +9213,37 @@
       </c>
     </row>
     <row r="78" spans="1:15" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="30" t="s">
         <v>331</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="29" t="s">
         <v>685</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="I78" s="25" t="s">
+      <c r="I78" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="J78" s="25" t="s">
+      <c r="J78" s="29" t="s">
         <v>194</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="M78" s="25" t="s">
+      <c r="M78" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="N78" s="25" t="s">
+      <c r="N78" s="29" t="s">
         <v>459</v>
       </c>
       <c r="O78" s="21" t="s">
@@ -9415,29 +9251,29 @@
       </c>
     </row>
     <row r="79" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="29"/>
       <c r="G79" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
       <c r="K79" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
       <c r="O79" s="21" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="29" t="s">
         <v>334</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -9446,7 +9282,7 @@
       <c r="C80" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E80" s="25" t="s">
+      <c r="E80" s="38" t="s">
         <v>688</v>
       </c>
       <c r="F80" s="21" t="s">
@@ -9455,7 +9291,7 @@
       <c r="G80" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I80" s="25" t="s">
+      <c r="I80" s="29" t="s">
         <v>197</v>
       </c>
       <c r="J80" s="21" t="s">
@@ -9464,7 +9300,7 @@
       <c r="K80" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M80" s="25" t="s">
+      <c r="M80" s="29" t="s">
         <v>462</v>
       </c>
       <c r="N80" s="21" t="s">
@@ -9475,28 +9311,28 @@
       </c>
     </row>
     <row r="81" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E81" s="25"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="21" t="s">
         <v>690</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="I81" s="25"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="21" t="s">
         <v>199</v>
       </c>
       <c r="K81" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="M81" s="25"/>
+      <c r="M81" s="29"/>
       <c r="N81" s="21" t="s">
         <v>464</v>
       </c>
@@ -9505,7 +9341,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="29" t="s">
         <v>340</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -9514,7 +9350,7 @@
       <c r="C82" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="30" t="s">
         <v>694</v>
       </c>
       <c r="F82" s="21" t="s">
@@ -9523,7 +9359,7 @@
       <c r="G82" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I82" s="25" t="s">
+      <c r="I82" s="29" t="s">
         <v>203</v>
       </c>
       <c r="J82" s="21" t="s">
@@ -9532,7 +9368,7 @@
       <c r="K82" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="M82" s="25" t="s">
+      <c r="M82" s="29" t="s">
         <v>468</v>
       </c>
       <c r="N82" s="21" t="s">
@@ -9543,28 +9379,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E83" s="25"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="21" t="s">
         <v>697</v>
       </c>
       <c r="G83" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="I83" s="25"/>
+      <c r="I83" s="29"/>
       <c r="J83" s="21" t="s">
         <v>205</v>
       </c>
       <c r="K83" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="M83" s="25"/>
+      <c r="M83" s="29"/>
       <c r="N83" s="21" t="s">
         <v>470</v>
       </c>
@@ -9573,28 +9409,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="E84" s="25"/>
+      <c r="E84" s="30"/>
       <c r="F84" s="21" t="s">
         <v>699</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I84" s="25"/>
+      <c r="I84" s="29"/>
       <c r="J84" s="21" t="s">
         <v>207</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M84" s="25"/>
+      <c r="M84" s="29"/>
       <c r="N84" s="21" t="s">
         <v>472</v>
       </c>
@@ -9603,7 +9439,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="29" t="s">
         <v>346</v>
       </c>
       <c r="B85" s="23" t="s">
@@ -9612,7 +9448,7 @@
       <c r="C85" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E85" s="25" t="s">
+      <c r="E85" s="30" t="s">
         <v>700</v>
       </c>
       <c r="F85" s="21" t="s">
@@ -9621,7 +9457,7 @@
       <c r="G85" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="I85" s="25" t="s">
+      <c r="I85" s="29" t="s">
         <v>209</v>
       </c>
       <c r="J85" s="21" t="s">
@@ -9630,7 +9466,7 @@
       <c r="K85" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M85" s="25" t="s">
+      <c r="M85" s="29" t="s">
         <v>474</v>
       </c>
       <c r="N85" s="21" t="s">
@@ -9641,28 +9477,28 @@
       </c>
     </row>
     <row r="86" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="E86" s="25"/>
+      <c r="E86" s="30"/>
       <c r="F86" s="21" t="s">
         <v>703</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="I86" s="25"/>
+      <c r="I86" s="29"/>
       <c r="J86" s="21" t="s">
         <v>212</v>
       </c>
       <c r="K86" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="M86" s="25"/>
+      <c r="M86" s="29"/>
       <c r="N86" s="21" t="s">
         <v>476</v>
       </c>
@@ -9671,28 +9507,28 @@
       </c>
     </row>
     <row r="87" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E87" s="25"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="21" t="s">
         <v>705</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="I87" s="25"/>
+      <c r="I87" s="29"/>
       <c r="J87" s="21" t="s">
         <v>529</v>
       </c>
       <c r="K87" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="M87" s="25"/>
+      <c r="M87" s="29"/>
       <c r="N87" s="21" t="s">
         <v>476</v>
       </c>
@@ -9701,28 +9537,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E88" s="25"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="21" t="s">
         <v>707</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I88" s="25"/>
+      <c r="I88" s="29"/>
       <c r="J88" s="21" t="s">
         <v>214</v>
       </c>
       <c r="K88" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M88" s="25"/>
+      <c r="M88" s="29"/>
       <c r="N88" s="21" t="s">
         <v>479</v>
       </c>
@@ -9731,7 +9567,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="29" t="s">
         <v>352</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -9740,7 +9576,7 @@
       <c r="C89" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="E89" s="30" t="s">
         <v>708</v>
       </c>
       <c r="F89" s="21" t="s">
@@ -9749,7 +9585,7 @@
       <c r="G89" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="I89" s="25" t="s">
+      <c r="I89" s="29" t="s">
         <v>215</v>
       </c>
       <c r="J89" s="21" t="s">
@@ -9758,7 +9594,7 @@
       <c r="K89" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="M89" s="25" t="s">
+      <c r="M89" s="29" t="s">
         <v>481</v>
       </c>
       <c r="N89" s="21" t="s">
@@ -9769,28 +9605,28 @@
       </c>
     </row>
     <row r="90" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E90" s="25"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="21" t="s">
         <v>711</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="I90" s="25"/>
+      <c r="I90" s="29"/>
       <c r="J90" s="21" t="s">
         <v>218</v>
       </c>
       <c r="K90" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="M90" s="25"/>
+      <c r="M90" s="29"/>
       <c r="N90" s="21" t="s">
         <v>484</v>
       </c>
@@ -9799,28 +9635,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="E91" s="25"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="21" t="s">
         <v>713</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="I91" s="25"/>
+      <c r="I91" s="29"/>
       <c r="J91" s="21" t="s">
         <v>220</v>
       </c>
       <c r="K91" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="M91" s="25"/>
+      <c r="M91" s="29"/>
       <c r="N91" s="21" t="s">
         <v>486</v>
       </c>
@@ -9829,28 +9665,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E92" s="25"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="21" t="s">
         <v>715</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="I92" s="25"/>
+      <c r="I92" s="29"/>
       <c r="J92" s="21" t="s">
         <v>222</v>
       </c>
       <c r="K92" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="M92" s="25"/>
+      <c r="M92" s="29"/>
       <c r="N92" s="21" t="s">
         <v>487</v>
       </c>
@@ -9859,28 +9695,28 @@
       </c>
     </row>
     <row r="93" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E93" s="25"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="21" t="s">
         <v>717</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="I93" s="25"/>
+      <c r="I93" s="29"/>
       <c r="J93" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K93" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="M93" s="25"/>
+      <c r="M93" s="29"/>
       <c r="N93" s="21" t="s">
         <v>489</v>
       </c>
@@ -9889,28 +9725,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="E94" s="25"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="21" t="s">
         <v>719</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="I94" s="25"/>
+      <c r="I94" s="29"/>
       <c r="J94" s="21" t="s">
         <v>233</v>
       </c>
       <c r="K94" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="M94" s="25"/>
+      <c r="M94" s="29"/>
       <c r="N94" s="21" t="s">
         <v>491</v>
       </c>
@@ -9919,28 +9755,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="E95" s="25"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="21" t="s">
         <v>721</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="I95" s="25"/>
+      <c r="I95" s="29"/>
       <c r="J95" s="21" t="s">
         <v>530</v>
       </c>
       <c r="K95" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="M95" s="25"/>
+      <c r="M95" s="29"/>
       <c r="N95" s="21" t="s">
         <v>492</v>
       </c>
@@ -9949,28 +9785,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E96" s="25"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="21" t="s">
         <v>723</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="I96" s="25"/>
+      <c r="I96" s="29"/>
       <c r="J96" s="21" t="s">
         <v>536</v>
       </c>
       <c r="K96" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="M96" s="25"/>
+      <c r="M96" s="29"/>
       <c r="N96" s="21" t="s">
         <v>494</v>
       </c>
@@ -9979,7 +9815,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="29" t="s">
         <v>362</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -9988,7 +9824,7 @@
       <c r="C97" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="30" t="s">
         <v>725</v>
       </c>
       <c r="F97" s="21" t="s">
@@ -9997,7 +9833,7 @@
       <c r="G97" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="I97" s="25" t="s">
+      <c r="I97" s="29" t="s">
         <v>226</v>
       </c>
       <c r="J97" s="21" t="s">
@@ -10006,7 +9842,7 @@
       <c r="K97" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="M97" s="25" t="s">
+      <c r="M97" s="29" t="s">
         <v>496</v>
       </c>
       <c r="N97" s="21" t="s">
@@ -10017,28 +9853,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E98" s="25"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="21" t="s">
         <v>728</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I98" s="25"/>
+      <c r="I98" s="29"/>
       <c r="J98" s="21" t="s">
         <v>229</v>
       </c>
       <c r="K98" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M98" s="25"/>
+      <c r="M98" s="29"/>
       <c r="N98" s="21" t="s">
         <v>499</v>
       </c>
@@ -10047,28 +9883,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="E99" s="25"/>
+      <c r="E99" s="30"/>
       <c r="F99" s="21" t="s">
         <v>729</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="I99" s="25"/>
+      <c r="I99" s="29"/>
       <c r="J99" s="21" t="s">
         <v>230</v>
       </c>
       <c r="K99" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="M99" s="25"/>
+      <c r="M99" s="29"/>
       <c r="N99" s="21" t="s">
         <v>500</v>
       </c>
@@ -10077,28 +9913,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="25"/>
+      <c r="E100" s="30"/>
       <c r="F100" s="21" t="s">
         <v>731</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I100" s="25"/>
+      <c r="I100" s="29"/>
       <c r="J100" s="21" t="s">
         <v>232</v>
       </c>
       <c r="K100" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M100" s="25"/>
+      <c r="M100" s="29"/>
       <c r="N100" s="21" t="s">
         <v>501</v>
       </c>
@@ -10107,7 +9943,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="29" t="s">
         <v>276</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -10116,7 +9952,7 @@
       <c r="C101" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E101" s="25" t="s">
+      <c r="E101" s="29" t="s">
         <v>625</v>
       </c>
       <c r="F101" s="21" t="s">
@@ -10125,7 +9961,7 @@
       <c r="G101" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I101" s="25" t="s">
+      <c r="I101" s="29" t="s">
         <v>140</v>
       </c>
       <c r="J101" s="21" t="s">
@@ -10134,7 +9970,7 @@
       <c r="K101" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M101" s="25" t="s">
+      <c r="M101" s="29" t="s">
         <v>515</v>
       </c>
       <c r="N101" s="21" t="s">
@@ -10145,28 +9981,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E102" s="25"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="21" t="s">
         <v>628</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I102" s="25"/>
+      <c r="I102" s="29"/>
       <c r="J102" s="21" t="s">
         <v>142</v>
       </c>
       <c r="K102" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M102" s="25"/>
+      <c r="M102" s="29"/>
       <c r="N102" s="21" t="s">
         <v>410</v>
       </c>
@@ -10175,28 +10011,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E103" s="25"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="21" t="s">
         <v>629</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I103" s="25"/>
+      <c r="I103" s="29"/>
       <c r="J103" s="21" t="s">
         <v>143</v>
       </c>
       <c r="K103" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M103" s="25"/>
+      <c r="M103" s="29"/>
       <c r="N103" s="21" t="s">
         <v>412</v>
       </c>
@@ -10205,28 +10041,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E104" s="25"/>
+      <c r="E104" s="29"/>
       <c r="F104" s="21" t="s">
         <v>630</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I104" s="25"/>
+      <c r="I104" s="29"/>
       <c r="J104" s="21" t="s">
         <v>144</v>
       </c>
       <c r="K104" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M104" s="25"/>
+      <c r="M104" s="29"/>
       <c r="N104" s="21" t="s">
         <v>416</v>
       </c>
@@ -10235,28 +10071,28 @@
       </c>
     </row>
     <row r="105" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E105" s="25"/>
+      <c r="E105" s="29"/>
       <c r="F105" s="21" t="s">
         <v>631</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I105" s="25"/>
+      <c r="I105" s="29"/>
       <c r="J105" s="21" t="s">
         <v>145</v>
       </c>
       <c r="K105" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="M105" s="25"/>
+      <c r="M105" s="29"/>
       <c r="N105" s="21" t="s">
         <v>417</v>
       </c>
@@ -10265,28 +10101,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E106" s="25"/>
+      <c r="E106" s="29"/>
       <c r="F106" s="21" t="s">
         <v>632</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="I106" s="25"/>
+      <c r="I106" s="29"/>
       <c r="J106" s="21" t="s">
         <v>147</v>
       </c>
       <c r="K106" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M106" s="25"/>
+      <c r="M106" s="29"/>
       <c r="N106" s="21" t="s">
         <v>419</v>
       </c>
@@ -10295,29 +10131,29 @@
       </c>
     </row>
     <row r="107" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26" t="s">
+      <c r="A107" s="29"/>
+      <c r="B107" s="30" t="s">
         <v>285</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25" t="s">
+      <c r="E107" s="29"/>
+      <c r="F107" s="29" t="s">
         <v>634</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25" t="s">
+      <c r="I107" s="29"/>
+      <c r="J107" s="29" t="s">
         <v>149</v>
       </c>
       <c r="K107" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M107" s="25"/>
-      <c r="N107" s="25" t="s">
+      <c r="M107" s="29"/>
+      <c r="N107" s="29" t="s">
         <v>413</v>
       </c>
       <c r="O107" s="21" t="s">
@@ -10325,55 +10161,51 @@
       </c>
     </row>
     <row r="108" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
       <c r="G108" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
       <c r="K108" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="M108" s="25"/>
-      <c r="N108" s="25"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
       <c r="O108" s="21" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="26"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
       <c r="G109" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
       <c r="K109" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="M109" s="25"/>
-      <c r="N109" s="25"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
       <c r="O109" s="21" t="s">
         <v>513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -10416,6 +10248,10 @@
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="J22:J24"/>
     <mergeCell ref="N22:N24"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="N41:N42"/>
     <mergeCell ref="A45:A55"/>
     <mergeCell ref="E45:E55"/>
@@ -10529,4 +10365,1013 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C109"/>
+  <sheetViews>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="30"/>
+      <c r="B69" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="30"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="30"/>
+      <c r="B73" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="30"/>
+      <c r="B75" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
+      <c r="B76" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="30"/>
+      <c r="B77" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="30"/>
+      <c r="B84" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+      <c r="B88" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="30"/>
+      <c r="B90" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+      <c r="B91" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="30"/>
+      <c r="B92" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="B93" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="30"/>
+      <c r="B94" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="30"/>
+      <c r="B95" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="30"/>
+      <c r="B96" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="30"/>
+      <c r="B98" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="30"/>
+      <c r="B99" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
+      <c r="B100" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="29"/>
+      <c r="B102" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="29"/>
+      <c r="B103" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A14:A36"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
+++ b/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="761">
   <si>
     <t>Work Type</t>
   </si>
@@ -2660,7 +2661,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
@@ -2728,6 +2729,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2737,13 +2741,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2760,6 +2764,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3072,8 +3090,8 @@
   </sheetPr>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C52" sqref="A44:XFD52"/>
+    <sheetView topLeftCell="J72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76:N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3161,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -3152,28 +3170,28 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="35" t="s">
         <v>579</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="35" t="s">
         <v>100</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="35" t="s">
         <v>370</v>
       </c>
       <c r="O3" s="14" t="s">
@@ -3181,92 +3199,92 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="34"/>
       <c r="C4" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="34"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="34"/>
       <c r="C6" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="17"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="17" t="s">
         <v>583</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="13" t="s">
         <v>104</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="29"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="14" t="s">
         <v>375</v>
       </c>
@@ -3275,29 +3293,29 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="30" t="s">
         <v>585</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="36"/>
+      <c r="J8" s="30" t="s">
         <v>106</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29" t="s">
+      <c r="M8" s="30"/>
+      <c r="N8" s="30" t="s">
         <v>377</v>
       </c>
       <c r="O8" s="14" t="s">
@@ -3305,50 +3323,50 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="14" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="17" t="s">
         <v>587</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="13" t="s">
         <v>108</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="29"/>
+      <c r="M10" s="30"/>
       <c r="N10" s="14" t="s">
         <v>379</v>
       </c>
@@ -3357,29 +3375,29 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31" t="s">
         <v>237</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="30" t="s">
         <v>589</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="29" t="s">
+      <c r="I11" s="36"/>
+      <c r="J11" s="30" t="s">
         <v>110</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29" t="s">
+      <c r="M11" s="30"/>
+      <c r="N11" s="30" t="s">
         <v>381</v>
       </c>
       <c r="O11" s="14" t="s">
@@ -3387,73 +3405,73 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="31" t="s">
         <v>240</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="30" t="s">
         <v>592</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="29" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="30" t="s">
         <v>113</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
         <v>384</v>
       </c>
       <c r="O14" s="14" t="s">
@@ -3461,94 +3479,94 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="29"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="29"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="17" t="s">
         <v>597</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="13" t="s">
         <v>116</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="14" t="s">
         <v>387</v>
       </c>
@@ -3557,28 +3575,28 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="17" t="s">
         <v>599</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="13" t="s">
         <v>118</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="29"/>
+      <c r="M19" s="30"/>
       <c r="N19" s="18" t="s">
         <v>548</v>
       </c>
@@ -3587,28 +3605,28 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="17" t="s">
         <v>600</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="13" t="s">
         <v>119</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="29"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="18" t="s">
         <v>549</v>
       </c>
@@ -3617,28 +3635,28 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="17" t="s">
         <v>601</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="29"/>
+      <c r="M21" s="30"/>
       <c r="N21" s="14" t="s">
         <v>389</v>
       </c>
@@ -3647,28 +3665,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="17" t="s">
         <v>602</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="13" t="s">
         <v>122</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="M22" s="29"/>
+      <c r="M22" s="30"/>
       <c r="N22" s="18" t="s">
         <v>550</v>
       </c>
@@ -3677,28 +3695,28 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="17" t="s">
         <v>604</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="13" t="s">
         <v>123</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="29"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="14" t="s">
         <v>392</v>
       </c>
@@ -3707,29 +3725,29 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="31" t="s">
         <v>503</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="30" t="s">
         <v>605</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="29" t="s">
+      <c r="I24" s="36"/>
+      <c r="J24" s="30" t="s">
         <v>504</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29" t="s">
+      <c r="M24" s="30"/>
+      <c r="N24" s="30" t="s">
         <v>394</v>
       </c>
       <c r="O24" s="14" t="s">
@@ -3737,59 +3755,59 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="29"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="29"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>255</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="30" t="s">
         <v>607</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="30" t="s">
         <v>258</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="N26" s="31" t="s">
+      <c r="N26" s="32" t="s">
         <v>551</v>
       </c>
       <c r="O26" s="14" t="s">
@@ -3797,51 +3815,51 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="31"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="32"/>
       <c r="O27" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="30" t="s">
         <v>608</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29" t="s">
+      <c r="I28" s="30"/>
+      <c r="J28" s="30" t="s">
         <v>257</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29" t="s">
+      <c r="M28" s="30"/>
+      <c r="N28" s="30" t="s">
         <v>505</v>
       </c>
       <c r="O28" s="14" t="s">
@@ -3849,51 +3867,51 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30" t="s">
         <v>253</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="30" t="s">
         <v>609</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29" t="s">
+      <c r="I30" s="30"/>
+      <c r="J30" s="30" t="s">
         <v>256</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29" t="s">
+      <c r="M30" s="30"/>
+      <c r="N30" s="30" t="s">
         <v>396</v>
       </c>
       <c r="O30" s="14" t="s">
@@ -3901,51 +3919,51 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="29" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30" t="s">
         <v>259</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>610</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I32" s="29"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29" t="s">
+      <c r="M32" s="30"/>
+      <c r="N32" s="30" t="s">
         <v>397</v>
       </c>
       <c r="O32" s="14" t="s">
@@ -3953,53 +3971,53 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I33" s="29"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="29" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="30" t="s">
         <v>260</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
         <v>611</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I34" s="29"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29" t="s">
+      <c r="M34" s="30"/>
+      <c r="N34" s="30" t="s">
         <v>398</v>
       </c>
       <c r="O34" s="14" t="s">
@@ -4007,31 +4025,31 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I35" s="29"/>
+      <c r="I35" s="30"/>
       <c r="J35" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>261</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -4040,7 +4058,7 @@
       <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="30" t="s">
         <v>612</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -4049,7 +4067,7 @@
       <c r="G36" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="30" t="s">
         <v>128</v>
       </c>
       <c r="J36" s="13" t="s">
@@ -4058,7 +4076,7 @@
       <c r="K36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M36" s="29" t="s">
+      <c r="M36" s="30" t="s">
         <v>399</v>
       </c>
       <c r="N36" s="14" t="s">
@@ -4069,28 +4087,28 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="29"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="17" t="s">
         <v>614</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="I37" s="29"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="13" t="s">
         <v>131</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="29"/>
+      <c r="M37" s="30"/>
       <c r="N37" s="14" t="s">
         <v>401</v>
       </c>
@@ -4099,28 +4117,28 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="17" t="s">
         <v>616</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I38" s="29"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M38" s="29"/>
+      <c r="M38" s="30"/>
       <c r="N38" s="14" t="s">
         <v>403</v>
       </c>
@@ -4129,28 +4147,28 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="17" t="s">
         <v>617</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="I39" s="29"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="29"/>
+      <c r="M39" s="30"/>
       <c r="N39" s="14" t="s">
         <v>405</v>
       </c>
@@ -4159,29 +4177,29 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31" t="s">
         <v>268</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="30" t="s">
         <v>619</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29" t="s">
+      <c r="I40" s="30"/>
+      <c r="J40" s="30" t="s">
         <v>137</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29" t="s">
+      <c r="M40" s="30"/>
+      <c r="N40" s="30" t="s">
         <v>507</v>
       </c>
       <c r="O40" s="14" t="s">
@@ -4189,50 +4207,50 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
       <c r="O41" s="4" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="17" t="s">
         <v>622</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I42" s="29"/>
+      <c r="I42" s="30"/>
       <c r="J42" s="13" t="s">
         <v>138</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="29"/>
+      <c r="M42" s="30"/>
       <c r="N42" s="14" t="s">
         <v>407</v>
       </c>
@@ -4241,28 +4259,28 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="17" t="s">
         <v>623</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="I43" s="29"/>
+      <c r="I43" s="30"/>
       <c r="J43" s="13" t="s">
         <v>509</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M43" s="29"/>
+      <c r="M43" s="30"/>
       <c r="N43" s="14" t="s">
         <v>408</v>
       </c>
@@ -4271,7 +4289,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="30" t="s">
         <v>276</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -4280,7 +4298,7 @@
       <c r="C44" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="30" t="s">
         <v>625</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -4289,7 +4307,7 @@
       <c r="G44" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I44" s="29" t="s">
+      <c r="I44" s="30" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="13" t="s">
@@ -4298,7 +4316,7 @@
       <c r="K44" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="M44" s="30" t="s">
         <v>515</v>
       </c>
       <c r="N44" s="14" t="s">
@@ -4309,28 +4327,28 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E45" s="29"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="17" t="s">
         <v>628</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="13" t="s">
         <v>142</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M45" s="29"/>
+      <c r="M45" s="30"/>
       <c r="N45" s="14" t="s">
         <v>410</v>
       </c>
@@ -4339,28 +4357,28 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="17" t="s">
         <v>629</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I46" s="29"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="13" t="s">
         <v>143</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M46" s="29"/>
+      <c r="M46" s="30"/>
       <c r="N46" s="14" t="s">
         <v>412</v>
       </c>
@@ -4369,28 +4387,28 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E47" s="29"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="17" t="s">
         <v>630</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I47" s="29"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="13" t="s">
         <v>144</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="29"/>
+      <c r="M47" s="30"/>
       <c r="N47" s="14" t="s">
         <v>416</v>
       </c>
@@ -4401,28 +4419,28 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="17" t="s">
         <v>631</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I48" s="29"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="13" t="s">
         <v>145</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M48" s="29"/>
+      <c r="M48" s="30"/>
       <c r="N48" s="14" t="s">
         <v>417</v>
       </c>
@@ -4433,28 +4451,28 @@
       <c r="Q48" s="14"/>
     </row>
     <row r="49" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="17" t="s">
         <v>632</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="I49" s="29"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="13" t="s">
         <v>147</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M49" s="29"/>
+      <c r="M49" s="30"/>
       <c r="N49" s="14" t="s">
         <v>419</v>
       </c>
@@ -4465,29 +4483,29 @@
       <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31" t="s">
         <v>285</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="30" t="s">
         <v>634</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29" t="s">
+      <c r="I50" s="30"/>
+      <c r="J50" s="30" t="s">
         <v>149</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29" t="s">
+      <c r="M50" s="30"/>
+      <c r="N50" s="30" t="s">
         <v>413</v>
       </c>
       <c r="O50" s="14" t="s">
@@ -4497,51 +4515,51 @@
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="14" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
       <c r="O52" s="14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="31" t="s">
         <v>288</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -4550,7 +4568,7 @@
       <c r="C53" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="30" t="s">
         <v>637</v>
       </c>
       <c r="F53" s="17" t="s">
@@ -4559,7 +4577,7 @@
       <c r="G53" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="30" t="s">
         <v>150</v>
       </c>
       <c r="J53" s="13" t="s">
@@ -4568,7 +4586,7 @@
       <c r="K53" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="M53" s="29" t="s">
+      <c r="M53" s="30" t="s">
         <v>421</v>
       </c>
       <c r="N53" s="18" t="s">
@@ -4579,29 +4597,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31" t="s">
         <v>292</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29" t="s">
+      <c r="E54" s="30"/>
+      <c r="F54" s="30" t="s">
         <v>640</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29" t="s">
+      <c r="I54" s="30"/>
+      <c r="J54" s="30" t="s">
         <v>153</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29" t="s">
+      <c r="M54" s="30"/>
+      <c r="N54" s="30" t="s">
         <v>423</v>
       </c>
       <c r="O54" s="14" t="s">
@@ -4609,51 +4627,51 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
       <c r="K55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
       <c r="O55" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31" t="s">
         <v>294</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29" t="s">
+      <c r="E56" s="30"/>
+      <c r="F56" s="30" t="s">
         <v>643</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29" t="s">
+      <c r="I56" s="30"/>
+      <c r="J56" s="30" t="s">
         <v>155</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29" t="s">
+      <c r="M56" s="30"/>
+      <c r="N56" s="30" t="s">
         <v>425</v>
       </c>
       <c r="O56" s="18" t="s">
@@ -4661,51 +4679,51 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
       <c r="G57" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
       <c r="O57" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31" t="s">
         <v>295</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29" t="s">
+      <c r="E58" s="30"/>
+      <c r="F58" s="30" t="s">
         <v>645</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29" t="s">
+      <c r="I58" s="30"/>
+      <c r="J58" s="30" t="s">
         <v>157</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29" t="s">
+      <c r="M58" s="30"/>
+      <c r="N58" s="30" t="s">
         <v>426</v>
       </c>
       <c r="O58" s="14" t="s">
@@ -4713,50 +4731,50 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
       <c r="K59" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
       <c r="O59" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="29"/>
+      <c r="E60" s="30"/>
       <c r="F60" s="17" t="s">
         <v>647</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="I60" s="29"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="13" t="s">
         <v>159</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M60" s="29"/>
+      <c r="M60" s="30"/>
       <c r="N60" s="14" t="s">
         <v>428</v>
       </c>
@@ -4765,29 +4783,29 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30" t="s">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31" t="s">
         <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29" t="s">
+      <c r="E61" s="30"/>
+      <c r="F61" s="30" t="s">
         <v>649</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="30" t="s">
         <v>161</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29" t="s">
+      <c r="M61" s="30"/>
+      <c r="N61" s="30" t="s">
         <v>430</v>
       </c>
       <c r="O61" s="14" t="s">
@@ -4795,36 +4813,36 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
       <c r="K62" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
       <c r="O62" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="23" t="s">
         <v>517</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="29"/>
+      <c r="E63" s="30"/>
       <c r="F63" s="17" t="s">
         <v>651</v>
       </c>
@@ -4837,7 +4855,7 @@
       <c r="K63" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="M63" s="29"/>
+      <c r="M63" s="30"/>
       <c r="N63" s="18" t="s">
         <v>565</v>
       </c>
@@ -4846,37 +4864,37 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="31" t="s">
         <v>301</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="30" t="s">
         <v>653</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="J64" s="30" t="s">
         <v>164</v>
       </c>
       <c r="K64" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M64" s="31" t="s">
+      <c r="M64" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="N64" s="29" t="s">
+      <c r="N64" s="30" t="s">
         <v>433</v>
       </c>
       <c r="O64" s="14" t="s">
@@ -4884,51 +4902,51 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
       <c r="K65" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M65" s="31"/>
-      <c r="N65" s="29"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="30"/>
       <c r="O65" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="30" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="31" t="s">
         <v>303</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29" t="s">
+      <c r="E66" s="30"/>
+      <c r="F66" s="30" t="s">
         <v>655</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29" t="s">
+      <c r="I66" s="30"/>
+      <c r="J66" s="30" t="s">
         <v>165</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M66" s="31"/>
-      <c r="N66" s="29" t="s">
+      <c r="M66" s="32"/>
+      <c r="N66" s="30" t="s">
         <v>434</v>
       </c>
       <c r="O66" s="14" t="s">
@@ -4936,50 +4954,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
       <c r="G67" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
       <c r="K67" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M67" s="31"/>
-      <c r="N67" s="29"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="30"/>
       <c r="O67" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="29"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="17" t="s">
         <v>656</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="29"/>
+      <c r="I68" s="30"/>
       <c r="J68" s="13" t="s">
         <v>166</v>
       </c>
       <c r="K68" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="M68" s="31"/>
+      <c r="M68" s="32"/>
       <c r="N68" s="14" t="s">
         <v>435</v>
       </c>
@@ -4988,37 +5006,37 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="31" t="s">
         <v>306</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="30" t="s">
         <v>658</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="I69" s="29" t="s">
+      <c r="I69" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J69" s="29" t="s">
+      <c r="J69" s="30" t="s">
         <v>169</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="M69" s="29" t="s">
+      <c r="M69" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="N69" s="29" t="s">
+      <c r="N69" s="30" t="s">
         <v>437</v>
       </c>
       <c r="O69" s="14" t="s">
@@ -5026,119 +5044,119 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
       <c r="K70" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
       <c r="O70" s="14" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+    <row r="71" spans="1:15" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="31" t="s">
         <v>661</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="29" t="s">
+      <c r="I71" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="J71" s="29" t="s">
+      <c r="J71" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="K71" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="M71" s="29" t="s">
+      <c r="M71" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="N71" s="29" t="s">
+      <c r="N71" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="O71" s="14" t="s">
+      <c r="O71" s="29" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="4" t="s">
+    <row r="72" spans="1:15" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="17" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="13" t="s">
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="14" t="s">
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="29" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="31" t="s">
         <v>311</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="30" t="s">
         <v>665</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="30" t="s">
         <v>176</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="29" t="s">
+      <c r="M73" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="N73" s="29" t="s">
+      <c r="N73" s="30" t="s">
         <v>446</v>
       </c>
       <c r="O73" s="14" t="s">
@@ -5146,50 +5164,50 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
       <c r="G74" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
       <c r="K74" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
       <c r="O74" s="18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="29"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="17" t="s">
         <v>668</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="29"/>
+      <c r="I75" s="30"/>
       <c r="J75" s="13" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="M75" s="29"/>
+      <c r="M75" s="30"/>
       <c r="N75" s="14" t="s">
         <v>447</v>
       </c>
@@ -5198,29 +5216,29 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="31" t="s">
         <v>314</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29" t="s">
+      <c r="E76" s="30"/>
+      <c r="F76" s="30" t="s">
         <v>669</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29" t="s">
+      <c r="I76" s="30"/>
+      <c r="J76" s="30" t="s">
         <v>180</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29" t="s">
+      <c r="M76" s="30"/>
+      <c r="N76" s="30" t="s">
         <v>448</v>
       </c>
       <c r="O76" s="14" t="s">
@@ -5228,72 +5246,72 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="30"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
       <c r="G77" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
       <c r="K77" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
       <c r="O77" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
       <c r="G78" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
       <c r="K78" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
       <c r="O78" s="18" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E79" s="29"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="17" t="s">
         <v>673</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="I79" s="29"/>
+      <c r="I79" s="30"/>
       <c r="J79" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="M79" s="29"/>
+      <c r="M79" s="30"/>
       <c r="N79" s="18" t="s">
         <v>566</v>
       </c>
@@ -5302,28 +5320,28 @@
       </c>
     </row>
     <row r="80" spans="1:15" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="29"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="17" t="s">
         <v>675</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="I80" s="29"/>
+      <c r="I80" s="30"/>
       <c r="J80" s="14" t="s">
         <v>522</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="M80" s="29"/>
+      <c r="M80" s="30"/>
       <c r="N80" s="14" t="s">
         <v>519</v>
       </c>
@@ -5332,7 +5350,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="30" t="s">
         <v>322</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -5341,7 +5359,7 @@
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="30" t="s">
         <v>677</v>
       </c>
       <c r="F81" s="17" t="s">
@@ -5350,7 +5368,7 @@
       <c r="G81" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="I81" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -5359,7 +5377,7 @@
       <c r="K81" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="M81" s="29" t="s">
+      <c r="M81" s="30" t="s">
         <v>451</v>
       </c>
       <c r="N81" s="14" t="s">
@@ -5370,28 +5388,28 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E82" s="29"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="17" t="s">
         <v>679</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I82" s="29"/>
+      <c r="I82" s="30"/>
       <c r="J82" s="13" t="s">
         <v>188</v>
       </c>
       <c r="K82" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M82" s="29"/>
+      <c r="M82" s="30"/>
       <c r="N82" s="14" t="s">
         <v>453</v>
       </c>
@@ -5400,28 +5418,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E83" s="29"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="17" t="s">
         <v>680</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="I83" s="29"/>
+      <c r="I83" s="30"/>
       <c r="J83" s="13" t="s">
         <v>189</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M83" s="29"/>
+      <c r="M83" s="30"/>
       <c r="N83" s="14" t="s">
         <v>454</v>
       </c>
@@ -5430,28 +5448,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="E84" s="30"/>
       <c r="F84" s="17" t="s">
         <v>682</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="I84" s="29"/>
+      <c r="I84" s="30"/>
       <c r="J84" s="13" t="s">
         <v>191</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M84" s="29"/>
+      <c r="M84" s="30"/>
       <c r="N84" s="14" t="s">
         <v>456</v>
       </c>
@@ -5460,37 +5478,37 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="31" t="s">
         <v>331</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="30" t="s">
         <v>685</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="I85" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="J85" s="30" t="s">
         <v>194</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="M85" s="29" t="s">
+      <c r="M85" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="N85" s="29" t="s">
+      <c r="N85" s="30" t="s">
         <v>459</v>
       </c>
       <c r="O85" s="14" t="s">
@@ -5498,29 +5516,29 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
       <c r="G86" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
       <c r="K86" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
       <c r="O86" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="30" t="s">
         <v>334</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -5529,7 +5547,7 @@
       <c r="C87" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="30" t="s">
         <v>688</v>
       </c>
       <c r="F87" s="17" t="s">
@@ -5538,7 +5556,7 @@
       <c r="G87" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I87" s="29" t="s">
+      <c r="I87" s="30" t="s">
         <v>197</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -5547,7 +5565,7 @@
       <c r="K87" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M87" s="29" t="s">
+      <c r="M87" s="30" t="s">
         <v>462</v>
       </c>
       <c r="N87" s="14" t="s">
@@ -5558,28 +5576,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E88" s="29"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="17" t="s">
         <v>690</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="I88" s="29"/>
+      <c r="I88" s="30"/>
       <c r="J88" s="13" t="s">
         <v>199</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="M88" s="29"/>
+      <c r="M88" s="30"/>
       <c r="N88" s="14" t="s">
         <v>464</v>
       </c>
@@ -5626,7 +5644,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="30" t="s">
         <v>340</v>
       </c>
       <c r="B90" s="23" t="s">
@@ -5635,7 +5653,7 @@
       <c r="C90" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="30" t="s">
         <v>694</v>
       </c>
       <c r="F90" s="17" t="s">
@@ -5644,7 +5662,7 @@
       <c r="G90" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="I90" s="30" t="s">
         <v>203</v>
       </c>
       <c r="J90" s="13" t="s">
@@ -5653,7 +5671,7 @@
       <c r="K90" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="29" t="s">
+      <c r="M90" s="30" t="s">
         <v>468</v>
       </c>
       <c r="N90" s="14" t="s">
@@ -5664,28 +5682,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E91" s="29"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="17" t="s">
         <v>697</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="I91" s="29"/>
+      <c r="I91" s="30"/>
       <c r="J91" s="13" t="s">
         <v>205</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="M91" s="29"/>
+      <c r="M91" s="30"/>
       <c r="N91" s="14" t="s">
         <v>470</v>
       </c>
@@ -5694,28 +5712,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="E92" s="29"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="17" t="s">
         <v>699</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I92" s="29"/>
+      <c r="I92" s="30"/>
       <c r="J92" s="13" t="s">
         <v>207</v>
       </c>
       <c r="K92" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="M92" s="29"/>
+      <c r="M92" s="30"/>
       <c r="N92" s="14" t="s">
         <v>472</v>
       </c>
@@ -5724,7 +5742,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="30" t="s">
         <v>346</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -5733,7 +5751,7 @@
       <c r="C93" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="30" t="s">
         <v>700</v>
       </c>
       <c r="F93" s="17" t="s">
@@ -5742,7 +5760,7 @@
       <c r="G93" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="I93" s="29" t="s">
+      <c r="I93" s="30" t="s">
         <v>209</v>
       </c>
       <c r="J93" s="13" t="s">
@@ -5751,7 +5769,7 @@
       <c r="K93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="M93" s="29" t="s">
+      <c r="M93" s="30" t="s">
         <v>474</v>
       </c>
       <c r="N93" s="14" t="s">
@@ -5762,28 +5780,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E94" s="29"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="17" t="s">
         <v>703</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="I94" s="29"/>
+      <c r="I94" s="30"/>
       <c r="J94" s="13" t="s">
         <v>212</v>
       </c>
       <c r="K94" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="M94" s="29"/>
+      <c r="M94" s="30"/>
       <c r="N94" s="14" t="s">
         <v>476</v>
       </c>
@@ -5792,28 +5810,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="E95" s="29"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="17" t="s">
         <v>705</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="I95" s="29"/>
+      <c r="I95" s="30"/>
       <c r="J95" s="14" t="s">
         <v>529</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="M95" s="29"/>
+      <c r="M95" s="30"/>
       <c r="N95" s="14" t="s">
         <v>476</v>
       </c>
@@ -5822,28 +5840,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E96" s="29"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="17" t="s">
         <v>707</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I96" s="29"/>
+      <c r="I96" s="30"/>
       <c r="J96" s="13" t="s">
         <v>214</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M96" s="29"/>
+      <c r="M96" s="30"/>
       <c r="N96" s="14" t="s">
         <v>479</v>
       </c>
@@ -5852,7 +5870,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="30" t="s">
         <v>352</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -5861,7 +5879,7 @@
       <c r="C97" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="30" t="s">
         <v>708</v>
       </c>
       <c r="F97" s="17" t="s">
@@ -5870,7 +5888,7 @@
       <c r="G97" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="I97" s="29" t="s">
+      <c r="I97" s="30" t="s">
         <v>215</v>
       </c>
       <c r="J97" s="13" t="s">
@@ -5879,7 +5897,7 @@
       <c r="K97" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="M97" s="29" t="s">
+      <c r="M97" s="30" t="s">
         <v>481</v>
       </c>
       <c r="N97" s="14" t="s">
@@ -5890,28 +5908,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E98" s="29"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="17" t="s">
         <v>711</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="I98" s="29"/>
+      <c r="I98" s="30"/>
       <c r="J98" s="13" t="s">
         <v>218</v>
       </c>
       <c r="K98" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="M98" s="29"/>
+      <c r="M98" s="30"/>
       <c r="N98" s="14" t="s">
         <v>484</v>
       </c>
@@ -5920,28 +5938,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="E99" s="29"/>
+      <c r="E99" s="30"/>
       <c r="F99" s="17" t="s">
         <v>713</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="I99" s="29"/>
+      <c r="I99" s="30"/>
       <c r="J99" s="13" t="s">
         <v>220</v>
       </c>
       <c r="K99" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="M99" s="29"/>
+      <c r="M99" s="30"/>
       <c r="N99" s="14" t="s">
         <v>486</v>
       </c>
@@ -5950,28 +5968,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E100" s="29"/>
+      <c r="E100" s="30"/>
       <c r="F100" s="17" t="s">
         <v>715</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="I100" s="29"/>
+      <c r="I100" s="30"/>
       <c r="J100" s="13" t="s">
         <v>222</v>
       </c>
       <c r="K100" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="M100" s="29"/>
+      <c r="M100" s="30"/>
       <c r="N100" s="14" t="s">
         <v>487</v>
       </c>
@@ -5980,28 +5998,28 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="29"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E101" s="29"/>
+      <c r="E101" s="30"/>
       <c r="F101" s="17" t="s">
         <v>717</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="I101" s="29"/>
+      <c r="I101" s="30"/>
       <c r="J101" s="13" t="s">
         <v>224</v>
       </c>
       <c r="K101" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="M101" s="29"/>
+      <c r="M101" s="30"/>
       <c r="N101" s="14" t="s">
         <v>489</v>
       </c>
@@ -6010,28 +6028,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="E102" s="29"/>
+      <c r="E102" s="30"/>
       <c r="F102" s="17" t="s">
         <v>719</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="I102" s="29"/>
+      <c r="I102" s="30"/>
       <c r="J102" s="13" t="s">
         <v>233</v>
       </c>
       <c r="K102" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="M102" s="29"/>
+      <c r="M102" s="30"/>
       <c r="N102" s="14" t="s">
         <v>491</v>
       </c>
@@ -6040,28 +6058,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="E103" s="29"/>
+      <c r="E103" s="30"/>
       <c r="F103" s="17" t="s">
         <v>721</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="I103" s="29"/>
+      <c r="I103" s="30"/>
       <c r="J103" s="14" t="s">
         <v>530</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="M103" s="29"/>
+      <c r="M103" s="30"/>
       <c r="N103" s="14" t="s">
         <v>492</v>
       </c>
@@ -6070,28 +6088,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="29"/>
+      <c r="E104" s="30"/>
       <c r="F104" s="17" t="s">
         <v>723</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="I104" s="29"/>
+      <c r="I104" s="30"/>
       <c r="J104" s="14" t="s">
         <v>536</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="M104" s="29"/>
+      <c r="M104" s="30"/>
       <c r="N104" s="14" t="s">
         <v>494</v>
       </c>
@@ -6100,7 +6118,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="30" t="s">
         <v>362</v>
       </c>
       <c r="B105" s="23" t="s">
@@ -6109,7 +6127,7 @@
       <c r="C105" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="30" t="s">
         <v>725</v>
       </c>
       <c r="F105" s="17" t="s">
@@ -6118,7 +6136,7 @@
       <c r="G105" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="I105" s="30" t="s">
         <v>226</v>
       </c>
       <c r="J105" s="13" t="s">
@@ -6127,7 +6145,7 @@
       <c r="K105" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="M105" s="29" t="s">
+      <c r="M105" s="30" t="s">
         <v>496</v>
       </c>
       <c r="N105" s="14" t="s">
@@ -6138,28 +6156,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E106" s="29"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="17" t="s">
         <v>728</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I106" s="29"/>
+      <c r="I106" s="30"/>
       <c r="J106" s="13" t="s">
         <v>229</v>
       </c>
       <c r="K106" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M106" s="29"/>
+      <c r="M106" s="30"/>
       <c r="N106" s="14" t="s">
         <v>499</v>
       </c>
@@ -6168,28 +6186,28 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
+      <c r="A107" s="30"/>
       <c r="B107" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="E107" s="29"/>
+      <c r="E107" s="30"/>
       <c r="F107" s="17" t="s">
         <v>729</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="I107" s="29"/>
+      <c r="I107" s="30"/>
       <c r="J107" s="13" t="s">
         <v>230</v>
       </c>
       <c r="K107" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="M107" s="29"/>
+      <c r="M107" s="30"/>
       <c r="N107" s="14" t="s">
         <v>500</v>
       </c>
@@ -6198,28 +6216,28 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E108" s="29"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="17" t="s">
         <v>731</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I108" s="29"/>
+      <c r="I108" s="30"/>
       <c r="J108" s="13" t="s">
         <v>232</v>
       </c>
       <c r="K108" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M108" s="29"/>
+      <c r="M108" s="30"/>
       <c r="N108" s="14" t="s">
         <v>501</v>
       </c>
@@ -6237,34 +6255,108 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M90:M92"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="M97:M104"/>
+    <mergeCell ref="I97:I104"/>
+    <mergeCell ref="M81:M84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="E97:E104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M64:M68"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N76:N78"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="I73:I80"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="I81:I84"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="M53:M63"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M36:M43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="M44:M52"/>
+    <mergeCell ref="I44:I52"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="I53:I62"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M35"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="M3:M25"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="I26:I35"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="I3:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="J58:J59"/>
@@ -6289,108 +6381,34 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="I3:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M35"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="M3:M25"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="M53:M63"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="M36:M43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="M44:M52"/>
-    <mergeCell ref="I44:I52"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="I53:I62"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M64:M68"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="N76:N78"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="I73:I80"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="I81:I84"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M90:M92"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="M97:M104"/>
-    <mergeCell ref="I97:I104"/>
-    <mergeCell ref="M81:M84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="E97:E104"/>
-    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E90:E92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6405,8 +6423,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6819,7 +6837,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,13 +6854,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6892,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -6892,7 +6910,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="1" t="str">
         <f>Sheet2!F6</f>
         <v>Critical Danger</v>
@@ -6908,7 +6926,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="str">
         <f>Sheet2!F5</f>
         <v>Dangerous</v>
@@ -6924,7 +6942,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="1" t="str">
         <f>Sheet2!F4</f>
         <v>Slight Danger</v>
@@ -6936,7 +6954,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="1" t="str">
         <f>Sheet2!F3</f>
         <v>Safe</v>
@@ -7128,37 +7146,37 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>255</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>607</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>258</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="32" t="s">
         <v>551</v>
       </c>
       <c r="O4" s="21" t="s">
@@ -7166,51 +7184,51 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="30" t="s">
         <v>254</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="30" t="s">
         <v>608</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
         <v>257</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="30" t="s">
         <v>505</v>
       </c>
       <c r="O6" s="21" t="s">
@@ -7218,51 +7236,51 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="30" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="30" t="s">
         <v>609</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30" t="s">
         <v>256</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29" t="s">
+      <c r="M8" s="30"/>
+      <c r="N8" s="30" t="s">
         <v>396</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -7270,51 +7288,51 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="30" t="s">
         <v>610</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
         <v>397</v>
       </c>
       <c r="O10" s="21" t="s">
@@ -7322,53 +7340,53 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="30" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="30" t="s">
         <v>611</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29" t="s">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
         <v>398</v>
       </c>
       <c r="O12" s="21" t="s">
@@ -7376,31 +7394,31 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -7412,25 +7430,25 @@
       <c r="E14" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="35" t="s">
         <v>579</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="35" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="35" t="s">
         <v>370</v>
       </c>
       <c r="O14" s="21" t="s">
@@ -7438,71 +7456,71 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="34"/>
       <c r="C15" s="22" t="s">
         <v>544</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="34"/>
       <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="21" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="34"/>
       <c r="C17" s="21" t="s">
         <v>538</v>
       </c>
       <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="25"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="21" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
@@ -7516,14 +7534,14 @@
       <c r="G18" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="21" t="s">
         <v>104</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="21" t="s">
         <v>375</v>
       </c>
@@ -7532,29 +7550,29 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>234</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>585</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="29" t="s">
+      <c r="I19" s="36"/>
+      <c r="J19" s="30" t="s">
         <v>106</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29" t="s">
+      <c r="M19" s="30"/>
+      <c r="N19" s="30" t="s">
         <v>377</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -7562,29 +7580,29 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="29"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="21" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="23" t="s">
         <v>235</v>
       </c>
@@ -7598,14 +7616,14 @@
       <c r="G21" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="21" t="s">
         <v>108</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="29"/>
+      <c r="M21" s="30"/>
       <c r="N21" s="21" t="s">
         <v>379</v>
       </c>
@@ -7614,29 +7632,29 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31" t="s">
         <v>237</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>234</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>589</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="29" t="s">
+      <c r="I22" s="36"/>
+      <c r="J22" s="30" t="s">
         <v>110</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29" t="s">
+      <c r="M22" s="30"/>
+      <c r="N22" s="30" t="s">
         <v>381</v>
       </c>
       <c r="O22" s="21" t="s">
@@ -7644,73 +7662,73 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="21" t="s">
         <v>238</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="29"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="21" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="21" t="s">
         <v>239</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="29"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="31" t="s">
         <v>240</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="30" t="s">
         <v>592</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="29" t="s">
+      <c r="I25" s="36"/>
+      <c r="J25" s="30" t="s">
         <v>113</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29" t="s">
+      <c r="M25" s="30"/>
+      <c r="N25" s="30" t="s">
         <v>384</v>
       </c>
       <c r="O25" s="21" t="s">
@@ -7718,73 +7736,73 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="21" t="s">
         <v>243</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="29"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="21" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="21" t="s">
         <v>547</v>
       </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="29"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="29"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
       <c r="O27" s="21" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="21" t="s">
         <v>244</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="29"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
       <c r="O28" s="21" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="23" t="s">
         <v>245</v>
       </c>
@@ -7798,14 +7816,14 @@
       <c r="G29" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I29" s="35"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="21" t="s">
         <v>116</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="29"/>
+      <c r="M29" s="30"/>
       <c r="N29" s="21" t="s">
         <v>387</v>
       </c>
@@ -7814,7 +7832,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="23" t="s">
         <v>247</v>
       </c>
@@ -7828,14 +7846,14 @@
       <c r="G30" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="21" t="s">
         <v>118</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="29"/>
+      <c r="M30" s="30"/>
       <c r="N30" s="22" t="s">
         <v>548</v>
       </c>
@@ -7844,7 +7862,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="23" t="s">
         <v>248</v>
       </c>
@@ -7858,14 +7876,14 @@
       <c r="G31" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I31" s="35"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="21" t="s">
         <v>119</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="29"/>
+      <c r="M31" s="30"/>
       <c r="N31" s="22" t="s">
         <v>549</v>
       </c>
@@ -7874,7 +7892,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="23" t="s">
         <v>249</v>
       </c>
@@ -7888,14 +7906,14 @@
       <c r="G32" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="21" t="s">
         <v>120</v>
       </c>
       <c r="K32" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="M32" s="29"/>
+      <c r="M32" s="30"/>
       <c r="N32" s="21" t="s">
         <v>389</v>
       </c>
@@ -7904,7 +7922,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="21" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="23" t="s">
         <v>250</v>
       </c>
@@ -7918,14 +7936,14 @@
       <c r="G33" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="21" t="s">
         <v>122</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="M33" s="29"/>
+      <c r="M33" s="30"/>
       <c r="N33" s="22" t="s">
         <v>550</v>
       </c>
@@ -7934,7 +7952,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="23" t="s">
         <v>252</v>
       </c>
@@ -7948,14 +7966,14 @@
       <c r="G34" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="21" t="s">
         <v>123</v>
       </c>
       <c r="K34" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="29"/>
+      <c r="M34" s="30"/>
       <c r="N34" s="21" t="s">
         <v>392</v>
       </c>
@@ -7964,29 +7982,29 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="31" t="s">
         <v>503</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E35" s="34"/>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="30" t="s">
         <v>605</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="29" t="s">
+      <c r="I35" s="36"/>
+      <c r="J35" s="30" t="s">
         <v>504</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29" t="s">
+      <c r="M35" s="30"/>
+      <c r="N35" s="30" t="s">
         <v>394</v>
       </c>
       <c r="O35" s="21" t="s">
@@ -7994,29 +8012,29 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="21" t="s">
         <v>234</v>
       </c>
       <c r="E36" s="34"/>
-      <c r="F36" s="29"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="29"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
       <c r="O36" s="21" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="30" t="s">
         <v>261</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -8025,7 +8043,7 @@
       <c r="C37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="31" t="s">
         <v>612</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -8034,7 +8052,7 @@
       <c r="G37" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="30" t="s">
         <v>128</v>
       </c>
       <c r="J37" s="21" t="s">
@@ -8043,7 +8061,7 @@
       <c r="K37" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="30" t="s">
         <v>399</v>
       </c>
       <c r="N37" s="21" t="s">
@@ -8054,28 +8072,28 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="21" t="s">
         <v>614</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="I38" s="29"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="21" t="s">
         <v>131</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="29"/>
+      <c r="M38" s="30"/>
       <c r="N38" s="21" t="s">
         <v>401</v>
       </c>
@@ -8084,28 +8102,28 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="21" t="s">
         <v>616</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I39" s="29"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M39" s="29"/>
+      <c r="M39" s="30"/>
       <c r="N39" s="21" t="s">
         <v>403</v>
       </c>
@@ -8114,28 +8132,28 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="21" t="s">
         <v>617</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="I40" s="29"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="21" t="s">
         <v>135</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="M40" s="29"/>
+      <c r="M40" s="30"/>
       <c r="N40" s="21" t="s">
         <v>405</v>
       </c>
@@ -8144,29 +8162,29 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31" t="s">
         <v>268</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="29" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="30" t="s">
         <v>619</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29" t="s">
+      <c r="I41" s="30"/>
+      <c r="J41" s="30" t="s">
         <v>137</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29" t="s">
+      <c r="M41" s="30"/>
+      <c r="N41" s="30" t="s">
         <v>507</v>
       </c>
       <c r="O41" s="21" t="s">
@@ -8174,50 +8192,50 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="29"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="21" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="21" t="s">
         <v>622</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I43" s="29"/>
+      <c r="I43" s="30"/>
       <c r="J43" s="21" t="s">
         <v>138</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="29"/>
+      <c r="M43" s="30"/>
       <c r="N43" s="21" t="s">
         <v>407</v>
       </c>
@@ -8226,28 +8244,28 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="30"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="21" t="s">
         <v>623</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="I44" s="29"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="21" t="s">
         <v>509</v>
       </c>
       <c r="K44" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M44" s="29"/>
+      <c r="M44" s="30"/>
       <c r="N44" s="21" t="s">
         <v>408</v>
       </c>
@@ -8256,7 +8274,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="31" t="s">
         <v>288</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -8265,7 +8283,7 @@
       <c r="C45" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="31" t="s">
         <v>637</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -8274,7 +8292,7 @@
       <c r="G45" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="30" t="s">
         <v>150</v>
       </c>
       <c r="J45" s="21" t="s">
@@ -8283,7 +8301,7 @@
       <c r="K45" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="30" t="s">
         <v>421</v>
       </c>
       <c r="N45" s="22" t="s">
@@ -8294,29 +8312,29 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31" t="s">
         <v>292</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="29" t="s">
+      <c r="E46" s="31"/>
+      <c r="F46" s="30" t="s">
         <v>640</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29" t="s">
+      <c r="I46" s="30"/>
+      <c r="J46" s="30" t="s">
         <v>153</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29" t="s">
+      <c r="M46" s="30"/>
+      <c r="N46" s="30" t="s">
         <v>423</v>
       </c>
       <c r="O46" s="21" t="s">
@@ -8324,51 +8342,51 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="29"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31" t="s">
         <v>294</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="29" t="s">
+      <c r="E48" s="31"/>
+      <c r="F48" s="30" t="s">
         <v>643</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29" t="s">
+      <c r="I48" s="30"/>
+      <c r="J48" s="30" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29" t="s">
+      <c r="M48" s="30"/>
+      <c r="N48" s="30" t="s">
         <v>425</v>
       </c>
       <c r="O48" s="22" t="s">
@@ -8376,51 +8394,51 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="29"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31" t="s">
         <v>295</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="29" t="s">
+      <c r="E50" s="31"/>
+      <c r="F50" s="30" t="s">
         <v>645</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29" t="s">
+      <c r="I50" s="30"/>
+      <c r="J50" s="30" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29" t="s">
+      <c r="M50" s="30"/>
+      <c r="N50" s="30" t="s">
         <v>426</v>
       </c>
       <c r="O50" s="21" t="s">
@@ -8428,50 +8446,50 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="29"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="30"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="21" t="s">
         <v>647</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="I52" s="29"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="K52" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="M52" s="29"/>
+      <c r="M52" s="30"/>
       <c r="N52" s="21" t="s">
         <v>428</v>
       </c>
@@ -8480,29 +8498,29 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31" t="s">
         <v>300</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="29" t="s">
+      <c r="E53" s="31"/>
+      <c r="F53" s="30" t="s">
         <v>649</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29" t="s">
+      <c r="I53" s="30"/>
+      <c r="J53" s="30" t="s">
         <v>161</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29" t="s">
+      <c r="M53" s="30"/>
+      <c r="N53" s="30" t="s">
         <v>430</v>
       </c>
       <c r="O53" s="21" t="s">
@@ -8510,36 +8528,36 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="29"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
       <c r="O54" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="21" t="s">
         <v>651</v>
       </c>
@@ -8552,7 +8570,7 @@
       <c r="K55" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="29"/>
+      <c r="M55" s="30"/>
       <c r="N55" s="22" t="s">
         <v>565</v>
       </c>
@@ -8599,37 +8617,37 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="31" t="s">
         <v>301</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="30" t="s">
         <v>653</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="J57" s="29" t="s">
+      <c r="J57" s="30" t="s">
         <v>164</v>
       </c>
       <c r="K57" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M57" s="31" t="s">
+      <c r="M57" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="N57" s="29" t="s">
+      <c r="N57" s="30" t="s">
         <v>433</v>
       </c>
       <c r="O57" s="21" t="s">
@@ -8637,51 +8655,51 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="29"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="30"/>
       <c r="G58" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M58" s="31"/>
-      <c r="N58" s="29"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="30"/>
       <c r="O58" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="30" t="s">
+      <c r="A59" s="32"/>
+      <c r="B59" s="31" t="s">
         <v>303</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="29" t="s">
+      <c r="E59" s="31"/>
+      <c r="F59" s="30" t="s">
         <v>655</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29" t="s">
+      <c r="I59" s="30"/>
+      <c r="J59" s="30" t="s">
         <v>165</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M59" s="31"/>
-      <c r="N59" s="29" t="s">
+      <c r="M59" s="32"/>
+      <c r="N59" s="30" t="s">
         <v>434</v>
       </c>
       <c r="O59" s="21" t="s">
@@ -8689,50 +8707,50 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="29"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
       <c r="K60" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M60" s="31"/>
-      <c r="N60" s="29"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="30"/>
       <c r="O60" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E61" s="30"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="21" t="s">
         <v>656</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I61" s="29"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="21" t="s">
         <v>166</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="M61" s="31"/>
+      <c r="M61" s="32"/>
       <c r="N61" s="21" t="s">
         <v>435</v>
       </c>
@@ -8741,37 +8759,37 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="31" t="s">
         <v>306</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="31" t="s">
         <v>657</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="30" t="s">
         <v>658</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J62" s="29" t="s">
+      <c r="J62" s="30" t="s">
         <v>169</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="M62" s="29" t="s">
+      <c r="M62" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="N62" s="29" t="s">
+      <c r="N62" s="30" t="s">
         <v>437</v>
       </c>
       <c r="O62" s="21" t="s">
@@ -8779,59 +8797,59 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="29"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
       <c r="K63" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
       <c r="O63" s="21" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="31" t="s">
         <v>309</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="31" t="s">
         <v>661</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="30" t="s">
         <v>662</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="J64" s="30" t="s">
         <v>173</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M64" s="29" t="s">
+      <c r="M64" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="N64" s="29" t="s">
+      <c r="N64" s="30" t="s">
         <v>442</v>
       </c>
       <c r="O64" s="21" t="s">
@@ -8839,59 +8857,59 @@
       </c>
     </row>
     <row r="65" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="29"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
       <c r="K65" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
       <c r="O65" s="21" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="31" t="s">
         <v>311</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="30" t="s">
         <v>665</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="I66" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J66" s="29" t="s">
+      <c r="J66" s="30" t="s">
         <v>176</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="M66" s="29" t="s">
+      <c r="M66" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="N66" s="29" t="s">
+      <c r="N66" s="30" t="s">
         <v>446</v>
       </c>
       <c r="O66" s="21" t="s">
@@ -8899,50 +8917,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="29"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="30"/>
       <c r="G67" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
       <c r="K67" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
       <c r="O67" s="22" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="30"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="21" t="s">
         <v>668</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="29"/>
+      <c r="I68" s="30"/>
       <c r="J68" s="21" t="s">
         <v>179</v>
       </c>
       <c r="K68" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="M68" s="29"/>
+      <c r="M68" s="30"/>
       <c r="N68" s="21" t="s">
         <v>447</v>
       </c>
@@ -8951,29 +8969,29 @@
       </c>
     </row>
     <row r="69" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="31" t="s">
         <v>314</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29" t="s">
+      <c r="E69" s="31"/>
+      <c r="F69" s="30" t="s">
         <v>669</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29" t="s">
+      <c r="I69" s="30"/>
+      <c r="J69" s="30" t="s">
         <v>180</v>
       </c>
       <c r="K69" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29" t="s">
+      <c r="M69" s="30"/>
+      <c r="N69" s="30" t="s">
         <v>448</v>
       </c>
       <c r="O69" s="21" t="s">
@@ -8981,72 +8999,72 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="29"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
       <c r="K70" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
       <c r="O70" s="21" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="29"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="30"/>
       <c r="G71" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
       <c r="K71" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
       <c r="O71" s="22" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E72" s="30"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="21" t="s">
         <v>673</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="I72" s="29"/>
+      <c r="I72" s="30"/>
       <c r="J72" s="21" t="s">
         <v>183</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="M72" s="29"/>
+      <c r="M72" s="30"/>
       <c r="N72" s="22" t="s">
         <v>566</v>
       </c>
@@ -9055,28 +9073,28 @@
       </c>
     </row>
     <row r="73" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="E73" s="30"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="21" t="s">
         <v>675</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="I73" s="29"/>
+      <c r="I73" s="30"/>
       <c r="J73" s="21" t="s">
         <v>522</v>
       </c>
       <c r="K73" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="M73" s="29"/>
+      <c r="M73" s="30"/>
       <c r="N73" s="21" t="s">
         <v>519</v>
       </c>
@@ -9085,7 +9103,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="30" t="s">
         <v>322</v>
       </c>
       <c r="B74" s="23" t="s">
@@ -9094,7 +9112,7 @@
       <c r="C74" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="31" t="s">
         <v>677</v>
       </c>
       <c r="F74" s="21" t="s">
@@ -9103,7 +9121,7 @@
       <c r="G74" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I74" s="29" t="s">
+      <c r="I74" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J74" s="21" t="s">
@@ -9112,7 +9130,7 @@
       <c r="K74" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="29" t="s">
+      <c r="M74" s="30" t="s">
         <v>451</v>
       </c>
       <c r="N74" s="21" t="s">
@@ -9123,28 +9141,28 @@
       </c>
     </row>
     <row r="75" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="30"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="21" t="s">
         <v>679</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="29"/>
+      <c r="I75" s="30"/>
       <c r="J75" s="21" t="s">
         <v>188</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M75" s="29"/>
+      <c r="M75" s="30"/>
       <c r="N75" s="21" t="s">
         <v>453</v>
       </c>
@@ -9153,28 +9171,28 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E76" s="30"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="21" t="s">
         <v>680</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="I76" s="29"/>
+      <c r="I76" s="30"/>
       <c r="J76" s="21" t="s">
         <v>189</v>
       </c>
       <c r="K76" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="M76" s="29"/>
+      <c r="M76" s="30"/>
       <c r="N76" s="21" t="s">
         <v>454</v>
       </c>
@@ -9183,28 +9201,28 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E77" s="30"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="21" t="s">
         <v>682</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="I77" s="29"/>
+      <c r="I77" s="30"/>
       <c r="J77" s="21" t="s">
         <v>191</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="M77" s="29"/>
+      <c r="M77" s="30"/>
       <c r="N77" s="21" t="s">
         <v>456</v>
       </c>
@@ -9213,37 +9231,37 @@
       </c>
     </row>
     <row r="78" spans="1:15" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="31" t="s">
         <v>331</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="30" t="s">
         <v>685</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="I78" s="29" t="s">
+      <c r="I78" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="J78" s="29" t="s">
+      <c r="J78" s="30" t="s">
         <v>194</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="M78" s="29" t="s">
+      <c r="M78" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="N78" s="29" t="s">
+      <c r="N78" s="30" t="s">
         <v>459</v>
       </c>
       <c r="O78" s="21" t="s">
@@ -9251,29 +9269,29 @@
       </c>
     </row>
     <row r="79" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="30"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="29"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="30"/>
       <c r="G79" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
       <c r="K79" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
       <c r="O79" s="21" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="30" t="s">
         <v>334</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -9282,7 +9300,7 @@
       <c r="C80" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E80" s="38" t="s">
+      <c r="E80" s="39" t="s">
         <v>688</v>
       </c>
       <c r="F80" s="21" t="s">
@@ -9291,7 +9309,7 @@
       <c r="G80" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I80" s="29" t="s">
+      <c r="I80" s="30" t="s">
         <v>197</v>
       </c>
       <c r="J80" s="21" t="s">
@@ -9300,7 +9318,7 @@
       <c r="K80" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M80" s="29" t="s">
+      <c r="M80" s="30" t="s">
         <v>462</v>
       </c>
       <c r="N80" s="21" t="s">
@@ -9311,28 +9329,28 @@
       </c>
     </row>
     <row r="81" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E81" s="38"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="21" t="s">
         <v>690</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="I81" s="29"/>
+      <c r="I81" s="30"/>
       <c r="J81" s="21" t="s">
         <v>199</v>
       </c>
       <c r="K81" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="M81" s="29"/>
+      <c r="M81" s="30"/>
       <c r="N81" s="21" t="s">
         <v>464</v>
       </c>
@@ -9341,7 +9359,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="30" t="s">
         <v>340</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -9350,7 +9368,7 @@
       <c r="C82" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="31" t="s">
         <v>694</v>
       </c>
       <c r="F82" s="21" t="s">
@@ -9359,7 +9377,7 @@
       <c r="G82" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I82" s="29" t="s">
+      <c r="I82" s="30" t="s">
         <v>203</v>
       </c>
       <c r="J82" s="21" t="s">
@@ -9368,7 +9386,7 @@
       <c r="K82" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="M82" s="29" t="s">
+      <c r="M82" s="30" t="s">
         <v>468</v>
       </c>
       <c r="N82" s="21" t="s">
@@ -9379,28 +9397,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E83" s="30"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="21" t="s">
         <v>697</v>
       </c>
       <c r="G83" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="I83" s="29"/>
+      <c r="I83" s="30"/>
       <c r="J83" s="21" t="s">
         <v>205</v>
       </c>
       <c r="K83" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="M83" s="29"/>
+      <c r="M83" s="30"/>
       <c r="N83" s="21" t="s">
         <v>470</v>
       </c>
@@ -9409,28 +9427,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="E84" s="30"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="21" t="s">
         <v>699</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I84" s="29"/>
+      <c r="I84" s="30"/>
       <c r="J84" s="21" t="s">
         <v>207</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M84" s="29"/>
+      <c r="M84" s="30"/>
       <c r="N84" s="21" t="s">
         <v>472</v>
       </c>
@@ -9439,7 +9457,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="30" t="s">
         <v>346</v>
       </c>
       <c r="B85" s="23" t="s">
@@ -9448,7 +9466,7 @@
       <c r="C85" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="31" t="s">
         <v>700</v>
       </c>
       <c r="F85" s="21" t="s">
@@ -9457,7 +9475,7 @@
       <c r="G85" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="I85" s="30" t="s">
         <v>209</v>
       </c>
       <c r="J85" s="21" t="s">
@@ -9466,7 +9484,7 @@
       <c r="K85" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M85" s="29" t="s">
+      <c r="M85" s="30" t="s">
         <v>474</v>
       </c>
       <c r="N85" s="21" t="s">
@@ -9477,28 +9495,28 @@
       </c>
     </row>
     <row r="86" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="E86" s="30"/>
+      <c r="E86" s="31"/>
       <c r="F86" s="21" t="s">
         <v>703</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="I86" s="29"/>
+      <c r="I86" s="30"/>
       <c r="J86" s="21" t="s">
         <v>212</v>
       </c>
       <c r="K86" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="M86" s="29"/>
+      <c r="M86" s="30"/>
       <c r="N86" s="21" t="s">
         <v>476</v>
       </c>
@@ -9507,28 +9525,28 @@
       </c>
     </row>
     <row r="87" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E87" s="30"/>
+      <c r="E87" s="31"/>
       <c r="F87" s="21" t="s">
         <v>705</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="I87" s="29"/>
+      <c r="I87" s="30"/>
       <c r="J87" s="21" t="s">
         <v>529</v>
       </c>
       <c r="K87" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="M87" s="29"/>
+      <c r="M87" s="30"/>
       <c r="N87" s="21" t="s">
         <v>476</v>
       </c>
@@ -9537,28 +9555,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E88" s="30"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="21" t="s">
         <v>707</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I88" s="29"/>
+      <c r="I88" s="30"/>
       <c r="J88" s="21" t="s">
         <v>214</v>
       </c>
       <c r="K88" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M88" s="29"/>
+      <c r="M88" s="30"/>
       <c r="N88" s="21" t="s">
         <v>479</v>
       </c>
@@ -9567,7 +9585,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="30" t="s">
         <v>352</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -9576,7 +9594,7 @@
       <c r="C89" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="31" t="s">
         <v>708</v>
       </c>
       <c r="F89" s="21" t="s">
@@ -9585,7 +9603,7 @@
       <c r="G89" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="I89" s="29" t="s">
+      <c r="I89" s="30" t="s">
         <v>215</v>
       </c>
       <c r="J89" s="21" t="s">
@@ -9594,7 +9612,7 @@
       <c r="K89" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="M89" s="29" t="s">
+      <c r="M89" s="30" t="s">
         <v>481</v>
       </c>
       <c r="N89" s="21" t="s">
@@ -9605,28 +9623,28 @@
       </c>
     </row>
     <row r="90" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E90" s="30"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="21" t="s">
         <v>711</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="I90" s="29"/>
+      <c r="I90" s="30"/>
       <c r="J90" s="21" t="s">
         <v>218</v>
       </c>
       <c r="K90" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="M90" s="29"/>
+      <c r="M90" s="30"/>
       <c r="N90" s="21" t="s">
         <v>484</v>
       </c>
@@ -9635,28 +9653,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="E91" s="30"/>
+      <c r="E91" s="31"/>
       <c r="F91" s="21" t="s">
         <v>713</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="I91" s="29"/>
+      <c r="I91" s="30"/>
       <c r="J91" s="21" t="s">
         <v>220</v>
       </c>
       <c r="K91" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="M91" s="29"/>
+      <c r="M91" s="30"/>
       <c r="N91" s="21" t="s">
         <v>486</v>
       </c>
@@ -9665,28 +9683,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E92" s="30"/>
+      <c r="E92" s="31"/>
       <c r="F92" s="21" t="s">
         <v>715</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="I92" s="29"/>
+      <c r="I92" s="30"/>
       <c r="J92" s="21" t="s">
         <v>222</v>
       </c>
       <c r="K92" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="M92" s="29"/>
+      <c r="M92" s="30"/>
       <c r="N92" s="21" t="s">
         <v>487</v>
       </c>
@@ -9695,28 +9713,28 @@
       </c>
     </row>
     <row r="93" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E93" s="30"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="21" t="s">
         <v>717</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="I93" s="29"/>
+      <c r="I93" s="30"/>
       <c r="J93" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K93" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="M93" s="29"/>
+      <c r="M93" s="30"/>
       <c r="N93" s="21" t="s">
         <v>489</v>
       </c>
@@ -9725,28 +9743,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="E94" s="30"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="21" t="s">
         <v>719</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="I94" s="29"/>
+      <c r="I94" s="30"/>
       <c r="J94" s="21" t="s">
         <v>233</v>
       </c>
       <c r="K94" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="M94" s="29"/>
+      <c r="M94" s="30"/>
       <c r="N94" s="21" t="s">
         <v>491</v>
       </c>
@@ -9755,28 +9773,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="E95" s="30"/>
+      <c r="E95" s="31"/>
       <c r="F95" s="21" t="s">
         <v>721</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="I95" s="29"/>
+      <c r="I95" s="30"/>
       <c r="J95" s="21" t="s">
         <v>530</v>
       </c>
       <c r="K95" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="M95" s="29"/>
+      <c r="M95" s="30"/>
       <c r="N95" s="21" t="s">
         <v>492</v>
       </c>
@@ -9785,28 +9803,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E96" s="30"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="21" t="s">
         <v>723</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="I96" s="29"/>
+      <c r="I96" s="30"/>
       <c r="J96" s="21" t="s">
         <v>536</v>
       </c>
       <c r="K96" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="M96" s="29"/>
+      <c r="M96" s="30"/>
       <c r="N96" s="21" t="s">
         <v>494</v>
       </c>
@@ -9815,7 +9833,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="30" t="s">
         <v>362</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -9824,7 +9842,7 @@
       <c r="C97" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="31" t="s">
         <v>725</v>
       </c>
       <c r="F97" s="21" t="s">
@@ -9833,7 +9851,7 @@
       <c r="G97" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="I97" s="29" t="s">
+      <c r="I97" s="30" t="s">
         <v>226</v>
       </c>
       <c r="J97" s="21" t="s">
@@ -9842,7 +9860,7 @@
       <c r="K97" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="M97" s="29" t="s">
+      <c r="M97" s="30" t="s">
         <v>496</v>
       </c>
       <c r="N97" s="21" t="s">
@@ -9853,28 +9871,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E98" s="30"/>
+      <c r="E98" s="31"/>
       <c r="F98" s="21" t="s">
         <v>728</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I98" s="29"/>
+      <c r="I98" s="30"/>
       <c r="J98" s="21" t="s">
         <v>229</v>
       </c>
       <c r="K98" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M98" s="29"/>
+      <c r="M98" s="30"/>
       <c r="N98" s="21" t="s">
         <v>499</v>
       </c>
@@ -9883,28 +9901,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="E99" s="30"/>
+      <c r="E99" s="31"/>
       <c r="F99" s="21" t="s">
         <v>729</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="I99" s="29"/>
+      <c r="I99" s="30"/>
       <c r="J99" s="21" t="s">
         <v>230</v>
       </c>
       <c r="K99" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="M99" s="29"/>
+      <c r="M99" s="30"/>
       <c r="N99" s="21" t="s">
         <v>500</v>
       </c>
@@ -9913,28 +9931,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="30"/>
+      <c r="E100" s="31"/>
       <c r="F100" s="21" t="s">
         <v>731</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I100" s="29"/>
+      <c r="I100" s="30"/>
       <c r="J100" s="21" t="s">
         <v>232</v>
       </c>
       <c r="K100" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M100" s="29"/>
+      <c r="M100" s="30"/>
       <c r="N100" s="21" t="s">
         <v>501</v>
       </c>
@@ -9943,7 +9961,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="30" t="s">
         <v>276</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -9952,7 +9970,7 @@
       <c r="C101" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="30" t="s">
         <v>625</v>
       </c>
       <c r="F101" s="21" t="s">
@@ -9961,7 +9979,7 @@
       <c r="G101" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I101" s="29" t="s">
+      <c r="I101" s="30" t="s">
         <v>140</v>
       </c>
       <c r="J101" s="21" t="s">
@@ -9970,7 +9988,7 @@
       <c r="K101" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M101" s="29" t="s">
+      <c r="M101" s="30" t="s">
         <v>515</v>
       </c>
       <c r="N101" s="21" t="s">
@@ -9981,28 +9999,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E102" s="29"/>
+      <c r="E102" s="30"/>
       <c r="F102" s="21" t="s">
         <v>628</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I102" s="29"/>
+      <c r="I102" s="30"/>
       <c r="J102" s="21" t="s">
         <v>142</v>
       </c>
       <c r="K102" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M102" s="29"/>
+      <c r="M102" s="30"/>
       <c r="N102" s="21" t="s">
         <v>410</v>
       </c>
@@ -10011,28 +10029,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E103" s="29"/>
+      <c r="E103" s="30"/>
       <c r="F103" s="21" t="s">
         <v>629</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I103" s="29"/>
+      <c r="I103" s="30"/>
       <c r="J103" s="21" t="s">
         <v>143</v>
       </c>
       <c r="K103" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M103" s="29"/>
+      <c r="M103" s="30"/>
       <c r="N103" s="21" t="s">
         <v>412</v>
       </c>
@@ -10041,28 +10059,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E104" s="29"/>
+      <c r="E104" s="30"/>
       <c r="F104" s="21" t="s">
         <v>630</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I104" s="29"/>
+      <c r="I104" s="30"/>
       <c r="J104" s="21" t="s">
         <v>144</v>
       </c>
       <c r="K104" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M104" s="29"/>
+      <c r="M104" s="30"/>
       <c r="N104" s="21" t="s">
         <v>416</v>
       </c>
@@ -10071,28 +10089,28 @@
       </c>
     </row>
     <row r="105" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E105" s="29"/>
+      <c r="E105" s="30"/>
       <c r="F105" s="21" t="s">
         <v>631</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I105" s="29"/>
+      <c r="I105" s="30"/>
       <c r="J105" s="21" t="s">
         <v>145</v>
       </c>
       <c r="K105" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="M105" s="29"/>
+      <c r="M105" s="30"/>
       <c r="N105" s="21" t="s">
         <v>417</v>
       </c>
@@ -10101,28 +10119,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E106" s="29"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="21" t="s">
         <v>632</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="I106" s="29"/>
+      <c r="I106" s="30"/>
       <c r="J106" s="21" t="s">
         <v>147</v>
       </c>
       <c r="K106" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M106" s="29"/>
+      <c r="M106" s="30"/>
       <c r="N106" s="21" t="s">
         <v>419</v>
       </c>
@@ -10131,29 +10149,29 @@
       </c>
     </row>
     <row r="107" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="30" t="s">
+      <c r="A107" s="30"/>
+      <c r="B107" s="31" t="s">
         <v>285</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29" t="s">
+      <c r="E107" s="30"/>
+      <c r="F107" s="30" t="s">
         <v>634</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29" t="s">
+      <c r="I107" s="30"/>
+      <c r="J107" s="30" t="s">
         <v>149</v>
       </c>
       <c r="K107" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29" t="s">
+      <c r="M107" s="30"/>
+      <c r="N107" s="30" t="s">
         <v>413</v>
       </c>
       <c r="O107" s="21" t="s">
@@ -10161,51 +10179,181 @@
       </c>
     </row>
     <row r="108" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="30"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
       <c r="K108" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="30"/>
       <c r="O108" s="21" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
       <c r="K109" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
       <c r="O109" s="21" t="s">
         <v>513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="N107:N109"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="I101:I109"/>
+    <mergeCell ref="M101:M109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="M89:M96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M66:M73"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="M57:M61"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="I45:I54"/>
+    <mergeCell ref="M45:M55"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="M37:M44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M14:M36"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="N22:N24"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -10230,136 +10378,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E13"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M14:M36"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="I45:I54"/>
-    <mergeCell ref="M45:M55"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="M37:M44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="M66:M73"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N107:N109"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="I101:I109"/>
-    <mergeCell ref="M101:M109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="I89:I96"/>
-    <mergeCell ref="M89:M96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="M97:M100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10402,10 +10420,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>551</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -10413,15 +10431,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="30" t="s">
         <v>505</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -10429,15 +10447,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="30" t="s">
         <v>396</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -10445,15 +10463,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30" t="s">
         <v>397</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -10461,15 +10479,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="30" t="s">
         <v>398</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -10477,8 +10495,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="26" t="s">
         <v>371</v>
       </c>
@@ -10487,7 +10505,7 @@
       <c r="A14" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="35" t="s">
         <v>370</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -10495,28 +10513,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="26" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="26" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="26" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="26" t="s">
         <v>375</v>
       </c>
@@ -10525,8 +10543,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="30" t="s">
         <v>377</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -10534,14 +10552,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="26" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="26" t="s">
         <v>379</v>
       </c>
@@ -10550,8 +10568,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="30" t="s">
         <v>381</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -10559,22 +10577,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="26" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="26" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="30" t="s">
         <v>384</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -10582,28 +10600,28 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="26" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="26" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="26" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="26" t="s">
         <v>387</v>
       </c>
@@ -10612,7 +10630,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="28" t="s">
         <v>548</v>
       </c>
@@ -10621,7 +10639,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="28" t="s">
         <v>549</v>
       </c>
@@ -10630,7 +10648,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="26" t="s">
         <v>389</v>
       </c>
@@ -10639,7 +10657,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="28" t="s">
         <v>550</v>
       </c>
@@ -10648,7 +10666,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="26" t="s">
         <v>392</v>
       </c>
@@ -10657,8 +10675,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="29" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="30" t="s">
         <v>394</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -10666,14 +10684,14 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="26" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>399</v>
       </c>
       <c r="B37" s="26" t="s">
@@ -10684,7 +10702,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="26" t="s">
         <v>401</v>
       </c>
@@ -10693,7 +10711,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="26" t="s">
         <v>403</v>
       </c>
@@ -10702,7 +10720,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="26" t="s">
         <v>405</v>
       </c>
@@ -10711,8 +10729,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="30" t="s">
         <v>507</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -10720,14 +10738,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="26" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="26" t="s">
         <v>407</v>
       </c>
@@ -10736,7 +10754,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="26" t="s">
         <v>408</v>
       </c>
@@ -10745,7 +10763,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="31" t="s">
         <v>421</v>
       </c>
       <c r="B45" s="28" t="s">
@@ -10756,8 +10774,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="30" t="s">
         <v>423</v>
       </c>
       <c r="C46" s="26" t="s">
@@ -10765,15 +10783,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="29" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -10781,15 +10799,15 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="30" t="s">
         <v>426</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -10797,14 +10815,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="26" t="s">
         <v>428</v>
       </c>
@@ -10813,8 +10831,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="29" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="30" t="s">
         <v>430</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -10822,14 +10840,14 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="28" t="s">
         <v>565</v>
       </c>
@@ -10849,10 +10867,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="30" t="s">
         <v>433</v>
       </c>
       <c r="C57" s="26" t="s">
@@ -10860,15 +10878,15 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="26" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="40"/>
+      <c r="B59" s="30" t="s">
         <v>434</v>
       </c>
       <c r="C59" s="26" t="s">
@@ -10876,14 +10894,14 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="26" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="26" t="s">
         <v>435</v>
       </c>
@@ -10892,10 +10910,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="30" t="s">
         <v>437</v>
       </c>
       <c r="C62" s="26" t="s">
@@ -10903,17 +10921,17 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="26" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="30" t="s">
         <v>442</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -10921,17 +10939,17 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="26" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="30" t="s">
         <v>446</v>
       </c>
       <c r="C66" s="26" t="s">
@@ -10939,14 +10957,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="28" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="26" t="s">
         <v>447</v>
       </c>
@@ -10955,8 +10973,8 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="29" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="30" t="s">
         <v>448</v>
       </c>
       <c r="C69" s="26" t="s">
@@ -10964,21 +10982,21 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="26" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="28" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="28" t="s">
         <v>566</v>
       </c>
@@ -10987,7 +11005,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="26" t="s">
         <v>519</v>
       </c>
@@ -10996,7 +11014,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="31" t="s">
         <v>451</v>
       </c>
       <c r="B74" s="26" t="s">
@@ -11007,7 +11025,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="26" t="s">
         <v>453</v>
       </c>
@@ -11016,7 +11034,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="26" t="s">
         <v>454</v>
       </c>
@@ -11025,7 +11043,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="26" t="s">
         <v>456</v>
       </c>
@@ -11034,10 +11052,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="30" t="s">
         <v>459</v>
       </c>
       <c r="C78" s="26" t="s">
@@ -11045,14 +11063,14 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="26" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="31" t="s">
         <v>462</v>
       </c>
       <c r="B80" s="26" t="s">
@@ -11063,7 +11081,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="26" t="s">
         <v>464</v>
       </c>
@@ -11072,7 +11090,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="31" t="s">
         <v>468</v>
       </c>
       <c r="B82" s="26" t="s">
@@ -11083,7 +11101,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="26" t="s">
         <v>470</v>
       </c>
@@ -11092,7 +11110,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="26" t="s">
         <v>472</v>
       </c>
@@ -11101,7 +11119,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="31" t="s">
         <v>474</v>
       </c>
       <c r="B85" s="26" t="s">
@@ -11112,7 +11130,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="26" t="s">
         <v>476</v>
       </c>
@@ -11121,7 +11139,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="26" t="s">
         <v>476</v>
       </c>
@@ -11130,7 +11148,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="26" t="s">
         <v>479</v>
       </c>
@@ -11139,7 +11157,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="31" t="s">
         <v>481</v>
       </c>
       <c r="B89" s="26" t="s">
@@ -11150,7 +11168,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="26" t="s">
         <v>484</v>
       </c>
@@ -11159,7 +11177,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="26" t="s">
         <v>486</v>
       </c>
@@ -11168,7 +11186,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="26" t="s">
         <v>487</v>
       </c>
@@ -11177,7 +11195,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="26" t="s">
         <v>489</v>
       </c>
@@ -11186,7 +11204,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="26" t="s">
         <v>491</v>
       </c>
@@ -11195,7 +11213,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="26" t="s">
         <v>492</v>
       </c>
@@ -11204,7 +11222,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="26" t="s">
         <v>494</v>
       </c>
@@ -11213,7 +11231,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="31" t="s">
         <v>496</v>
       </c>
       <c r="B97" s="26" t="s">
@@ -11224,7 +11242,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="26" t="s">
         <v>499</v>
       </c>
@@ -11233,7 +11251,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="26" t="s">
         <v>500</v>
       </c>
@@ -11242,7 +11260,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="26" t="s">
         <v>501</v>
       </c>
@@ -11251,7 +11269,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="30" t="s">
         <v>515</v>
       </c>
       <c r="B101" s="26" t="s">
@@ -11262,7 +11280,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="26" t="s">
         <v>410</v>
       </c>
@@ -11271,7 +11289,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="26" t="s">
         <v>412</v>
       </c>
@@ -11280,7 +11298,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="26" t="s">
         <v>416</v>
       </c>
@@ -11289,7 +11307,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="26" t="s">
         <v>417</v>
       </c>
@@ -11298,7 +11316,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="26" t="s">
         <v>419</v>
       </c>
@@ -11307,8 +11325,8 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29" t="s">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30" t="s">
         <v>413</v>
       </c>
       <c r="C107" s="26" t="s">
@@ -11316,34 +11334,33 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="26" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="26" t="s">
         <v>513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A36"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="A37:A44"/>
@@ -11358,20 +11375,261 @@
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A14:A36"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D104"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" style="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="45" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="45"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="45" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="43" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="45" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="45"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="45"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="45" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="45"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="45"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="45"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="45"/>
+    </row>
+    <row r="35" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="45"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="45"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="45"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="45"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="45"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="45" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="45"/>
+    </row>
+    <row r="43" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="45"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="45"/>
+    </row>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
+++ b/DBA(Digital barrier analysis)/Translation/Provided by client/Kopi_av_Default_lists_in_4_languages_Infratek_2017-11-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2732,6 +2732,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2741,13 +2755,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2764,20 +2778,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3090,8 +3090,8 @@
   </sheetPr>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="J72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76:N78"/>
+    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,37 +3161,37 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="39" t="s">
         <v>579</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="39" t="s">
         <v>100</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="39" t="s">
         <v>370</v>
       </c>
       <c r="O3" s="14" t="s">
@@ -3199,92 +3199,92 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
       <c r="O4" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="17"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="17" t="s">
         <v>583</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="13" t="s">
         <v>104</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="14" t="s">
         <v>375</v>
       </c>
@@ -3293,29 +3293,29 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="36" t="s">
         <v>585</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="30" t="s">
+      <c r="I8" s="42"/>
+      <c r="J8" s="36" t="s">
         <v>106</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30" t="s">
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
         <v>377</v>
       </c>
       <c r="O8" s="14" t="s">
@@ -3323,50 +3323,50 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="14" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="17" t="s">
         <v>587</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="13" t="s">
         <v>108</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="30"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="14" t="s">
         <v>379</v>
       </c>
@@ -3375,29 +3375,29 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="37" t="s">
         <v>237</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="36" t="s">
         <v>589</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="30" t="s">
+      <c r="I11" s="42"/>
+      <c r="J11" s="36" t="s">
         <v>110</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30" t="s">
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="s">
         <v>381</v>
       </c>
       <c r="O11" s="14" t="s">
@@ -3405,73 +3405,73 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="30"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="37" t="s">
         <v>240</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="36" t="s">
         <v>592</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="30" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="36" t="s">
         <v>113</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30" t="s">
+      <c r="M14" s="36"/>
+      <c r="N14" s="36" t="s">
         <v>384</v>
       </c>
       <c r="O14" s="14" t="s">
@@ -3479,94 +3479,94 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="30"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="30"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="30"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="17" t="s">
         <v>597</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="13" t="s">
         <v>116</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="14" t="s">
         <v>387</v>
       </c>
@@ -3575,28 +3575,28 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="17" t="s">
         <v>599</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="36"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="13" t="s">
         <v>118</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="30"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="18" t="s">
         <v>548</v>
       </c>
@@ -3605,28 +3605,28 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="17" t="s">
         <v>600</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I20" s="36"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="13" t="s">
         <v>119</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="30"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="18" t="s">
         <v>549</v>
       </c>
@@ -3635,28 +3635,28 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="17" t="s">
         <v>601</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="I21" s="36"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="14" t="s">
         <v>389</v>
       </c>
@@ -3665,28 +3665,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="17" t="s">
         <v>602</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I22" s="36"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="13" t="s">
         <v>122</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="M22" s="30"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="18" t="s">
         <v>550</v>
       </c>
@@ -3695,28 +3695,28 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="17" t="s">
         <v>604</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="I23" s="36"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="13" t="s">
         <v>123</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="30"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="14" t="s">
         <v>392</v>
       </c>
@@ -3725,29 +3725,29 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="37" t="s">
         <v>503</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="36" t="s">
         <v>605</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="30" t="s">
+      <c r="I24" s="42"/>
+      <c r="J24" s="36" t="s">
         <v>504</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30" t="s">
+      <c r="M24" s="36"/>
+      <c r="N24" s="36" t="s">
         <v>394</v>
       </c>
       <c r="O24" s="14" t="s">
@@ -3755,59 +3755,59 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="30"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="36" t="s">
         <v>607</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="36" t="s">
         <v>258</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="30" t="s">
+      <c r="M26" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="N26" s="32" t="s">
+      <c r="N26" s="38" t="s">
         <v>551</v>
       </c>
       <c r="O26" s="14" t="s">
@@ -3815,51 +3815,51 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="32"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="38"/>
       <c r="O27" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="36" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30" t="s">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36" t="s">
         <v>608</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30" t="s">
+      <c r="I28" s="36"/>
+      <c r="J28" s="36" t="s">
         <v>257</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30" t="s">
+      <c r="M28" s="36"/>
+      <c r="N28" s="36" t="s">
         <v>505</v>
       </c>
       <c r="O28" s="14" t="s">
@@ -3867,51 +3867,51 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="36" t="s">
         <v>253</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
         <v>609</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30" t="s">
+      <c r="I30" s="36"/>
+      <c r="J30" s="36" t="s">
         <v>256</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="36" t="s">
         <v>396</v>
       </c>
       <c r="O30" s="14" t="s">
@@ -3919,51 +3919,51 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
       <c r="K31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
       <c r="O31" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="36" t="s">
         <v>259</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36" t="s">
         <v>610</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30" t="s">
+      <c r="M32" s="36"/>
+      <c r="N32" s="36" t="s">
         <v>397</v>
       </c>
       <c r="O32" s="14" t="s">
@@ -3971,53 +3971,53 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I33" s="30"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="36" t="s">
         <v>260</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
         <v>611</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I34" s="30"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30" t="s">
+      <c r="M34" s="36"/>
+      <c r="N34" s="36" t="s">
         <v>398</v>
       </c>
       <c r="O34" s="14" t="s">
@@ -4025,31 +4025,31 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I35" s="30"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="36" t="s">
         <v>261</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -4058,7 +4058,7 @@
       <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="36" t="s">
         <v>612</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -4067,7 +4067,7 @@
       <c r="G36" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="36" t="s">
         <v>128</v>
       </c>
       <c r="J36" s="13" t="s">
@@ -4076,7 +4076,7 @@
       <c r="K36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="36" t="s">
         <v>399</v>
       </c>
       <c r="N36" s="14" t="s">
@@ -4087,28 +4087,28 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="17" t="s">
         <v>614</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="I37" s="30"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="13" t="s">
         <v>131</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="30"/>
+      <c r="M37" s="36"/>
       <c r="N37" s="14" t="s">
         <v>401</v>
       </c>
@@ -4117,28 +4117,28 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="17" t="s">
         <v>616</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M38" s="30"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="14" t="s">
         <v>403</v>
       </c>
@@ -4147,28 +4147,28 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="17" t="s">
         <v>617</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="30"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="14" t="s">
         <v>405</v>
       </c>
@@ -4177,29 +4177,29 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37" t="s">
         <v>268</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30" t="s">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36" t="s">
         <v>619</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30" t="s">
+      <c r="I40" s="36"/>
+      <c r="J40" s="36" t="s">
         <v>137</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30" t="s">
+      <c r="M40" s="36"/>
+      <c r="N40" s="36" t="s">
         <v>507</v>
       </c>
       <c r="O40" s="14" t="s">
@@ -4207,50 +4207,50 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
       <c r="O41" s="4" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="30"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="17" t="s">
         <v>622</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I42" s="30"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="13" t="s">
         <v>138</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="30"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="14" t="s">
         <v>407</v>
       </c>
@@ -4259,28 +4259,28 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="17" t="s">
         <v>623</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="13" t="s">
         <v>509</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M43" s="30"/>
+      <c r="M43" s="36"/>
       <c r="N43" s="14" t="s">
         <v>408</v>
       </c>
@@ -4289,7 +4289,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -4298,7 +4298,7 @@
       <c r="C44" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="36" t="s">
         <v>625</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -4307,7 +4307,7 @@
       <c r="G44" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="36" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="13" t="s">
@@ -4316,7 +4316,7 @@
       <c r="K44" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M44" s="36" t="s">
         <v>515</v>
       </c>
       <c r="N44" s="14" t="s">
@@ -4327,28 +4327,28 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E45" s="30"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="17" t="s">
         <v>628</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I45" s="30"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="13" t="s">
         <v>142</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M45" s="30"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="14" t="s">
         <v>410</v>
       </c>
@@ -4357,28 +4357,28 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="30"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="17" t="s">
         <v>629</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I46" s="30"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="13" t="s">
         <v>143</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="M46" s="30"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="14" t="s">
         <v>412</v>
       </c>
@@ -4387,28 +4387,28 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E47" s="30"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="17" t="s">
         <v>630</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I47" s="30"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="13" t="s">
         <v>144</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="30"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="14" t="s">
         <v>416</v>
       </c>
@@ -4419,28 +4419,28 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E48" s="30"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="17" t="s">
         <v>631</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I48" s="30"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="13" t="s">
         <v>145</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M48" s="30"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="14" t="s">
         <v>417</v>
       </c>
@@ -4451,28 +4451,28 @@
       <c r="Q48" s="14"/>
     </row>
     <row r="49" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="17" t="s">
         <v>632</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="I49" s="30"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="13" t="s">
         <v>147</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M49" s="30"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="14" t="s">
         <v>419</v>
       </c>
@@ -4483,29 +4483,29 @@
       <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="37" t="s">
         <v>285</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30" t="s">
+      <c r="E50" s="36"/>
+      <c r="F50" s="36" t="s">
         <v>634</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30" t="s">
+      <c r="I50" s="36"/>
+      <c r="J50" s="36" t="s">
         <v>149</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30" t="s">
+      <c r="M50" s="36"/>
+      <c r="N50" s="36" t="s">
         <v>413</v>
       </c>
       <c r="O50" s="14" t="s">
@@ -4515,51 +4515,51 @@
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
       <c r="G51" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
       <c r="O51" s="14" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
       <c r="K52" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
       <c r="O52" s="14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -4568,7 +4568,7 @@
       <c r="C53" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="36" t="s">
         <v>637</v>
       </c>
       <c r="F53" s="17" t="s">
@@ -4577,7 +4577,7 @@
       <c r="G53" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="36" t="s">
         <v>150</v>
       </c>
       <c r="J53" s="13" t="s">
@@ -4586,7 +4586,7 @@
       <c r="K53" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="M53" s="30" t="s">
+      <c r="M53" s="36" t="s">
         <v>421</v>
       </c>
       <c r="N53" s="18" t="s">
@@ -4597,29 +4597,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37" t="s">
         <v>292</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30" t="s">
+      <c r="E54" s="36"/>
+      <c r="F54" s="36" t="s">
         <v>640</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30" t="s">
+      <c r="I54" s="36"/>
+      <c r="J54" s="36" t="s">
         <v>153</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30" t="s">
+      <c r="M54" s="36"/>
+      <c r="N54" s="36" t="s">
         <v>423</v>
       </c>
       <c r="O54" s="14" t="s">
@@ -4627,51 +4627,51 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
       <c r="G55" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
       <c r="K55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
       <c r="O55" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37" t="s">
         <v>294</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30" t="s">
+      <c r="E56" s="36"/>
+      <c r="F56" s="36" t="s">
         <v>643</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30" t="s">
+      <c r="I56" s="36"/>
+      <c r="J56" s="36" t="s">
         <v>155</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30" t="s">
+      <c r="M56" s="36"/>
+      <c r="N56" s="36" t="s">
         <v>425</v>
       </c>
       <c r="O56" s="18" t="s">
@@ -4679,51 +4679,51 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
       <c r="G57" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
       <c r="O57" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37" t="s">
         <v>295</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30" t="s">
+      <c r="E58" s="36"/>
+      <c r="F58" s="36" t="s">
         <v>645</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30" t="s">
+      <c r="I58" s="36"/>
+      <c r="J58" s="36" t="s">
         <v>157</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30" t="s">
+      <c r="M58" s="36"/>
+      <c r="N58" s="36" t="s">
         <v>426</v>
       </c>
       <c r="O58" s="14" t="s">
@@ -4731,50 +4731,50 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
       <c r="G59" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
       <c r="K59" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
       <c r="O59" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="30"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="17" t="s">
         <v>647</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="I60" s="30"/>
+      <c r="I60" s="36"/>
       <c r="J60" s="13" t="s">
         <v>159</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M60" s="30"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="14" t="s">
         <v>428</v>
       </c>
@@ -4783,29 +4783,29 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37" t="s">
         <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30" t="s">
+      <c r="E61" s="36"/>
+      <c r="F61" s="36" t="s">
         <v>649</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30" t="s">
+      <c r="I61" s="36"/>
+      <c r="J61" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30" t="s">
+      <c r="M61" s="36"/>
+      <c r="N61" s="36" t="s">
         <v>430</v>
       </c>
       <c r="O61" s="14" t="s">
@@ -4813,36 +4813,36 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
       <c r="G62" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
       <c r="K62" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
       <c r="O62" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="23" t="s">
         <v>517</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="30"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="17" t="s">
         <v>651</v>
       </c>
@@ -4855,7 +4855,7 @@
       <c r="K63" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="M63" s="30"/>
+      <c r="M63" s="36"/>
       <c r="N63" s="18" t="s">
         <v>565</v>
       </c>
@@ -4864,37 +4864,37 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="37" t="s">
         <v>301</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="36" t="s">
         <v>653</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="36" t="s">
         <v>164</v>
       </c>
       <c r="K64" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M64" s="32" t="s">
+      <c r="M64" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="N64" s="30" t="s">
+      <c r="N64" s="36" t="s">
         <v>433</v>
       </c>
       <c r="O64" s="14" t="s">
@@ -4902,51 +4902,51 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
       <c r="G65" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
       <c r="K65" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M65" s="32"/>
-      <c r="N65" s="30"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="36"/>
       <c r="O65" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="31" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="37" t="s">
         <v>303</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30" t="s">
+      <c r="E66" s="36"/>
+      <c r="F66" s="36" t="s">
         <v>655</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30" t="s">
+      <c r="I66" s="36"/>
+      <c r="J66" s="36" t="s">
         <v>165</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M66" s="32"/>
-      <c r="N66" s="30" t="s">
+      <c r="M66" s="38"/>
+      <c r="N66" s="36" t="s">
         <v>434</v>
       </c>
       <c r="O66" s="14" t="s">
@@ -4954,50 +4954,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
       <c r="K67" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M67" s="32"/>
-      <c r="N67" s="30"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="36"/>
       <c r="O67" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="30"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="17" t="s">
         <v>656</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="30"/>
+      <c r="I68" s="36"/>
       <c r="J68" s="13" t="s">
         <v>166</v>
       </c>
       <c r="K68" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="M68" s="32"/>
+      <c r="M68" s="38"/>
       <c r="N68" s="14" t="s">
         <v>435</v>
       </c>
@@ -5006,37 +5006,37 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="37" t="s">
         <v>306</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="36" t="s">
         <v>657</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="36" t="s">
         <v>658</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="J69" s="30" t="s">
+      <c r="J69" s="36" t="s">
         <v>169</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="M69" s="30" t="s">
+      <c r="M69" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="N69" s="30" t="s">
+      <c r="N69" s="36" t="s">
         <v>437</v>
       </c>
       <c r="O69" s="14" t="s">
@@ -5044,59 +5044,59 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
       <c r="G70" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
       <c r="K70" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
       <c r="O70" s="14" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="37" t="s">
         <v>309</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="F71" s="31" t="s">
+      <c r="F71" s="37" t="s">
         <v>662</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="31" t="s">
+      <c r="I71" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="J71" s="31" t="s">
+      <c r="J71" s="37" t="s">
         <v>173</v>
       </c>
       <c r="K71" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="M71" s="31" t="s">
+      <c r="M71" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="N71" s="31" t="s">
+      <c r="N71" s="37" t="s">
         <v>442</v>
       </c>
       <c r="O71" s="29" t="s">
@@ -5104,59 +5104,59 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
       <c r="K72" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
       <c r="O72" s="29" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="37" t="s">
         <v>311</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="36" t="s">
         <v>665</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="J73" s="30" t="s">
+      <c r="J73" s="36" t="s">
         <v>176</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="30" t="s">
+      <c r="M73" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="N73" s="30" t="s">
+      <c r="N73" s="36" t="s">
         <v>446</v>
       </c>
       <c r="O73" s="14" t="s">
@@ -5164,50 +5164,50 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
       <c r="K74" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
       <c r="O74" s="18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="30"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="17" t="s">
         <v>668</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="30"/>
+      <c r="I75" s="36"/>
       <c r="J75" s="13" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="M75" s="30"/>
+      <c r="M75" s="36"/>
       <c r="N75" s="14" t="s">
         <v>447</v>
       </c>
@@ -5216,29 +5216,29 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="31" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="37" t="s">
         <v>314</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30" t="s">
+      <c r="E76" s="36"/>
+      <c r="F76" s="36" t="s">
         <v>669</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30" t="s">
+      <c r="I76" s="36"/>
+      <c r="J76" s="36" t="s">
         <v>180</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30" t="s">
+      <c r="M76" s="36"/>
+      <c r="N76" s="36" t="s">
         <v>448</v>
       </c>
       <c r="O76" s="14" t="s">
@@ -5246,72 +5246,72 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
       <c r="G77" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
       <c r="K77" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
       <c r="O77" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
       <c r="G78" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
       <c r="K78" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
       <c r="O78" s="18" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E79" s="30"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="17" t="s">
         <v>673</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="I79" s="30"/>
+      <c r="I79" s="36"/>
       <c r="J79" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K79" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="M79" s="30"/>
+      <c r="M79" s="36"/>
       <c r="N79" s="18" t="s">
         <v>566</v>
       </c>
@@ -5320,28 +5320,28 @@
       </c>
     </row>
     <row r="80" spans="1:15" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="30"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="17" t="s">
         <v>675</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="I80" s="30"/>
+      <c r="I80" s="36"/>
       <c r="J80" s="14" t="s">
         <v>522</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="M80" s="30"/>
+      <c r="M80" s="36"/>
       <c r="N80" s="14" t="s">
         <v>519</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="36" t="s">
         <v>322</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -5359,7 +5359,7 @@
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="36" t="s">
         <v>677</v>
       </c>
       <c r="F81" s="17" t="s">
@@ -5368,7 +5368,7 @@
       <c r="G81" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -5377,7 +5377,7 @@
       <c r="K81" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="M81" s="30" t="s">
+      <c r="M81" s="36" t="s">
         <v>451</v>
       </c>
       <c r="N81" s="14" t="s">
@@ -5388,28 +5388,28 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E82" s="30"/>
+      <c r="E82" s="36"/>
       <c r="F82" s="17" t="s">
         <v>679</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="I82" s="30"/>
+      <c r="I82" s="36"/>
       <c r="J82" s="13" t="s">
         <v>188</v>
       </c>
       <c r="K82" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M82" s="30"/>
+      <c r="M82" s="36"/>
       <c r="N82" s="14" t="s">
         <v>453</v>
       </c>
@@ -5418,28 +5418,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E83" s="30"/>
+      <c r="E83" s="36"/>
       <c r="F83" s="17" t="s">
         <v>680</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="I83" s="30"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="13" t="s">
         <v>189</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M83" s="30"/>
+      <c r="M83" s="36"/>
       <c r="N83" s="14" t="s">
         <v>454</v>
       </c>
@@ -5448,28 +5448,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E84" s="30"/>
+      <c r="E84" s="36"/>
       <c r="F84" s="17" t="s">
         <v>682</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="I84" s="30"/>
+      <c r="I84" s="36"/>
       <c r="J84" s="13" t="s">
         <v>191</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M84" s="30"/>
+      <c r="M84" s="36"/>
       <c r="N84" s="14" t="s">
         <v>456</v>
       </c>
@@ -5478,37 +5478,37 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="37" t="s">
         <v>331</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="36" t="s">
         <v>684</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="36" t="s">
         <v>685</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="I85" s="30" t="s">
+      <c r="I85" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="J85" s="30" t="s">
+      <c r="J85" s="36" t="s">
         <v>194</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="M85" s="30" t="s">
+      <c r="M85" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="N85" s="30" t="s">
+      <c r="N85" s="36" t="s">
         <v>459</v>
       </c>
       <c r="O85" s="14" t="s">
@@ -5516,29 +5516,29 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
       <c r="G86" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
       <c r="K86" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
       <c r="O86" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="36" t="s">
         <v>334</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -5547,7 +5547,7 @@
       <c r="C87" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="36" t="s">
         <v>688</v>
       </c>
       <c r="F87" s="17" t="s">
@@ -5556,7 +5556,7 @@
       <c r="G87" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="36" t="s">
         <v>197</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -5565,7 +5565,7 @@
       <c r="K87" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M87" s="30" t="s">
+      <c r="M87" s="36" t="s">
         <v>462</v>
       </c>
       <c r="N87" s="14" t="s">
@@ -5576,28 +5576,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E88" s="30"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="17" t="s">
         <v>690</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="I88" s="30"/>
+      <c r="I88" s="36"/>
       <c r="J88" s="13" t="s">
         <v>199</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="M88" s="30"/>
+      <c r="M88" s="36"/>
       <c r="N88" s="14" t="s">
         <v>464</v>
       </c>
@@ -5644,7 +5644,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="36" t="s">
         <v>340</v>
       </c>
       <c r="B90" s="23" t="s">
@@ -5653,7 +5653,7 @@
       <c r="C90" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="36" t="s">
         <v>694</v>
       </c>
       <c r="F90" s="17" t="s">
@@ -5662,7 +5662,7 @@
       <c r="G90" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I90" s="30" t="s">
+      <c r="I90" s="36" t="s">
         <v>203</v>
       </c>
       <c r="J90" s="13" t="s">
@@ -5671,7 +5671,7 @@
       <c r="K90" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="30" t="s">
+      <c r="M90" s="36" t="s">
         <v>468</v>
       </c>
       <c r="N90" s="14" t="s">
@@ -5682,28 +5682,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E91" s="30"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="17" t="s">
         <v>697</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="I91" s="30"/>
+      <c r="I91" s="36"/>
       <c r="J91" s="13" t="s">
         <v>205</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="M91" s="30"/>
+      <c r="M91" s="36"/>
       <c r="N91" s="14" t="s">
         <v>470</v>
       </c>
@@ -5712,28 +5712,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="E92" s="30"/>
+      <c r="E92" s="36"/>
       <c r="F92" s="17" t="s">
         <v>699</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="I92" s="30"/>
+      <c r="I92" s="36"/>
       <c r="J92" s="13" t="s">
         <v>207</v>
       </c>
       <c r="K92" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="M92" s="30"/>
+      <c r="M92" s="36"/>
       <c r="N92" s="14" t="s">
         <v>472</v>
       </c>
@@ -5742,7 +5742,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="36" t="s">
         <v>346</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -5751,7 +5751,7 @@
       <c r="C93" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="36" t="s">
         <v>700</v>
       </c>
       <c r="F93" s="17" t="s">
@@ -5760,7 +5760,7 @@
       <c r="G93" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="I93" s="30" t="s">
+      <c r="I93" s="36" t="s">
         <v>209</v>
       </c>
       <c r="J93" s="13" t="s">
@@ -5769,7 +5769,7 @@
       <c r="K93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="M93" s="30" t="s">
+      <c r="M93" s="36" t="s">
         <v>474</v>
       </c>
       <c r="N93" s="14" t="s">
@@ -5780,28 +5780,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E94" s="30"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="17" t="s">
         <v>703</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="I94" s="30"/>
+      <c r="I94" s="36"/>
       <c r="J94" s="13" t="s">
         <v>212</v>
       </c>
       <c r="K94" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="M94" s="30"/>
+      <c r="M94" s="36"/>
       <c r="N94" s="14" t="s">
         <v>476</v>
       </c>
@@ -5810,28 +5810,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="E95" s="30"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="17" t="s">
         <v>705</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="I95" s="30"/>
+      <c r="I95" s="36"/>
       <c r="J95" s="14" t="s">
         <v>529</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="M95" s="30"/>
+      <c r="M95" s="36"/>
       <c r="N95" s="14" t="s">
         <v>476</v>
       </c>
@@ -5840,28 +5840,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E96" s="30"/>
+      <c r="E96" s="36"/>
       <c r="F96" s="17" t="s">
         <v>707</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I96" s="30"/>
+      <c r="I96" s="36"/>
       <c r="J96" s="13" t="s">
         <v>214</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M96" s="30"/>
+      <c r="M96" s="36"/>
       <c r="N96" s="14" t="s">
         <v>479</v>
       </c>
@@ -5870,7 +5870,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="36" t="s">
         <v>352</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -5879,7 +5879,7 @@
       <c r="C97" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="36" t="s">
         <v>708</v>
       </c>
       <c r="F97" s="17" t="s">
@@ -5888,7 +5888,7 @@
       <c r="G97" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="I97" s="30" t="s">
+      <c r="I97" s="36" t="s">
         <v>215</v>
       </c>
       <c r="J97" s="13" t="s">
@@ -5897,7 +5897,7 @@
       <c r="K97" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="M97" s="30" t="s">
+      <c r="M97" s="36" t="s">
         <v>481</v>
       </c>
       <c r="N97" s="14" t="s">
@@ -5908,28 +5908,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E98" s="30"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="17" t="s">
         <v>711</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="I98" s="30"/>
+      <c r="I98" s="36"/>
       <c r="J98" s="13" t="s">
         <v>218</v>
       </c>
       <c r="K98" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="M98" s="30"/>
+      <c r="M98" s="36"/>
       <c r="N98" s="14" t="s">
         <v>484</v>
       </c>
@@ -5938,28 +5938,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="E99" s="30"/>
+      <c r="E99" s="36"/>
       <c r="F99" s="17" t="s">
         <v>713</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="I99" s="30"/>
+      <c r="I99" s="36"/>
       <c r="J99" s="13" t="s">
         <v>220</v>
       </c>
       <c r="K99" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="M99" s="30"/>
+      <c r="M99" s="36"/>
       <c r="N99" s="14" t="s">
         <v>486</v>
       </c>
@@ -5968,28 +5968,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E100" s="30"/>
+      <c r="E100" s="36"/>
       <c r="F100" s="17" t="s">
         <v>715</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="I100" s="30"/>
+      <c r="I100" s="36"/>
       <c r="J100" s="13" t="s">
         <v>222</v>
       </c>
       <c r="K100" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="M100" s="30"/>
+      <c r="M100" s="36"/>
       <c r="N100" s="14" t="s">
         <v>487</v>
       </c>
@@ -5998,28 +5998,28 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E101" s="30"/>
+      <c r="E101" s="36"/>
       <c r="F101" s="17" t="s">
         <v>717</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="I101" s="30"/>
+      <c r="I101" s="36"/>
       <c r="J101" s="13" t="s">
         <v>224</v>
       </c>
       <c r="K101" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="M101" s="30"/>
+      <c r="M101" s="36"/>
       <c r="N101" s="14" t="s">
         <v>489</v>
       </c>
@@ -6028,28 +6028,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="E102" s="30"/>
+      <c r="E102" s="36"/>
       <c r="F102" s="17" t="s">
         <v>719</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="I102" s="30"/>
+      <c r="I102" s="36"/>
       <c r="J102" s="13" t="s">
         <v>233</v>
       </c>
       <c r="K102" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="M102" s="30"/>
+      <c r="M102" s="36"/>
       <c r="N102" s="14" t="s">
         <v>491</v>
       </c>
@@ -6058,28 +6058,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="E103" s="30"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="17" t="s">
         <v>721</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="I103" s="30"/>
+      <c r="I103" s="36"/>
       <c r="J103" s="14" t="s">
         <v>530</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="M103" s="30"/>
+      <c r="M103" s="36"/>
       <c r="N103" s="14" t="s">
         <v>492</v>
       </c>
@@ -6088,28 +6088,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="30"/>
+      <c r="E104" s="36"/>
       <c r="F104" s="17" t="s">
         <v>723</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="I104" s="30"/>
+      <c r="I104" s="36"/>
       <c r="J104" s="14" t="s">
         <v>536</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="M104" s="30"/>
+      <c r="M104" s="36"/>
       <c r="N104" s="14" t="s">
         <v>494</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="36" t="s">
         <v>362</v>
       </c>
       <c r="B105" s="23" t="s">
@@ -6127,7 +6127,7 @@
       <c r="C105" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="E105" s="36" t="s">
         <v>725</v>
       </c>
       <c r="F105" s="17" t="s">
@@ -6136,7 +6136,7 @@
       <c r="G105" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="I105" s="30" t="s">
+      <c r="I105" s="36" t="s">
         <v>226</v>
       </c>
       <c r="J105" s="13" t="s">
@@ -6145,7 +6145,7 @@
       <c r="K105" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="M105" s="30" t="s">
+      <c r="M105" s="36" t="s">
         <v>496</v>
       </c>
       <c r="N105" s="14" t="s">
@@ -6156,28 +6156,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E106" s="30"/>
+      <c r="E106" s="36"/>
       <c r="F106" s="17" t="s">
         <v>728</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="I106" s="30"/>
+      <c r="I106" s="36"/>
       <c r="J106" s="13" t="s">
         <v>229</v>
       </c>
       <c r="K106" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M106" s="30"/>
+      <c r="M106" s="36"/>
       <c r="N106" s="14" t="s">
         <v>499</v>
       </c>
@@ -6186,28 +6186,28 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
+      <c r="A107" s="36"/>
       <c r="B107" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="E107" s="30"/>
+      <c r="E107" s="36"/>
       <c r="F107" s="17" t="s">
         <v>729</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="I107" s="30"/>
+      <c r="I107" s="36"/>
       <c r="J107" s="13" t="s">
         <v>230</v>
       </c>
       <c r="K107" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="M107" s="30"/>
+      <c r="M107" s="36"/>
       <c r="N107" s="14" t="s">
         <v>500</v>
       </c>
@@ -6216,28 +6216,28 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E108" s="30"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="17" t="s">
         <v>731</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="I108" s="30"/>
+      <c r="I108" s="36"/>
       <c r="J108" s="13" t="s">
         <v>232</v>
       </c>
       <c r="K108" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M108" s="30"/>
+      <c r="M108" s="36"/>
       <c r="N108" s="14" t="s">
         <v>501</v>
       </c>
@@ -6255,6 +6255,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="I26:I35"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="I3:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M35"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="M3:M25"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="M53:M63"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M36:M43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="M44:M52"/>
+    <mergeCell ref="I44:I52"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="I53:I62"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M64:M68"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N76:N78"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="I73:I80"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="I81:I84"/>
     <mergeCell ref="M105:M108"/>
     <mergeCell ref="M87:M88"/>
     <mergeCell ref="M90:M92"/>
@@ -6279,136 +6409,6 @@
     <mergeCell ref="E93:E96"/>
     <mergeCell ref="E97:E104"/>
     <mergeCell ref="E105:E108"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M64:M68"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="N76:N78"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="I73:I80"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="I81:I84"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="M53:M63"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="M36:M43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="M44:M52"/>
-    <mergeCell ref="I44:I52"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="I53:I62"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M35"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="M3:M25"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="I3:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E90:E92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6423,7 +6423,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6854,13 +6854,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6892,7 +6892,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -6910,7 +6910,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="1" t="str">
         <f>Sheet2!F6</f>
         <v>Critical Danger</v>
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="1" t="str">
         <f>Sheet2!F5</f>
         <v>Dangerous</v>
@@ -6942,7 +6942,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="1" t="str">
         <f>Sheet2!F4</f>
         <v>Slight Danger</v>
@@ -6954,7 +6954,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="1" t="str">
         <f>Sheet2!F3</f>
         <v>Safe</v>
@@ -7146,37 +7146,37 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="36" t="s">
         <v>607</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="36" t="s">
         <v>258</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="38" t="s">
         <v>551</v>
       </c>
       <c r="O4" s="21" t="s">
@@ -7184,51 +7184,51 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="32"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="38"/>
       <c r="O5" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="36" t="s">
         <v>254</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="36" t="s">
         <v>608</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36" t="s">
         <v>257</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="36"/>
+      <c r="N6" s="36" t="s">
         <v>505</v>
       </c>
       <c r="O6" s="21" t="s">
@@ -7236,51 +7236,51 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="36" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="36" t="s">
         <v>609</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30" t="s">
+      <c r="I8" s="36"/>
+      <c r="J8" s="36" t="s">
         <v>256</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30" t="s">
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
         <v>396</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -7288,51 +7288,51 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="36" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="36" t="s">
         <v>610</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
         <v>397</v>
       </c>
       <c r="O10" s="21" t="s">
@@ -7340,53 +7340,53 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="36" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="36" t="s">
         <v>611</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
+      <c r="M12" s="36"/>
+      <c r="N12" s="36" t="s">
         <v>398</v>
       </c>
       <c r="O12" s="21" t="s">
@@ -7394,61 +7394,61 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="21" t="s">
         <v>127</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="39" t="s">
         <v>579</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="39" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="39" t="s">
         <v>370</v>
       </c>
       <c r="O14" s="21" t="s">
@@ -7456,92 +7456,92 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="21" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="21" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="21" t="s">
         <v>583</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="21" t="s">
         <v>104</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="21" t="s">
         <v>375</v>
       </c>
@@ -7550,29 +7550,29 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="30" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="36" t="s">
         <v>585</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="30" t="s">
+      <c r="I19" s="42"/>
+      <c r="J19" s="36" t="s">
         <v>106</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30" t="s">
+      <c r="M19" s="36"/>
+      <c r="N19" s="36" t="s">
         <v>377</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -7580,50 +7580,50 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="21" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="21" t="s">
         <v>587</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="I21" s="36"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="21" t="s">
         <v>108</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="21" t="s">
         <v>379</v>
       </c>
@@ -7632,29 +7632,29 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="37" t="s">
         <v>237</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="36" t="s">
         <v>589</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="30" t="s">
+      <c r="I22" s="42"/>
+      <c r="J22" s="36" t="s">
         <v>110</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30" t="s">
+      <c r="M22" s="36"/>
+      <c r="N22" s="36" t="s">
         <v>381</v>
       </c>
       <c r="O22" s="21" t="s">
@@ -7662,73 +7662,73 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="30"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="21" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="30"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="37" t="s">
         <v>240</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="30" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="36" t="s">
         <v>592</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="30" t="s">
+      <c r="I25" s="42"/>
+      <c r="J25" s="36" t="s">
         <v>113</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30" t="s">
+      <c r="M25" s="36"/>
+      <c r="N25" s="36" t="s">
         <v>384</v>
       </c>
       <c r="O25" s="21" t="s">
@@ -7736,94 +7736,94 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="21" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="21" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="30"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="21" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="21" t="s">
         <v>597</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I29" s="36"/>
+      <c r="I29" s="42"/>
       <c r="J29" s="21" t="s">
         <v>116</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="30"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="21" t="s">
         <v>387</v>
       </c>
@@ -7832,28 +7832,28 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="21" t="s">
         <v>599</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I30" s="36"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="21" t="s">
         <v>118</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="30"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="22" t="s">
         <v>548</v>
       </c>
@@ -7862,28 +7862,28 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="21" t="s">
         <v>600</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I31" s="36"/>
+      <c r="I31" s="42"/>
       <c r="J31" s="21" t="s">
         <v>119</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="30"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="22" t="s">
         <v>549</v>
       </c>
@@ -7892,28 +7892,28 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="21" t="s">
         <v>601</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="I32" s="36"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="21" t="s">
         <v>120</v>
       </c>
       <c r="K32" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="M32" s="30"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="21" t="s">
         <v>389</v>
       </c>
@@ -7922,28 +7922,28 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="21" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="34"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="21" t="s">
         <v>602</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I33" s="36"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="21" t="s">
         <v>122</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="M33" s="30"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="22" t="s">
         <v>550</v>
       </c>
@@ -7952,28 +7952,28 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="21" t="s">
         <v>604</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="I34" s="36"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="21" t="s">
         <v>123</v>
       </c>
       <c r="K34" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="30"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="21" t="s">
         <v>392</v>
       </c>
@@ -7982,29 +7982,29 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="37" t="s">
         <v>503</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="30" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="36" t="s">
         <v>605</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="30" t="s">
+      <c r="I35" s="42"/>
+      <c r="J35" s="36" t="s">
         <v>504</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30" t="s">
+      <c r="M35" s="36"/>
+      <c r="N35" s="36" t="s">
         <v>394</v>
       </c>
       <c r="O35" s="21" t="s">
@@ -8012,29 +8012,29 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="30"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
       <c r="O36" s="21" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="36" t="s">
         <v>261</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -8043,7 +8043,7 @@
       <c r="C37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="37" t="s">
         <v>612</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -8052,7 +8052,7 @@
       <c r="G37" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="36" t="s">
         <v>128</v>
       </c>
       <c r="J37" s="21" t="s">
@@ -8061,7 +8061,7 @@
       <c r="K37" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="30" t="s">
+      <c r="M37" s="36" t="s">
         <v>399</v>
       </c>
       <c r="N37" s="21" t="s">
@@ -8072,28 +8072,28 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="31"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="21" t="s">
         <v>614</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="21" t="s">
         <v>131</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="30"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="21" t="s">
         <v>401</v>
       </c>
@@ -8102,28 +8102,28 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="31"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="21" t="s">
         <v>616</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M39" s="30"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="21" t="s">
         <v>403</v>
       </c>
@@ -8132,28 +8132,28 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="31"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="21" t="s">
         <v>617</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="I40" s="30"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="21" t="s">
         <v>135</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="M40" s="30"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="21" t="s">
         <v>405</v>
       </c>
@@ -8162,29 +8162,29 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37" t="s">
         <v>268</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="30" t="s">
+      <c r="E41" s="37"/>
+      <c r="F41" s="36" t="s">
         <v>619</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30" t="s">
+      <c r="I41" s="36"/>
+      <c r="J41" s="36" t="s">
         <v>137</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30" t="s">
+      <c r="M41" s="36"/>
+      <c r="N41" s="36" t="s">
         <v>507</v>
       </c>
       <c r="O41" s="21" t="s">
@@ -8192,50 +8192,50 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
       <c r="O42" s="21" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="21" t="s">
         <v>622</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="21" t="s">
         <v>138</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="30"/>
+      <c r="M43" s="36"/>
       <c r="N43" s="21" t="s">
         <v>407</v>
       </c>
@@ -8244,28 +8244,28 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="31"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="21" t="s">
         <v>623</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="I44" s="30"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="21" t="s">
         <v>509</v>
       </c>
       <c r="K44" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M44" s="30"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="21" t="s">
         <v>408</v>
       </c>
@@ -8274,7 +8274,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -8283,7 +8283,7 @@
       <c r="C45" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="37" t="s">
         <v>637</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -8292,7 +8292,7 @@
       <c r="G45" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="36" t="s">
         <v>150</v>
       </c>
       <c r="J45" s="21" t="s">
@@ -8301,7 +8301,7 @@
       <c r="K45" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="M45" s="30" t="s">
+      <c r="M45" s="36" t="s">
         <v>421</v>
       </c>
       <c r="N45" s="22" t="s">
@@ -8312,29 +8312,29 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37" t="s">
         <v>292</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="30" t="s">
+      <c r="E46" s="37"/>
+      <c r="F46" s="36" t="s">
         <v>640</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30" t="s">
+      <c r="I46" s="36"/>
+      <c r="J46" s="36" t="s">
         <v>153</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30" t="s">
+      <c r="M46" s="36"/>
+      <c r="N46" s="36" t="s">
         <v>423</v>
       </c>
       <c r="O46" s="21" t="s">
@@ -8342,51 +8342,51 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
       <c r="K47" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
       <c r="O47" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37" t="s">
         <v>294</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="30" t="s">
+      <c r="E48" s="37"/>
+      <c r="F48" s="36" t="s">
         <v>643</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30" t="s">
+      <c r="I48" s="36"/>
+      <c r="J48" s="36" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30" t="s">
+      <c r="M48" s="36"/>
+      <c r="N48" s="36" t="s">
         <v>425</v>
       </c>
       <c r="O48" s="22" t="s">
@@ -8394,51 +8394,51 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
       <c r="O49" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37" t="s">
         <v>295</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="30" t="s">
+      <c r="E50" s="37"/>
+      <c r="F50" s="36" t="s">
         <v>645</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30" t="s">
+      <c r="I50" s="36"/>
+      <c r="J50" s="36" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30" t="s">
+      <c r="M50" s="36"/>
+      <c r="N50" s="36" t="s">
         <v>426</v>
       </c>
       <c r="O50" s="21" t="s">
@@ -8446,50 +8446,50 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="30"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="36"/>
       <c r="G51" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
       <c r="O51" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="31"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="21" t="s">
         <v>647</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="I52" s="30"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="K52" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="M52" s="30"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="21" t="s">
         <v>428</v>
       </c>
@@ -8498,29 +8498,29 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37" t="s">
         <v>300</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="30" t="s">
+      <c r="E53" s="37"/>
+      <c r="F53" s="36" t="s">
         <v>649</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30" t="s">
+      <c r="I53" s="36"/>
+      <c r="J53" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30" t="s">
+      <c r="M53" s="36"/>
+      <c r="N53" s="36" t="s">
         <v>430</v>
       </c>
       <c r="O53" s="21" t="s">
@@ -8528,36 +8528,36 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
       <c r="O54" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="31"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="21" t="s">
         <v>651</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="K55" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="30"/>
+      <c r="M55" s="36"/>
       <c r="N55" s="22" t="s">
         <v>565</v>
       </c>
@@ -8617,37 +8617,37 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="21" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="37" t="s">
         <v>301</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="36" t="s">
         <v>653</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="J57" s="30" t="s">
+      <c r="J57" s="36" t="s">
         <v>164</v>
       </c>
       <c r="K57" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M57" s="32" t="s">
+      <c r="M57" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="N57" s="30" t="s">
+      <c r="N57" s="36" t="s">
         <v>433</v>
       </c>
       <c r="O57" s="21" t="s">
@@ -8655,51 +8655,51 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
       <c r="K58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M58" s="32"/>
-      <c r="N58" s="30"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="36"/>
       <c r="O58" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="37" t="s">
         <v>303</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="30" t="s">
+      <c r="E59" s="37"/>
+      <c r="F59" s="36" t="s">
         <v>655</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30" t="s">
+      <c r="I59" s="36"/>
+      <c r="J59" s="36" t="s">
         <v>165</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M59" s="32"/>
-      <c r="N59" s="30" t="s">
+      <c r="M59" s="38"/>
+      <c r="N59" s="36" t="s">
         <v>434</v>
       </c>
       <c r="O59" s="21" t="s">
@@ -8707,50 +8707,50 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="30"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
       <c r="K60" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M60" s="32"/>
-      <c r="N60" s="30"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="36"/>
       <c r="O60" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="23" t="s">
         <v>304</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E61" s="31"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="21" t="s">
         <v>656</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I61" s="30"/>
+      <c r="I61" s="36"/>
       <c r="J61" s="21" t="s">
         <v>166</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="M61" s="32"/>
+      <c r="M61" s="38"/>
       <c r="N61" s="21" t="s">
         <v>435</v>
       </c>
@@ -8759,37 +8759,37 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="37" t="s">
         <v>306</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="36" t="s">
         <v>658</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I62" s="30" t="s">
+      <c r="I62" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="J62" s="30" t="s">
+      <c r="J62" s="36" t="s">
         <v>169</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="M62" s="30" t="s">
+      <c r="M62" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="N62" s="30" t="s">
+      <c r="N62" s="36" t="s">
         <v>437</v>
       </c>
       <c r="O62" s="21" t="s">
@@ -8797,59 +8797,59 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="36"/>
       <c r="G63" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
       <c r="K63" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
       <c r="O63" s="21" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="37" t="s">
         <v>309</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="36" t="s">
         <v>662</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="36" t="s">
         <v>173</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M64" s="30" t="s">
+      <c r="M64" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="N64" s="30" t="s">
+      <c r="N64" s="36" t="s">
         <v>442</v>
       </c>
       <c r="O64" s="21" t="s">
@@ -8857,59 +8857,59 @@
       </c>
     </row>
     <row r="65" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="36"/>
       <c r="G65" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
       <c r="K65" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
       <c r="O65" s="21" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="37" t="s">
         <v>311</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="36" t="s">
         <v>665</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="J66" s="30" t="s">
+      <c r="J66" s="36" t="s">
         <v>176</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="M66" s="30" t="s">
+      <c r="M66" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="N66" s="30" t="s">
+      <c r="N66" s="36" t="s">
         <v>446</v>
       </c>
       <c r="O66" s="21" t="s">
@@ -8917,50 +8917,50 @@
       </c>
     </row>
     <row r="67" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
       <c r="K67" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
       <c r="O67" s="22" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="31"/>
+      <c r="E68" s="37"/>
       <c r="F68" s="21" t="s">
         <v>668</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I68" s="30"/>
+      <c r="I68" s="36"/>
       <c r="J68" s="21" t="s">
         <v>179</v>
       </c>
       <c r="K68" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="M68" s="30"/>
+      <c r="M68" s="36"/>
       <c r="N68" s="21" t="s">
         <v>447</v>
       </c>
@@ -8969,29 +8969,29 @@
       </c>
     </row>
     <row r="69" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="37" t="s">
         <v>314</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="30" t="s">
+      <c r="E69" s="37"/>
+      <c r="F69" s="36" t="s">
         <v>669</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30" t="s">
+      <c r="I69" s="36"/>
+      <c r="J69" s="36" t="s">
         <v>180</v>
       </c>
       <c r="K69" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30" t="s">
+      <c r="M69" s="36"/>
+      <c r="N69" s="36" t="s">
         <v>448</v>
       </c>
       <c r="O69" s="21" t="s">
@@ -8999,72 +8999,72 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="36"/>
       <c r="G70" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
       <c r="K70" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
       <c r="O70" s="21" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="30"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="36"/>
       <c r="G71" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
       <c r="K71" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
       <c r="O71" s="22" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E72" s="31"/>
+      <c r="E72" s="37"/>
       <c r="F72" s="21" t="s">
         <v>673</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="I72" s="30"/>
+      <c r="I72" s="36"/>
       <c r="J72" s="21" t="s">
         <v>183</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="M72" s="30"/>
+      <c r="M72" s="36"/>
       <c r="N72" s="22" t="s">
         <v>566</v>
       </c>
@@ -9073,28 +9073,28 @@
       </c>
     </row>
     <row r="73" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="E73" s="31"/>
+      <c r="E73" s="37"/>
       <c r="F73" s="21" t="s">
         <v>675</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="I73" s="30"/>
+      <c r="I73" s="36"/>
       <c r="J73" s="21" t="s">
         <v>522</v>
       </c>
       <c r="K73" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="M73" s="30"/>
+      <c r="M73" s="36"/>
       <c r="N73" s="21" t="s">
         <v>519</v>
       </c>
@@ -9103,7 +9103,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="36" t="s">
         <v>322</v>
       </c>
       <c r="B74" s="23" t="s">
@@ -9112,7 +9112,7 @@
       <c r="C74" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="37" t="s">
         <v>677</v>
       </c>
       <c r="F74" s="21" t="s">
@@ -9121,7 +9121,7 @@
       <c r="G74" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I74" s="30" t="s">
+      <c r="I74" s="36" t="s">
         <v>185</v>
       </c>
       <c r="J74" s="21" t="s">
@@ -9130,7 +9130,7 @@
       <c r="K74" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="30" t="s">
+      <c r="M74" s="36" t="s">
         <v>451</v>
       </c>
       <c r="N74" s="21" t="s">
@@ -9141,28 +9141,28 @@
       </c>
     </row>
     <row r="75" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="31"/>
+      <c r="E75" s="37"/>
       <c r="F75" s="21" t="s">
         <v>679</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="I75" s="30"/>
+      <c r="I75" s="36"/>
       <c r="J75" s="21" t="s">
         <v>188</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="M75" s="30"/>
+      <c r="M75" s="36"/>
       <c r="N75" s="21" t="s">
         <v>453</v>
       </c>
@@ -9171,28 +9171,28 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E76" s="31"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="21" t="s">
         <v>680</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="I76" s="30"/>
+      <c r="I76" s="36"/>
       <c r="J76" s="21" t="s">
         <v>189</v>
       </c>
       <c r="K76" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="M76" s="30"/>
+      <c r="M76" s="36"/>
       <c r="N76" s="21" t="s">
         <v>454</v>
       </c>
@@ -9201,28 +9201,28 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E77" s="31"/>
+      <c r="E77" s="37"/>
       <c r="F77" s="21" t="s">
         <v>682</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="I77" s="30"/>
+      <c r="I77" s="36"/>
       <c r="J77" s="21" t="s">
         <v>191</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="M77" s="30"/>
+      <c r="M77" s="36"/>
       <c r="N77" s="21" t="s">
         <v>456</v>
       </c>
@@ -9231,37 +9231,37 @@
       </c>
     </row>
     <row r="78" spans="1:15" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="37" t="s">
         <v>331</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="37" t="s">
         <v>684</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="36" t="s">
         <v>685</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="I78" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="J78" s="30" t="s">
+      <c r="J78" s="36" t="s">
         <v>194</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="M78" s="30" t="s">
+      <c r="M78" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="N78" s="30" t="s">
+      <c r="N78" s="36" t="s">
         <v>459</v>
       </c>
       <c r="O78" s="21" t="s">
@@ -9269,29 +9269,29 @@
       </c>
     </row>
     <row r="79" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="30"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="36"/>
       <c r="G79" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
       <c r="K79" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
       <c r="O79" s="21" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="36" t="s">
         <v>334</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -9300,7 +9300,7 @@
       <c r="C80" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="45" t="s">
         <v>688</v>
       </c>
       <c r="F80" s="21" t="s">
@@ -9309,7 +9309,7 @@
       <c r="G80" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I80" s="30" t="s">
+      <c r="I80" s="36" t="s">
         <v>197</v>
       </c>
       <c r="J80" s="21" t="s">
@@ -9318,7 +9318,7 @@
       <c r="K80" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="M80" s="30" t="s">
+      <c r="M80" s="36" t="s">
         <v>462</v>
       </c>
       <c r="N80" s="21" t="s">
@@ -9329,28 +9329,28 @@
       </c>
     </row>
     <row r="81" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E81" s="39"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="21" t="s">
         <v>690</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="I81" s="30"/>
+      <c r="I81" s="36"/>
       <c r="J81" s="21" t="s">
         <v>199</v>
       </c>
       <c r="K81" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="M81" s="30"/>
+      <c r="M81" s="36"/>
       <c r="N81" s="21" t="s">
         <v>464</v>
       </c>
@@ -9359,7 +9359,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="36" t="s">
         <v>340</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -9368,7 +9368,7 @@
       <c r="C82" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="37" t="s">
         <v>694</v>
       </c>
       <c r="F82" s="21" t="s">
@@ -9377,7 +9377,7 @@
       <c r="G82" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I82" s="30" t="s">
+      <c r="I82" s="36" t="s">
         <v>203</v>
       </c>
       <c r="J82" s="21" t="s">
@@ -9386,7 +9386,7 @@
       <c r="K82" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="M82" s="30" t="s">
+      <c r="M82" s="36" t="s">
         <v>468</v>
       </c>
       <c r="N82" s="21" t="s">
@@ -9397,28 +9397,28 @@
       </c>
     </row>
     <row r="83" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E83" s="31"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="21" t="s">
         <v>697</v>
       </c>
       <c r="G83" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="I83" s="30"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="21" t="s">
         <v>205</v>
       </c>
       <c r="K83" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="M83" s="30"/>
+      <c r="M83" s="36"/>
       <c r="N83" s="21" t="s">
         <v>470</v>
       </c>
@@ -9427,28 +9427,28 @@
       </c>
     </row>
     <row r="84" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="23" t="s">
         <v>345</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="E84" s="31"/>
+      <c r="E84" s="37"/>
       <c r="F84" s="21" t="s">
         <v>699</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="I84" s="30"/>
+      <c r="I84" s="36"/>
       <c r="J84" s="21" t="s">
         <v>207</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M84" s="30"/>
+      <c r="M84" s="36"/>
       <c r="N84" s="21" t="s">
         <v>472</v>
       </c>
@@ -9457,7 +9457,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="36" t="s">
         <v>346</v>
       </c>
       <c r="B85" s="23" t="s">
@@ -9466,7 +9466,7 @@
       <c r="C85" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="37" t="s">
         <v>700</v>
       </c>
       <c r="F85" s="21" t="s">
@@ -9475,7 +9475,7 @@
       <c r="G85" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="I85" s="30" t="s">
+      <c r="I85" s="36" t="s">
         <v>209</v>
       </c>
       <c r="J85" s="21" t="s">
@@ -9484,7 +9484,7 @@
       <c r="K85" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M85" s="30" t="s">
+      <c r="M85" s="36" t="s">
         <v>474</v>
       </c>
       <c r="N85" s="21" t="s">
@@ -9495,28 +9495,28 @@
       </c>
     </row>
     <row r="86" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="23" t="s">
         <v>349</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="E86" s="31"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="21" t="s">
         <v>703</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="I86" s="30"/>
+      <c r="I86" s="36"/>
       <c r="J86" s="21" t="s">
         <v>212</v>
       </c>
       <c r="K86" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="M86" s="30"/>
+      <c r="M86" s="36"/>
       <c r="N86" s="21" t="s">
         <v>476</v>
       </c>
@@ -9525,28 +9525,28 @@
       </c>
     </row>
     <row r="87" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="23" t="s">
         <v>526</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E87" s="31"/>
+      <c r="E87" s="37"/>
       <c r="F87" s="21" t="s">
         <v>705</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="I87" s="30"/>
+      <c r="I87" s="36"/>
       <c r="J87" s="21" t="s">
         <v>529</v>
       </c>
       <c r="K87" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="M87" s="30"/>
+      <c r="M87" s="36"/>
       <c r="N87" s="21" t="s">
         <v>476</v>
       </c>
@@ -9555,28 +9555,28 @@
       </c>
     </row>
     <row r="88" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E88" s="31"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="21" t="s">
         <v>707</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I88" s="30"/>
+      <c r="I88" s="36"/>
       <c r="J88" s="21" t="s">
         <v>214</v>
       </c>
       <c r="K88" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M88" s="30"/>
+      <c r="M88" s="36"/>
       <c r="N88" s="21" t="s">
         <v>479</v>
       </c>
@@ -9585,7 +9585,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="36" t="s">
         <v>352</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -9594,7 +9594,7 @@
       <c r="C89" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="37" t="s">
         <v>708</v>
       </c>
       <c r="F89" s="21" t="s">
@@ -9603,7 +9603,7 @@
       <c r="G89" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="I89" s="30" t="s">
+      <c r="I89" s="36" t="s">
         <v>215</v>
       </c>
       <c r="J89" s="21" t="s">
@@ -9612,7 +9612,7 @@
       <c r="K89" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="M89" s="30" t="s">
+      <c r="M89" s="36" t="s">
         <v>481</v>
       </c>
       <c r="N89" s="21" t="s">
@@ -9623,28 +9623,28 @@
       </c>
     </row>
     <row r="90" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E90" s="31"/>
+      <c r="E90" s="37"/>
       <c r="F90" s="21" t="s">
         <v>711</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="I90" s="30"/>
+      <c r="I90" s="36"/>
       <c r="J90" s="21" t="s">
         <v>218</v>
       </c>
       <c r="K90" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="M90" s="30"/>
+      <c r="M90" s="36"/>
       <c r="N90" s="21" t="s">
         <v>484</v>
       </c>
@@ -9653,28 +9653,28 @@
       </c>
     </row>
     <row r="91" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="E91" s="31"/>
+      <c r="E91" s="37"/>
       <c r="F91" s="21" t="s">
         <v>713</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="I91" s="30"/>
+      <c r="I91" s="36"/>
       <c r="J91" s="21" t="s">
         <v>220</v>
       </c>
       <c r="K91" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="M91" s="30"/>
+      <c r="M91" s="36"/>
       <c r="N91" s="21" t="s">
         <v>486</v>
       </c>
@@ -9683,28 +9683,28 @@
       </c>
     </row>
     <row r="92" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="23" t="s">
         <v>357</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E92" s="31"/>
+      <c r="E92" s="37"/>
       <c r="F92" s="21" t="s">
         <v>715</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="I92" s="30"/>
+      <c r="I92" s="36"/>
       <c r="J92" s="21" t="s">
         <v>222</v>
       </c>
       <c r="K92" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="M92" s="30"/>
+      <c r="M92" s="36"/>
       <c r="N92" s="21" t="s">
         <v>487</v>
       </c>
@@ -9713,28 +9713,28 @@
       </c>
     </row>
     <row r="93" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E93" s="31"/>
+      <c r="E93" s="37"/>
       <c r="F93" s="21" t="s">
         <v>717</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="I93" s="30"/>
+      <c r="I93" s="36"/>
       <c r="J93" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K93" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="M93" s="30"/>
+      <c r="M93" s="36"/>
       <c r="N93" s="21" t="s">
         <v>489</v>
       </c>
@@ -9743,28 +9743,28 @@
       </c>
     </row>
     <row r="94" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="E94" s="31"/>
+      <c r="E94" s="37"/>
       <c r="F94" s="21" t="s">
         <v>719</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="I94" s="30"/>
+      <c r="I94" s="36"/>
       <c r="J94" s="21" t="s">
         <v>233</v>
       </c>
       <c r="K94" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="M94" s="30"/>
+      <c r="M94" s="36"/>
       <c r="N94" s="21" t="s">
         <v>491</v>
       </c>
@@ -9773,28 +9773,28 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="E95" s="31"/>
+      <c r="E95" s="37"/>
       <c r="F95" s="21" t="s">
         <v>721</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="I95" s="30"/>
+      <c r="I95" s="36"/>
       <c r="J95" s="21" t="s">
         <v>530</v>
       </c>
       <c r="K95" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="M95" s="30"/>
+      <c r="M95" s="36"/>
       <c r="N95" s="21" t="s">
         <v>492</v>
       </c>
@@ -9803,28 +9803,28 @@
       </c>
     </row>
     <row r="96" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="23" t="s">
         <v>534</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E96" s="31"/>
+      <c r="E96" s="37"/>
       <c r="F96" s="21" t="s">
         <v>723</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="I96" s="30"/>
+      <c r="I96" s="36"/>
       <c r="J96" s="21" t="s">
         <v>536</v>
       </c>
       <c r="K96" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="M96" s="30"/>
+      <c r="M96" s="36"/>
       <c r="N96" s="21" t="s">
         <v>494</v>
       </c>
@@ -9833,7 +9833,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="36" t="s">
         <v>362</v>
       </c>
       <c r="B97" s="23" t="s">
@@ -9842,7 +9842,7 @@
       <c r="C97" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="37" t="s">
         <v>725</v>
       </c>
       <c r="F97" s="21" t="s">
@@ -9851,7 +9851,7 @@
       <c r="G97" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="I97" s="30" t="s">
+      <c r="I97" s="36" t="s">
         <v>226</v>
       </c>
       <c r="J97" s="21" t="s">
@@ -9860,7 +9860,7 @@
       <c r="K97" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="M97" s="30" t="s">
+      <c r="M97" s="36" t="s">
         <v>496</v>
       </c>
       <c r="N97" s="21" t="s">
@@ -9871,28 +9871,28 @@
       </c>
     </row>
     <row r="98" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="23" t="s">
         <v>366</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E98" s="31"/>
+      <c r="E98" s="37"/>
       <c r="F98" s="21" t="s">
         <v>728</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I98" s="30"/>
+      <c r="I98" s="36"/>
       <c r="J98" s="21" t="s">
         <v>229</v>
       </c>
       <c r="K98" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M98" s="30"/>
+      <c r="M98" s="36"/>
       <c r="N98" s="21" t="s">
         <v>499</v>
       </c>
@@ -9901,28 +9901,28 @@
       </c>
     </row>
     <row r="99" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="E99" s="31"/>
+      <c r="E99" s="37"/>
       <c r="F99" s="21" t="s">
         <v>729</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="I99" s="30"/>
+      <c r="I99" s="36"/>
       <c r="J99" s="21" t="s">
         <v>230</v>
       </c>
       <c r="K99" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="M99" s="30"/>
+      <c r="M99" s="36"/>
       <c r="N99" s="21" t="s">
         <v>500</v>
       </c>
@@ -9931,28 +9931,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="31"/>
+      <c r="E100" s="37"/>
       <c r="F100" s="21" t="s">
         <v>731</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="I100" s="30"/>
+      <c r="I100" s="36"/>
       <c r="J100" s="21" t="s">
         <v>232</v>
       </c>
       <c r="K100" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M100" s="30"/>
+      <c r="M100" s="36"/>
       <c r="N100" s="21" t="s">
         <v>501</v>
       </c>
@@ -9961,7 +9961,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -9970,7 +9970,7 @@
       <c r="C101" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="36" t="s">
         <v>625</v>
       </c>
       <c r="F101" s="21" t="s">
@@ -9979,7 +9979,7 @@
       <c r="G101" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I101" s="30" t="s">
+      <c r="I101" s="36" t="s">
         <v>140</v>
       </c>
       <c r="J101" s="21" t="s">
@@ -9988,7 +9988,7 @@
       <c r="K101" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M101" s="30" t="s">
+      <c r="M101" s="36" t="s">
         <v>515</v>
       </c>
       <c r="N101" s="21" t="s">
@@ -9999,28 +9999,28 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E102" s="30"/>
+      <c r="E102" s="36"/>
       <c r="F102" s="21" t="s">
         <v>628</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I102" s="30"/>
+      <c r="I102" s="36"/>
       <c r="J102" s="21" t="s">
         <v>142</v>
       </c>
       <c r="K102" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M102" s="30"/>
+      <c r="M102" s="36"/>
       <c r="N102" s="21" t="s">
         <v>410</v>
       </c>
@@ -10029,28 +10029,28 @@
       </c>
     </row>
     <row r="103" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E103" s="30"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="21" t="s">
         <v>629</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I103" s="30"/>
+      <c r="I103" s="36"/>
       <c r="J103" s="21" t="s">
         <v>143</v>
       </c>
       <c r="K103" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="M103" s="30"/>
+      <c r="M103" s="36"/>
       <c r="N103" s="21" t="s">
         <v>412</v>
       </c>
@@ -10059,28 +10059,28 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="23" t="s">
         <v>280</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E104" s="30"/>
+      <c r="E104" s="36"/>
       <c r="F104" s="21" t="s">
         <v>630</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I104" s="30"/>
+      <c r="I104" s="36"/>
       <c r="J104" s="21" t="s">
         <v>144</v>
       </c>
       <c r="K104" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M104" s="30"/>
+      <c r="M104" s="36"/>
       <c r="N104" s="21" t="s">
         <v>416</v>
       </c>
@@ -10089,28 +10089,28 @@
       </c>
     </row>
     <row r="105" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E105" s="30"/>
+      <c r="E105" s="36"/>
       <c r="F105" s="21" t="s">
         <v>631</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="I105" s="30"/>
+      <c r="I105" s="36"/>
       <c r="J105" s="21" t="s">
         <v>145</v>
       </c>
       <c r="K105" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="M105" s="30"/>
+      <c r="M105" s="36"/>
       <c r="N105" s="21" t="s">
         <v>417</v>
       </c>
@@ -10119,28 +10119,28 @@
       </c>
     </row>
     <row r="106" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E106" s="30"/>
+      <c r="E106" s="36"/>
       <c r="F106" s="21" t="s">
         <v>632</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="I106" s="30"/>
+      <c r="I106" s="36"/>
       <c r="J106" s="21" t="s">
         <v>147</v>
       </c>
       <c r="K106" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M106" s="30"/>
+      <c r="M106" s="36"/>
       <c r="N106" s="21" t="s">
         <v>419</v>
       </c>
@@ -10149,29 +10149,29 @@
       </c>
     </row>
     <row r="107" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="31" t="s">
+      <c r="A107" s="36"/>
+      <c r="B107" s="37" t="s">
         <v>285</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30" t="s">
+      <c r="E107" s="36"/>
+      <c r="F107" s="36" t="s">
         <v>634</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30" t="s">
+      <c r="I107" s="36"/>
+      <c r="J107" s="36" t="s">
         <v>149</v>
       </c>
       <c r="K107" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M107" s="30"/>
-      <c r="N107" s="30" t="s">
+      <c r="M107" s="36"/>
+      <c r="N107" s="36" t="s">
         <v>413</v>
       </c>
       <c r="O107" s="21" t="s">
@@ -10179,142 +10179,90 @@
       </c>
     </row>
     <row r="108" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="31"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
       <c r="G108" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
       <c r="K108" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="M108" s="30"/>
-      <c r="N108" s="30"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
       <c r="O108" s="21" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="31"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
       <c r="G109" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
       <c r="K109" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="M109" s="30"/>
-      <c r="N109" s="30"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
       <c r="O109" s="21" t="s">
         <v>513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="N107:N109"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="I101:I109"/>
-    <mergeCell ref="M101:M109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="I89:I96"/>
-    <mergeCell ref="M89:M96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M66:M73"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A14:A36"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="E14:E36"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="I14:I36"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="M4:M13"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M14:M36"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="N22:N24"/>
     <mergeCell ref="I4:I13"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="B10:B11"/>
@@ -10339,45 +10287,97 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="F25:F28"/>
     <mergeCell ref="J25:J28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M14:M36"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="A14:A36"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="E14:E36"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="I14:I36"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="M4:M13"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="M57:M61"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="M66:M73"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N107:N109"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="I101:I109"/>
+    <mergeCell ref="M101:M109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="M89:M96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="M97:M100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10420,10 +10420,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="38" t="s">
         <v>551</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -10431,15 +10431,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="36" t="s">
         <v>505</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -10447,15 +10447,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="36" t="s">
         <v>396</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -10463,15 +10463,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="36" t="s">
         <v>397</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -10479,15 +10479,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="36" t="s">
         <v>398</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -10495,17 +10495,17 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="26" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="39" t="s">
         <v>370</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -10513,28 +10513,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="26" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="26" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="26" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="26" t="s">
         <v>375</v>
       </c>
@@ -10543,8 +10543,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="36" t="s">
         <v>377</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -10552,14 +10552,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="26" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="26" t="s">
         <v>379</v>
       </c>
@@ -10568,8 +10568,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="36" t="s">
         <v>381</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -10577,22 +10577,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="26" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="36" t="s">
         <v>384</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -10600,28 +10600,28 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="26" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="26" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="26" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="26" t="s">
         <v>387</v>
       </c>
@@ -10630,7 +10630,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="28" t="s">
         <v>548</v>
       </c>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="28" t="s">
         <v>549</v>
       </c>
@@ -10648,7 +10648,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="26" t="s">
         <v>389</v>
       </c>
@@ -10657,7 +10657,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="28" t="s">
         <v>550</v>
       </c>
@@ -10666,7 +10666,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="26" t="s">
         <v>392</v>
       </c>
@@ -10675,8 +10675,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="36" t="s">
         <v>394</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -10684,14 +10684,14 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="26" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="37" t="s">
         <v>399</v>
       </c>
       <c r="B37" s="26" t="s">
@@ -10702,7 +10702,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="26" t="s">
         <v>401</v>
       </c>
@@ -10711,7 +10711,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="26" t="s">
         <v>403</v>
       </c>
@@ -10720,7 +10720,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="26" t="s">
         <v>405</v>
       </c>
@@ -10729,8 +10729,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="36" t="s">
         <v>507</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -10738,14 +10738,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="26" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="26" t="s">
         <v>407</v>
       </c>
@@ -10754,7 +10754,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="26" t="s">
         <v>408</v>
       </c>
@@ -10763,7 +10763,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="37" t="s">
         <v>421</v>
       </c>
       <c r="B45" s="28" t="s">
@@ -10774,8 +10774,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C46" s="26" t="s">
@@ -10783,15 +10783,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -10799,15 +10799,15 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="36" t="s">
         <v>426</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -10815,14 +10815,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="26" t="s">
         <v>428</v>
       </c>
@@ -10831,8 +10831,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="36" t="s">
         <v>430</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -10840,14 +10840,14 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="28" t="s">
         <v>565</v>
       </c>
@@ -10867,10 +10867,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="36" t="s">
         <v>433</v>
       </c>
       <c r="C57" s="26" t="s">
@@ -10878,15 +10878,15 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="26" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="30" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="36" t="s">
         <v>434</v>
       </c>
       <c r="C59" s="26" t="s">
@@ -10894,14 +10894,14 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="26" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="26" t="s">
         <v>435</v>
       </c>
@@ -10910,10 +10910,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="36" t="s">
         <v>437</v>
       </c>
       <c r="C62" s="26" t="s">
@@ -10921,17 +10921,17 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="26" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="36" t="s">
         <v>442</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -10939,17 +10939,17 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="26" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="36" t="s">
         <v>446</v>
       </c>
       <c r="C66" s="26" t="s">
@@ -10957,14 +10957,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="28" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="26" t="s">
         <v>447</v>
       </c>
@@ -10973,8 +10973,8 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="36" t="s">
         <v>448</v>
       </c>
       <c r="C69" s="26" t="s">
@@ -10982,21 +10982,21 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="26" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="28" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="28" t="s">
         <v>566</v>
       </c>
@@ -11005,7 +11005,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="26" t="s">
         <v>519</v>
       </c>
@@ -11014,7 +11014,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="37" t="s">
         <v>451</v>
       </c>
       <c r="B74" s="26" t="s">
@@ -11025,7 +11025,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="26" t="s">
         <v>453</v>
       </c>
@@ -11034,7 +11034,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="26" t="s">
         <v>454</v>
       </c>
@@ -11043,7 +11043,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="26" t="s">
         <v>456</v>
       </c>
@@ -11052,10 +11052,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="36" t="s">
         <v>459</v>
       </c>
       <c r="C78" s="26" t="s">
@@ -11063,14 +11063,14 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="30"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="26" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="37" t="s">
         <v>462</v>
       </c>
       <c r="B80" s="26" t="s">
@@ -11081,7 +11081,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="26" t="s">
         <v>464</v>
       </c>
@@ -11090,7 +11090,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="37" t="s">
         <v>468</v>
       </c>
       <c r="B82" s="26" t="s">
@@ -11101,7 +11101,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="26" t="s">
         <v>470</v>
       </c>
@@ -11110,7 +11110,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="26" t="s">
         <v>472</v>
       </c>
@@ -11119,7 +11119,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="37" t="s">
         <v>474</v>
       </c>
       <c r="B85" s="26" t="s">
@@ -11130,7 +11130,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="26" t="s">
         <v>476</v>
       </c>
@@ -11139,7 +11139,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="26" t="s">
         <v>476</v>
       </c>
@@ -11148,7 +11148,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="26" t="s">
         <v>479</v>
       </c>
@@ -11157,7 +11157,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="37" t="s">
         <v>481</v>
       </c>
       <c r="B89" s="26" t="s">
@@ -11168,7 +11168,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="26" t="s">
         <v>484</v>
       </c>
@@ -11177,7 +11177,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="26" t="s">
         <v>486</v>
       </c>
@@ -11186,7 +11186,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="26" t="s">
         <v>487</v>
       </c>
@@ -11195,7 +11195,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="26" t="s">
         <v>489</v>
       </c>
@@ -11204,7 +11204,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="26" t="s">
         <v>491</v>
       </c>
@@ -11213,7 +11213,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="26" t="s">
         <v>492</v>
       </c>
@@ -11222,7 +11222,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="26" t="s">
         <v>494</v>
       </c>
@@ -11231,7 +11231,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="37" t="s">
         <v>496</v>
       </c>
       <c r="B97" s="26" t="s">
@@ -11242,7 +11242,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="26" t="s">
         <v>499</v>
       </c>
@@ -11251,7 +11251,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="26" t="s">
         <v>500</v>
       </c>
@@ -11260,7 +11260,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="26" t="s">
         <v>501</v>
       </c>
@@ -11269,7 +11269,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="36" t="s">
         <v>515</v>
       </c>
       <c r="B101" s="26" t="s">
@@ -11280,7 +11280,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="26" t="s">
         <v>410</v>
       </c>
@@ -11289,7 +11289,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="26" t="s">
         <v>412</v>
       </c>
@@ -11298,7 +11298,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="26" t="s">
         <v>416</v>
       </c>
@@ -11307,7 +11307,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="26" t="s">
         <v>417</v>
       </c>
@@ -11316,7 +11316,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="26" t="s">
         <v>419</v>
       </c>
@@ -11325,8 +11325,8 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30" t="s">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36" t="s">
         <v>413</v>
       </c>
       <c r="C107" s="26" t="s">
@@ -11334,33 +11334,34 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="26" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="26" t="s">
         <v>513</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A36"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="A37:A44"/>
@@ -11375,19 +11376,18 @@
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A14:A36"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11405,217 +11405,217 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="33" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="34" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="34" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="34" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="35" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="34" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="34" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="45"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="45"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="34" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="45"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="34" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="45"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="32" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="34" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="45"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="45"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="34" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="45"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="45"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="45"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="34" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="45"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="45"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="45"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="45"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="45"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="45"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="45"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="34" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="45"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="45"/>
+      <c r="D43" s="34"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="45"/>
+      <c r="D44" s="34"/>
     </row>
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
